--- a/source/Report.xlsx
+++ b/source/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edea27d6c058b310/Github/UnitTestCode_gnerator/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{DCA671DE-BAE3-4C4A-AC09-49D390FE5989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18B6235C-D09D-4781-8EA6-5141DC084702}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{DCA671DE-BAE3-4C4A-AC09-49D390FE5989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B9941B0-7FCB-4679-9312-C5D0AC9ED4C2}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="12673" windowHeight="12020" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit_TC" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="62">
   <si>
     <t>TC ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>There is no compilation error</t>
   </si>
 </sst>
 </file>
@@ -271,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,12 +487,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -701,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,9 +893,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1020,7 +1014,7 @@
     <cellStyle name="표준 7 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="하이퍼링크 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1093,105 +1087,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF009900"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFD9DE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="39"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="42"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1474,8 +1369,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:ADU42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.7"/>
@@ -1581,69 +1476,69 @@
       <c r="L9" s="36"/>
     </row>
     <row r="10" spans="2:801" s="2" customFormat="1">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="69" t="s">
+      <c r="I10" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="70" t="s">
+      <c r="L10" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="69" t="s">
+      <c r="M10" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="69" t="s">
+      <c r="N10" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="69" t="s">
+      <c r="O10" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="78" t="s">
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="79" t="s">
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="80" t="s">
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="69" t="s">
+      <c r="AA10" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="73" t="s">
+      <c r="AB10" s="72" t="s">
         <v>18</v>
       </c>
       <c r="XB10" s="3"/>
@@ -1815,25 +1710,25 @@
       <c r="ADU10" s="3"/>
     </row>
     <row r="11" spans="2:801" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="B11" s="75"/>
-      <c r="C11" s="69" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69" t="s">
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="69" t="s">
+      <c r="P11" s="68" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -1848,7 +1743,7 @@
       <c r="T11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="76" t="s">
+      <c r="U11" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V11" s="6" t="s">
@@ -1860,12 +1755,12 @@
       <c r="X11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="78" t="s">
+      <c r="Y11" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="73"/>
       <c r="XB11" s="3"/>
       <c r="XC11" s="3"/>
       <c r="XD11" s="3"/>
@@ -2035,21 +1930,21 @@
       <c r="ADU11" s="3"/>
     </row>
     <row r="12" spans="2:801" s="2" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
       <c r="Q12" s="7">
         <f>SUM(Q13:Q42)</f>
         <v>0</v>
@@ -2058,7 +1953,7 @@
         <f>IFERROR(S12/T12,"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="S12" s="68" t="e">
+      <c r="S12" s="67" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -2066,7 +1961,7 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="U12" s="77"/>
+      <c r="U12" s="76"/>
       <c r="V12" s="6" t="str">
         <f>IFERROR(W12/X12,"N/A")</f>
         <v>N/A</v>
@@ -2079,10 +1974,10 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="73"/>
       <c r="XB12" s="3"/>
       <c r="XC12" s="3"/>
       <c r="XD12" s="3"/>
@@ -2252,13 +2147,15 @@
       <c r="ADU12" s="3"/>
     </row>
     <row r="13" spans="2:801" s="2" customFormat="1">
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="56"/>
       <c r="G13" s="59"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I13" s="10" t="str">
         <f>$B13&amp;".xls"</f>
         <v>.xls</v>
@@ -2269,7 +2166,7 @@
       <c r="K13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="62"/>
+      <c r="L13" s="61"/>
       <c r="M13" s="10" t="str">
         <f>$B13&amp;".xls"</f>
         <v>.xls</v>
@@ -2286,13 +2183,13 @@
       <c r="R13" s="58"/>
       <c r="S13" s="57"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="58"/>
       <c r="W13" s="57"/>
       <c r="X13" s="57"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="66"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="65"/>
       <c r="AB13" s="54"/>
       <c r="XB13" s="3"/>
       <c r="XC13" s="3"/>
@@ -2463,13 +2360,15 @@
       <c r="ADU13" s="3"/>
     </row>
     <row r="14" spans="2:801" s="2" customFormat="1">
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="56"/>
       <c r="G14" s="59"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I14" s="10" t="str">
         <f t="shared" ref="I14:I42" si="0">$B14&amp;".xls"</f>
         <v>.xls</v>
@@ -2480,7 +2379,7 @@
       <c r="K14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L14" s="62"/>
+      <c r="L14" s="61"/>
       <c r="M14" s="10" t="str">
         <f t="shared" ref="M14:N29" si="1">$B14&amp;".xls"</f>
         <v>.xls</v>
@@ -2497,13 +2396,13 @@
       <c r="R14" s="58"/>
       <c r="S14" s="57"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="58"/>
       <c r="W14" s="57"/>
       <c r="X14" s="57"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="66"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="65"/>
       <c r="AB14" s="54"/>
       <c r="XB14" s="3"/>
       <c r="XC14" s="3"/>
@@ -2674,13 +2573,15 @@
       <c r="ADU14" s="3"/>
     </row>
     <row r="15" spans="2:801" s="2" customFormat="1">
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="56"/>
       <c r="G15" s="59"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -2691,7 +2592,7 @@
       <c r="K15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="62"/>
+      <c r="L15" s="61"/>
       <c r="M15" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -2708,13 +2609,13 @@
       <c r="R15" s="58"/>
       <c r="S15" s="57"/>
       <c r="T15" s="57"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="58"/>
       <c r="W15" s="57"/>
       <c r="X15" s="57"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="66"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="65"/>
       <c r="AB15" s="54"/>
       <c r="XB15" s="3"/>
       <c r="XC15" s="3"/>
@@ -2885,13 +2786,15 @@
       <c r="ADU15" s="3"/>
     </row>
     <row r="16" spans="2:801" s="2" customFormat="1">
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="56"/>
       <c r="G16" s="59"/>
-      <c r="H16" s="60"/>
+      <c r="H16" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -2902,7 +2805,7 @@
       <c r="K16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="62"/>
+      <c r="L16" s="61"/>
       <c r="M16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -2919,13 +2822,13 @@
       <c r="R16" s="58"/>
       <c r="S16" s="57"/>
       <c r="T16" s="57"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="58"/>
       <c r="W16" s="57"/>
       <c r="X16" s="57"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="66"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="65"/>
       <c r="AB16" s="54"/>
       <c r="XB16" s="3"/>
       <c r="XC16" s="3"/>
@@ -3096,13 +2999,15 @@
       <c r="ADU16" s="3"/>
     </row>
     <row r="17" spans="1:801" s="2" customFormat="1">
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="56"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -3113,7 +3018,7 @@
       <c r="K17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="62"/>
+      <c r="L17" s="61"/>
       <c r="M17" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -3130,13 +3035,13 @@
       <c r="R17" s="58"/>
       <c r="S17" s="57"/>
       <c r="T17" s="57"/>
-      <c r="U17" s="65"/>
+      <c r="U17" s="64"/>
       <c r="V17" s="58"/>
       <c r="W17" s="57"/>
       <c r="X17" s="57"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="66"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="65"/>
       <c r="AB17" s="54"/>
       <c r="XB17" s="3"/>
       <c r="XC17" s="3"/>
@@ -3308,13 +3213,15 @@
     </row>
     <row r="18" spans="1:801" s="8" customFormat="1">
       <c r="A18" s="46"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="56"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -3325,7 +3232,7 @@
       <c r="K18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L18" s="62"/>
+      <c r="L18" s="61"/>
       <c r="M18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -3342,13 +3249,13 @@
       <c r="R18" s="58"/>
       <c r="S18" s="57"/>
       <c r="T18" s="57"/>
-      <c r="U18" s="65"/>
+      <c r="U18" s="64"/>
       <c r="V18" s="58"/>
       <c r="W18" s="57"/>
       <c r="X18" s="57"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="66"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="65"/>
       <c r="AB18" s="45"/>
       <c r="XB18" s="12"/>
       <c r="XC18" s="12"/>
@@ -3520,13 +3427,15 @@
     </row>
     <row r="19" spans="1:801" s="8" customFormat="1">
       <c r="A19" s="46"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
       <c r="F19" s="56"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -3537,7 +3446,7 @@
       <c r="K19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L19" s="62"/>
+      <c r="L19" s="61"/>
       <c r="M19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -3554,13 +3463,13 @@
       <c r="R19" s="58"/>
       <c r="S19" s="57"/>
       <c r="T19" s="57"/>
-      <c r="U19" s="65"/>
+      <c r="U19" s="64"/>
       <c r="V19" s="58"/>
       <c r="W19" s="57"/>
       <c r="X19" s="57"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="66"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="65"/>
       <c r="AB19" s="45"/>
       <c r="XB19" s="12"/>
       <c r="XC19" s="12"/>
@@ -3732,13 +3641,15 @@
     </row>
     <row r="20" spans="1:801">
       <c r="A20" s="14"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -3749,7 +3660,7 @@
       <c r="K20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L20" s="62"/>
+      <c r="L20" s="61"/>
       <c r="M20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -3766,22 +3677,24 @@
       <c r="R20" s="58"/>
       <c r="S20" s="57"/>
       <c r="T20" s="57"/>
-      <c r="U20" s="65"/>
+      <c r="U20" s="64"/>
       <c r="V20" s="58"/>
       <c r="W20" s="57"/>
       <c r="X20" s="57"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="66"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="65"/>
     </row>
     <row r="21" spans="1:801">
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="56"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -3792,7 +3705,7 @@
       <c r="K21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="62"/>
+      <c r="L21" s="61"/>
       <c r="M21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -3809,22 +3722,24 @@
       <c r="R21" s="58"/>
       <c r="S21" s="57"/>
       <c r="T21" s="57"/>
-      <c r="U21" s="65"/>
+      <c r="U21" s="64"/>
       <c r="V21" s="58"/>
       <c r="W21" s="57"/>
       <c r="X21" s="57"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="63"/>
-      <c r="AA21" s="66"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="65"/>
     </row>
     <row r="22" spans="1:801">
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
       <c r="F22" s="56"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -3835,7 +3750,7 @@
       <c r="K22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L22" s="62"/>
+      <c r="L22" s="61"/>
       <c r="M22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -3852,22 +3767,24 @@
       <c r="R22" s="58"/>
       <c r="S22" s="57"/>
       <c r="T22" s="57"/>
-      <c r="U22" s="65"/>
+      <c r="U22" s="64"/>
       <c r="V22" s="58"/>
       <c r="W22" s="57"/>
       <c r="X22" s="57"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="63"/>
-      <c r="AA22" s="66"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="65"/>
     </row>
     <row r="23" spans="1:801">
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
       <c r="F23" s="56"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I23" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -3878,7 +3795,7 @@
       <c r="K23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="62"/>
+      <c r="L23" s="61"/>
       <c r="M23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -3895,22 +3812,24 @@
       <c r="R23" s="58"/>
       <c r="S23" s="57"/>
       <c r="T23" s="57"/>
-      <c r="U23" s="65"/>
+      <c r="U23" s="64"/>
       <c r="V23" s="58"/>
       <c r="W23" s="57"/>
       <c r="X23" s="57"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="63"/>
-      <c r="AA23" s="66"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="65"/>
     </row>
     <row r="24" spans="1:801">
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="56"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -3921,7 +3840,7 @@
       <c r="K24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L24" s="62"/>
+      <c r="L24" s="61"/>
       <c r="M24" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -3938,22 +3857,24 @@
       <c r="R24" s="58"/>
       <c r="S24" s="57"/>
       <c r="T24" s="57"/>
-      <c r="U24" s="65"/>
+      <c r="U24" s="64"/>
       <c r="V24" s="58"/>
       <c r="W24" s="57"/>
       <c r="X24" s="57"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="63"/>
-      <c r="AA24" s="66"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="65"/>
     </row>
     <row r="25" spans="1:801">
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="56"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -3964,7 +3885,7 @@
       <c r="K25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L25" s="62"/>
+      <c r="L25" s="61"/>
       <c r="M25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -3981,22 +3902,24 @@
       <c r="R25" s="58"/>
       <c r="S25" s="57"/>
       <c r="T25" s="57"/>
-      <c r="U25" s="65"/>
+      <c r="U25" s="64"/>
       <c r="V25" s="58"/>
       <c r="W25" s="57"/>
       <c r="X25" s="57"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="66"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="65"/>
     </row>
     <row r="26" spans="1:801">
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="56"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I26" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -4007,7 +3930,7 @@
       <c r="K26" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L26" s="62"/>
+      <c r="L26" s="61"/>
       <c r="M26" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -4024,22 +3947,24 @@
       <c r="R26" s="58"/>
       <c r="S26" s="57"/>
       <c r="T26" s="57"/>
-      <c r="U26" s="65"/>
+      <c r="U26" s="64"/>
       <c r="V26" s="58"/>
       <c r="W26" s="57"/>
       <c r="X26" s="57"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="63"/>
-      <c r="AA26" s="66"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="65"/>
     </row>
     <row r="27" spans="1:801">
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="56"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I27" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -4050,7 +3975,7 @@
       <c r="K27" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="62"/>
+      <c r="L27" s="61"/>
       <c r="M27" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -4067,22 +3992,24 @@
       <c r="R27" s="58"/>
       <c r="S27" s="57"/>
       <c r="T27" s="57"/>
-      <c r="U27" s="65"/>
+      <c r="U27" s="64"/>
       <c r="V27" s="58"/>
       <c r="W27" s="57"/>
       <c r="X27" s="57"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="66"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="65"/>
     </row>
     <row r="28" spans="1:801">
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="56"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -4093,7 +4020,7 @@
       <c r="K28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L28" s="62"/>
+      <c r="L28" s="61"/>
       <c r="M28" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -4110,22 +4037,24 @@
       <c r="R28" s="58"/>
       <c r="S28" s="57"/>
       <c r="T28" s="57"/>
-      <c r="U28" s="65"/>
+      <c r="U28" s="64"/>
       <c r="V28" s="58"/>
       <c r="W28" s="57"/>
       <c r="X28" s="57"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="63"/>
-      <c r="AA28" s="66"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="65"/>
     </row>
     <row r="29" spans="1:801">
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="56"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -4136,7 +4065,7 @@
       <c r="K29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L29" s="62"/>
+      <c r="L29" s="61"/>
       <c r="M29" s="10" t="str">
         <f t="shared" si="1"/>
         <v>.xls</v>
@@ -4153,22 +4082,24 @@
       <c r="R29" s="58"/>
       <c r="S29" s="57"/>
       <c r="T29" s="57"/>
-      <c r="U29" s="65"/>
+      <c r="U29" s="64"/>
       <c r="V29" s="58"/>
       <c r="W29" s="57"/>
       <c r="X29" s="57"/>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="63"/>
-      <c r="AA29" s="66"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="65"/>
     </row>
     <row r="30" spans="1:801">
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="56"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I30" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -4179,7 +4110,7 @@
       <c r="K30" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L30" s="62"/>
+      <c r="L30" s="61"/>
       <c r="M30" s="10" t="str">
         <f t="shared" ref="M30:N42" si="2">$B30&amp;".xls"</f>
         <v>.xls</v>
@@ -4196,22 +4127,24 @@
       <c r="R30" s="58"/>
       <c r="S30" s="57"/>
       <c r="T30" s="57"/>
-      <c r="U30" s="65"/>
+      <c r="U30" s="64"/>
       <c r="V30" s="58"/>
       <c r="W30" s="57"/>
       <c r="X30" s="57"/>
-      <c r="Y30" s="63"/>
-      <c r="Z30" s="63"/>
-      <c r="AA30" s="66"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="65"/>
     </row>
     <row r="31" spans="1:801">
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -4222,7 +4155,7 @@
       <c r="K31" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L31" s="62"/>
+      <c r="L31" s="61"/>
       <c r="M31" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4239,22 +4172,24 @@
       <c r="R31" s="58"/>
       <c r="S31" s="57"/>
       <c r="T31" s="57"/>
-      <c r="U31" s="65"/>
+      <c r="U31" s="64"/>
       <c r="V31" s="58"/>
       <c r="W31" s="57"/>
       <c r="X31" s="57"/>
-      <c r="Y31" s="63"/>
-      <c r="Z31" s="63"/>
-      <c r="AA31" s="66"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="65"/>
     </row>
     <row r="32" spans="1:801">
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
       <c r="F32" s="56"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I32" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -4265,7 +4200,7 @@
       <c r="K32" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L32" s="62"/>
+      <c r="L32" s="61"/>
       <c r="M32" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4282,22 +4217,24 @@
       <c r="R32" s="58"/>
       <c r="S32" s="57"/>
       <c r="T32" s="57"/>
-      <c r="U32" s="65"/>
+      <c r="U32" s="64"/>
       <c r="V32" s="58"/>
       <c r="W32" s="57"/>
       <c r="X32" s="57"/>
-      <c r="Y32" s="63"/>
-      <c r="Z32" s="63"/>
-      <c r="AA32" s="66"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="65"/>
     </row>
     <row r="33" spans="2:27">
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
       <c r="F33" s="56"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I33" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -4308,7 +4245,7 @@
       <c r="K33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L33" s="62"/>
+      <c r="L33" s="61"/>
       <c r="M33" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4325,22 +4262,24 @@
       <c r="R33" s="58"/>
       <c r="S33" s="57"/>
       <c r="T33" s="57"/>
-      <c r="U33" s="65"/>
+      <c r="U33" s="64"/>
       <c r="V33" s="58"/>
       <c r="W33" s="57"/>
       <c r="X33" s="57"/>
-      <c r="Y33" s="63"/>
-      <c r="Z33" s="63"/>
-      <c r="AA33" s="66"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="65"/>
     </row>
     <row r="34" spans="2:27">
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
       <c r="F34" s="56"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I34" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -4351,7 +4290,7 @@
       <c r="K34" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L34" s="62"/>
+      <c r="L34" s="61"/>
       <c r="M34" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4368,22 +4307,24 @@
       <c r="R34" s="58"/>
       <c r="S34" s="57"/>
       <c r="T34" s="57"/>
-      <c r="U34" s="65"/>
+      <c r="U34" s="64"/>
       <c r="V34" s="58"/>
       <c r="W34" s="57"/>
       <c r="X34" s="57"/>
-      <c r="Y34" s="63"/>
-      <c r="Z34" s="63"/>
-      <c r="AA34" s="66"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="65"/>
     </row>
     <row r="35" spans="2:27">
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
       <c r="F35" s="56"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I35" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -4394,7 +4335,7 @@
       <c r="K35" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L35" s="62"/>
+      <c r="L35" s="61"/>
       <c r="M35" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4411,22 +4352,24 @@
       <c r="R35" s="58"/>
       <c r="S35" s="57"/>
       <c r="T35" s="57"/>
-      <c r="U35" s="65"/>
+      <c r="U35" s="64"/>
       <c r="V35" s="58"/>
       <c r="W35" s="57"/>
       <c r="X35" s="57"/>
-      <c r="Y35" s="63"/>
-      <c r="Z35" s="63"/>
-      <c r="AA35" s="66"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="65"/>
     </row>
     <row r="36" spans="2:27">
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
       <c r="F36" s="56"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I36" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -4437,7 +4380,7 @@
       <c r="K36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L36" s="62"/>
+      <c r="L36" s="61"/>
       <c r="M36" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4454,22 +4397,24 @@
       <c r="R36" s="58"/>
       <c r="S36" s="57"/>
       <c r="T36" s="57"/>
-      <c r="U36" s="65"/>
+      <c r="U36" s="64"/>
       <c r="V36" s="58"/>
       <c r="W36" s="57"/>
       <c r="X36" s="57"/>
-      <c r="Y36" s="63"/>
-      <c r="Z36" s="63"/>
-      <c r="AA36" s="66"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62"/>
+      <c r="AA36" s="65"/>
     </row>
     <row r="37" spans="2:27">
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
       <c r="F37" s="56"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I37" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -4480,7 +4425,7 @@
       <c r="K37" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L37" s="62"/>
+      <c r="L37" s="61"/>
       <c r="M37" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4497,22 +4442,24 @@
       <c r="R37" s="58"/>
       <c r="S37" s="57"/>
       <c r="T37" s="57"/>
-      <c r="U37" s="65"/>
+      <c r="U37" s="64"/>
       <c r="V37" s="58"/>
       <c r="W37" s="57"/>
       <c r="X37" s="57"/>
-      <c r="Y37" s="63"/>
-      <c r="Z37" s="63"/>
-      <c r="AA37" s="66"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="62"/>
+      <c r="AA37" s="65"/>
     </row>
     <row r="38" spans="2:27">
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
       <c r="F38" s="56"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I38" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -4523,7 +4470,7 @@
       <c r="K38" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L38" s="62"/>
+      <c r="L38" s="61"/>
       <c r="M38" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4540,22 +4487,24 @@
       <c r="R38" s="58"/>
       <c r="S38" s="57"/>
       <c r="T38" s="57"/>
-      <c r="U38" s="65"/>
+      <c r="U38" s="64"/>
       <c r="V38" s="58"/>
       <c r="W38" s="57"/>
       <c r="X38" s="57"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="66"/>
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="62"/>
+      <c r="AA38" s="65"/>
     </row>
     <row r="39" spans="2:27">
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
       <c r="F39" s="56"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I39" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -4566,7 +4515,7 @@
       <c r="K39" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L39" s="62"/>
+      <c r="L39" s="61"/>
       <c r="M39" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4583,22 +4532,24 @@
       <c r="R39" s="58"/>
       <c r="S39" s="57"/>
       <c r="T39" s="57"/>
-      <c r="U39" s="65"/>
+      <c r="U39" s="64"/>
       <c r="V39" s="58"/>
       <c r="W39" s="57"/>
       <c r="X39" s="57"/>
-      <c r="Y39" s="63"/>
-      <c r="Z39" s="63"/>
-      <c r="AA39" s="66"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="65"/>
     </row>
     <row r="40" spans="2:27">
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
       <c r="F40" s="56"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I40" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -4609,7 +4560,7 @@
       <c r="K40" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L40" s="62"/>
+      <c r="L40" s="61"/>
       <c r="M40" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4626,22 +4577,24 @@
       <c r="R40" s="58"/>
       <c r="S40" s="57"/>
       <c r="T40" s="57"/>
-      <c r="U40" s="65"/>
+      <c r="U40" s="64"/>
       <c r="V40" s="58"/>
       <c r="W40" s="57"/>
       <c r="X40" s="57"/>
-      <c r="Y40" s="63"/>
-      <c r="Z40" s="63"/>
-      <c r="AA40" s="66"/>
+      <c r="Y40" s="62"/>
+      <c r="Z40" s="62"/>
+      <c r="AA40" s="65"/>
     </row>
     <row r="41" spans="2:27">
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
       <c r="F41" s="56"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I41" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -4652,7 +4605,7 @@
       <c r="K41" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L41" s="62"/>
+      <c r="L41" s="61"/>
       <c r="M41" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4669,22 +4622,24 @@
       <c r="R41" s="58"/>
       <c r="S41" s="57"/>
       <c r="T41" s="57"/>
-      <c r="U41" s="65"/>
+      <c r="U41" s="64"/>
       <c r="V41" s="58"/>
       <c r="W41" s="57"/>
       <c r="X41" s="57"/>
-      <c r="Y41" s="63"/>
-      <c r="Z41" s="63"/>
-      <c r="AA41" s="66"/>
+      <c r="Y41" s="62"/>
+      <c r="Z41" s="62"/>
+      <c r="AA41" s="65"/>
     </row>
     <row r="42" spans="2:27">
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
       <c r="F42" s="56"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="I42" s="10" t="str">
         <f t="shared" si="0"/>
         <v>.xls</v>
@@ -4695,7 +4650,7 @@
       <c r="K42" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L42" s="62"/>
+      <c r="L42" s="61"/>
       <c r="M42" s="10" t="str">
         <f t="shared" si="2"/>
         <v>.xls</v>
@@ -4712,13 +4667,13 @@
       <c r="R42" s="58"/>
       <c r="S42" s="57"/>
       <c r="T42" s="57"/>
-      <c r="U42" s="65"/>
+      <c r="U42" s="64"/>
       <c r="V42" s="58"/>
       <c r="W42" s="57"/>
       <c r="X42" s="57"/>
-      <c r="Y42" s="63"/>
-      <c r="Z42" s="63"/>
-      <c r="AA42" s="66"/>
+      <c r="Y42" s="62"/>
+      <c r="Z42" s="62"/>
+      <c r="AA42" s="65"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:AA661">
@@ -4803,7 +4758,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -4837,15 +4792,15 @@
       <c r="O1" s="21"/>
     </row>
     <row r="2" spans="1:16" s="22" customFormat="1" ht="18" customHeight="1">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="89"/>
-      <c r="F2" s="90"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="24"/>
@@ -4853,11 +4808,11 @@
     </row>
     <row r="3" spans="1:16" s="22" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="23"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="24"/>
@@ -4933,7 +4888,7 @@
       <c r="H7" s="47"/>
       <c r="I7" s="48"/>
       <c r="J7" s="48"/>
-      <c r="K7" s="67"/>
+      <c r="K7" s="66"/>
       <c r="L7" s="49"/>
       <c r="M7" s="47"/>
       <c r="N7" s="47"/>

--- a/source/Report.xlsx
+++ b/source/Report.xlsx
@@ -5,24 +5,25 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cube_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edea27d6c058b310/Github/UnitTestCode_gnerator/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAED138-2BC5-4ADE-AA73-6FD40757F231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{CFAED138-2BC5-4ADE-AA73-6FD40757F231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2ECC16A-18E9-42F8-9142-54D18DE623F8}"/>
   <bookViews>
-    <workbookView xWindow="727" yWindow="707" windowWidth="24873" windowHeight="13093" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit_TC" sheetId="1" r:id="rId1"/>
-    <sheet name="SWUTR-Issue List" sheetId="3" r:id="rId2"/>
+    <sheet name="filename.c" sheetId="4" r:id="rId2"/>
+    <sheet name="SWUTR-Issue List" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SWUTR-Issue List'!$B$6:$M$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SWUTR-Issue List'!$B$6:$M$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unit_TC!$B$10:$AB$12</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'SWUTR-Issue List'!$B$2:$K$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'SWUTR-Issue List'!$6:$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'SWUTR-Issue List'!$B$2:$K$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'SWUTR-Issue List'!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="94">
   <si>
     <t>TC ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -3650,7 +3651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3936,7 +3937,31 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3949,12 +3974,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3970,18 +3989,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4035,7 +4042,82 @@
     <cellStyle name="표준 7 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="하이퍼링크 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF009900"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFD9DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4637,8 +4719,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:ADU50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.7"/>
@@ -4744,69 +4826,69 @@
       <c r="L9" s="36"/>
     </row>
     <row r="10" spans="2:801" s="2" customFormat="1">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="91" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="87" t="s">
+      <c r="G10" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="86" t="s">
+      <c r="I10" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="99" t="s">
+      <c r="J10" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="99" t="s">
+      <c r="K10" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="87" t="s">
+      <c r="L10" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="86" t="s">
+      <c r="M10" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="86" t="s">
+      <c r="N10" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="86" t="s">
+      <c r="O10" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="96" t="s">
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="97" t="s">
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="98" t="s">
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="86" t="s">
+      <c r="AA10" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="90" t="s">
+      <c r="AB10" s="98" t="s">
         <v>18</v>
       </c>
       <c r="XB10" s="3"/>
@@ -4978,25 +5060,25 @@
       <c r="ADU10" s="3"/>
     </row>
     <row r="11" spans="2:801" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="B11" s="93"/>
-      <c r="C11" s="86" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86" t="s">
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="86" t="s">
+      <c r="P11" s="91" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -5011,7 +5093,7 @@
       <c r="T11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="94" t="s">
+      <c r="U11" s="100" t="s">
         <v>18</v>
       </c>
       <c r="V11" s="6" t="s">
@@ -5023,12 +5105,12 @@
       <c r="X11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="96" t="s">
+      <c r="Y11" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="91"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="99"/>
       <c r="XB11" s="3"/>
       <c r="XC11" s="3"/>
       <c r="XD11" s="3"/>
@@ -5198,21 +5280,21 @@
       <c r="ADU11" s="3"/>
     </row>
     <row r="12" spans="2:801" s="2" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="93"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="89"/>
       <c r="Q12" s="7">
         <f>SUM(Q13:Q42)</f>
         <v>0</v>
@@ -5229,7 +5311,7 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="U12" s="95"/>
+      <c r="U12" s="101"/>
       <c r="V12" s="6" t="str">
         <f>IFERROR(W12/X12,"N/A")</f>
         <v>N/A</v>
@@ -5242,10 +5324,10 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="91"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="99"/>
       <c r="XB12" s="3"/>
       <c r="XC12" s="3"/>
       <c r="XD12" s="3"/>
@@ -8324,16 +8406,6 @@
     <sortCondition ref="B6"/>
   </sortState>
   <mergeCells count="23">
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
     <mergeCell ref="N10:N12"/>
     <mergeCell ref="L10:L12"/>
     <mergeCell ref="M10:M12"/>
@@ -8347,133 +8419,143 @@
     <mergeCell ref="V10:Y10"/>
     <mergeCell ref="Z10:Z12"/>
     <mergeCell ref="AA10:AA12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="O13:O42">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="35" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:O42">
-    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="29" operator="equal">
       <formula>$O$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="30" operator="equal">
       <formula>$O$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48 P44:P46 U44:U45">
-    <cfRule type="cellIs" dxfId="27" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="26" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="27" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U48">
-    <cfRule type="cellIs" dxfId="24" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="23" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="24" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U46">
-    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="17" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="18" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="19" stopIfTrue="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44:O46">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O46">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44:O46">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>$O$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>$O$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>$O$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>$O$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8494,6 +8576,6196 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590D9411-747B-4476-B266-E7DA3A907B4D}">
+  <dimension ref="A1:ADU55"/>
+  <sheetViews>
+    <sheetView topLeftCell="C9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.7"/>
+  <cols>
+    <col min="1" max="1" width="7.609375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.71875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="13" customWidth="1"/>
+    <col min="10" max="10" width="22.71875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="31" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="63.38671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.5" style="15" customWidth="1"/>
+    <col min="16" max="16" width="21.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="25" width="10.609375" style="13" customWidth="1"/>
+    <col min="26" max="27" width="19.609375" style="13" customWidth="1"/>
+    <col min="28" max="28" width="66.109375" style="13" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="9.109375" style="13"/>
+    <col min="30" max="625" width="9.109375" style="13" hidden="1" customWidth="1"/>
+    <col min="626" max="692" width="9.109375" style="14" hidden="1" customWidth="1"/>
+    <col min="693" max="693" width="9.109375" style="13" hidden="1" customWidth="1"/>
+    <col min="694" max="726" width="9.109375" style="14" hidden="1" customWidth="1"/>
+    <col min="727" max="731" width="9.109375" style="13" hidden="1" customWidth="1"/>
+    <col min="732" max="732" width="9.5" style="14" customWidth="1"/>
+    <col min="733" max="733" width="48.109375" style="14" customWidth="1"/>
+    <col min="734" max="735" width="9.109375" style="14"/>
+    <col min="736" max="760" width="9.109375" style="14" hidden="1" customWidth="1"/>
+    <col min="761" max="770" width="9.109375" style="14"/>
+    <col min="771" max="795" width="9.109375" style="14" hidden="1" customWidth="1"/>
+    <col min="796" max="797" width="9.109375" style="14"/>
+    <col min="798" max="800" width="9.109375" style="13"/>
+    <col min="801" max="801" width="9.109375" style="14"/>
+    <col min="802" max="16384" width="9.109375" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
+      <c r="L1" s="36"/>
+    </row>
+    <row r="2" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="O2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
+      <c r="J3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="36"/>
+      <c r="O3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
+      <c r="K4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="36"/>
+      <c r="O4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
+      <c r="K5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="36"/>
+      <c r="O5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
+      <c r="L6" s="36"/>
+      <c r="O6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
+      <c r="L7" s="36"/>
+      <c r="O7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:801" s="1" customFormat="1" ht="12.7" hidden="1">
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="2:801" s="1" customFormat="1" ht="12.7">
+      <c r="L9" s="36"/>
+    </row>
+    <row r="10" spans="2:801" s="2" customFormat="1">
+      <c r="B10" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA10" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB10" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="XB10" s="3"/>
+      <c r="XC10" s="3"/>
+      <c r="XD10" s="3"/>
+      <c r="XE10" s="3"/>
+      <c r="XF10" s="3"/>
+      <c r="XG10" s="3"/>
+      <c r="XH10" s="3"/>
+      <c r="XI10" s="3"/>
+      <c r="XJ10" s="3"/>
+      <c r="XK10" s="3"/>
+      <c r="XL10" s="3"/>
+      <c r="XM10" s="3"/>
+      <c r="XN10" s="3"/>
+      <c r="XO10" s="3"/>
+      <c r="XP10" s="3"/>
+      <c r="XQ10" s="3"/>
+      <c r="XR10" s="3"/>
+      <c r="XS10" s="3"/>
+      <c r="XT10" s="3"/>
+      <c r="XU10" s="3"/>
+      <c r="XV10" s="3"/>
+      <c r="XW10" s="3"/>
+      <c r="XX10" s="3"/>
+      <c r="XY10" s="3"/>
+      <c r="XZ10" s="3"/>
+      <c r="YA10" s="3"/>
+      <c r="YB10" s="3"/>
+      <c r="YC10" s="3"/>
+      <c r="YD10" s="3"/>
+      <c r="YE10" s="3"/>
+      <c r="YF10" s="3"/>
+      <c r="YG10" s="3"/>
+      <c r="YH10" s="3"/>
+      <c r="YI10" s="3"/>
+      <c r="YJ10" s="3"/>
+      <c r="YK10" s="3"/>
+      <c r="YL10" s="3"/>
+      <c r="YM10" s="3"/>
+      <c r="YN10" s="3"/>
+      <c r="YO10" s="3"/>
+      <c r="YP10" s="3"/>
+      <c r="YQ10" s="3"/>
+      <c r="YR10" s="3"/>
+      <c r="YS10" s="3"/>
+      <c r="YT10" s="3"/>
+      <c r="YU10" s="3"/>
+      <c r="YV10" s="3"/>
+      <c r="YW10" s="3"/>
+      <c r="YX10" s="3"/>
+      <c r="YY10" s="3"/>
+      <c r="YZ10" s="3"/>
+      <c r="ZA10" s="3"/>
+      <c r="ZB10" s="3"/>
+      <c r="ZC10" s="3"/>
+      <c r="ZD10" s="3"/>
+      <c r="ZE10" s="3"/>
+      <c r="ZF10" s="3"/>
+      <c r="ZG10" s="3"/>
+      <c r="ZH10" s="3"/>
+      <c r="ZI10" s="3"/>
+      <c r="ZJ10" s="3"/>
+      <c r="ZK10" s="3"/>
+      <c r="ZL10" s="3"/>
+      <c r="ZM10" s="3"/>
+      <c r="ZN10" s="3"/>
+      <c r="ZO10" s="3"/>
+      <c r="ZP10" s="3"/>
+      <c r="ZR10" s="3"/>
+      <c r="ZS10" s="3"/>
+      <c r="ZT10" s="3"/>
+      <c r="ZU10" s="3"/>
+      <c r="ZV10" s="3"/>
+      <c r="ZW10" s="3"/>
+      <c r="ZX10" s="3"/>
+      <c r="ZY10" s="3"/>
+      <c r="ZZ10" s="3"/>
+      <c r="AAA10" s="3"/>
+      <c r="AAB10" s="3"/>
+      <c r="AAC10" s="3"/>
+      <c r="AAD10" s="3"/>
+      <c r="AAE10" s="3"/>
+      <c r="AAF10" s="3"/>
+      <c r="AAG10" s="3"/>
+      <c r="AAH10" s="3"/>
+      <c r="AAI10" s="3"/>
+      <c r="AAJ10" s="3"/>
+      <c r="AAK10" s="3"/>
+      <c r="AAL10" s="3"/>
+      <c r="AAM10" s="3"/>
+      <c r="AAN10" s="3"/>
+      <c r="AAO10" s="3"/>
+      <c r="AAP10" s="3"/>
+      <c r="AAQ10" s="3"/>
+      <c r="AAR10" s="3"/>
+      <c r="AAS10" s="3"/>
+      <c r="AAT10" s="3"/>
+      <c r="AAU10" s="3"/>
+      <c r="AAV10" s="3"/>
+      <c r="AAW10" s="3"/>
+      <c r="AAX10" s="3"/>
+      <c r="ABD10" s="3"/>
+      <c r="ABE10" s="3"/>
+      <c r="ABF10" s="3"/>
+      <c r="ABG10" s="3"/>
+      <c r="ABH10" s="3"/>
+      <c r="ABI10" s="3"/>
+      <c r="ABJ10" s="3"/>
+      <c r="ABK10" s="3"/>
+      <c r="ABL10" s="3"/>
+      <c r="ABM10" s="3"/>
+      <c r="ABN10" s="3"/>
+      <c r="ABO10" s="3"/>
+      <c r="ABP10" s="3"/>
+      <c r="ABQ10" s="3"/>
+      <c r="ABR10" s="3"/>
+      <c r="ABS10" s="3"/>
+      <c r="ABT10" s="3"/>
+      <c r="ABU10" s="3"/>
+      <c r="ABV10" s="3"/>
+      <c r="ABW10" s="3"/>
+      <c r="ABX10" s="3"/>
+      <c r="ABY10" s="3"/>
+      <c r="ABZ10" s="3"/>
+      <c r="ACA10" s="3"/>
+      <c r="ACB10" s="3"/>
+      <c r="ACC10" s="3"/>
+      <c r="ACD10" s="3"/>
+      <c r="ACE10" s="3"/>
+      <c r="ACF10" s="3"/>
+      <c r="ACG10" s="3"/>
+      <c r="ACH10" s="3"/>
+      <c r="ACI10" s="3"/>
+      <c r="ACJ10" s="3"/>
+      <c r="ACK10" s="3"/>
+      <c r="ACL10" s="3"/>
+      <c r="ACM10" s="3"/>
+      <c r="ACN10" s="3"/>
+      <c r="ACO10" s="3"/>
+      <c r="ACP10" s="3"/>
+      <c r="ACQ10" s="3"/>
+      <c r="ACR10" s="3"/>
+      <c r="ACS10" s="3"/>
+      <c r="ACT10" s="3"/>
+      <c r="ACU10" s="3"/>
+      <c r="ACV10" s="3"/>
+      <c r="ACW10" s="3"/>
+      <c r="ACX10" s="3"/>
+      <c r="ACY10" s="3"/>
+      <c r="ACZ10" s="3"/>
+      <c r="ADA10" s="3"/>
+      <c r="ADB10" s="3"/>
+      <c r="ADC10" s="3"/>
+      <c r="ADD10" s="3"/>
+      <c r="ADE10" s="3"/>
+      <c r="ADF10" s="3"/>
+      <c r="ADG10" s="3"/>
+      <c r="ADH10" s="3"/>
+      <c r="ADI10" s="3"/>
+      <c r="ADJ10" s="3"/>
+      <c r="ADK10" s="3"/>
+      <c r="ADL10" s="3"/>
+      <c r="ADM10" s="3"/>
+      <c r="ADN10" s="3"/>
+      <c r="ADO10" s="3"/>
+      <c r="ADP10" s="3"/>
+      <c r="ADQ10" s="3"/>
+      <c r="ADU10" s="3"/>
+    </row>
+    <row r="11" spans="2:801" s="2" customFormat="1" ht="39" customHeight="1">
+      <c r="B11" s="89"/>
+      <c r="C11" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y11" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="99"/>
+      <c r="XB11" s="3"/>
+      <c r="XC11" s="3"/>
+      <c r="XD11" s="3"/>
+      <c r="XE11" s="3"/>
+      <c r="XF11" s="3"/>
+      <c r="XG11" s="3"/>
+      <c r="XH11" s="3"/>
+      <c r="XI11" s="3"/>
+      <c r="XJ11" s="3"/>
+      <c r="XK11" s="3"/>
+      <c r="XL11" s="3"/>
+      <c r="XM11" s="3"/>
+      <c r="XN11" s="3"/>
+      <c r="XO11" s="3"/>
+      <c r="XP11" s="3"/>
+      <c r="XQ11" s="3"/>
+      <c r="XR11" s="3"/>
+      <c r="XS11" s="3"/>
+      <c r="XT11" s="3"/>
+      <c r="XU11" s="3"/>
+      <c r="XV11" s="3"/>
+      <c r="XW11" s="3"/>
+      <c r="XX11" s="3"/>
+      <c r="XY11" s="3"/>
+      <c r="XZ11" s="3"/>
+      <c r="YA11" s="3"/>
+      <c r="YB11" s="3"/>
+      <c r="YC11" s="3"/>
+      <c r="YD11" s="3"/>
+      <c r="YE11" s="3"/>
+      <c r="YF11" s="3"/>
+      <c r="YG11" s="3"/>
+      <c r="YH11" s="3"/>
+      <c r="YI11" s="3"/>
+      <c r="YJ11" s="3"/>
+      <c r="YK11" s="3"/>
+      <c r="YL11" s="3"/>
+      <c r="YM11" s="3"/>
+      <c r="YN11" s="3"/>
+      <c r="YO11" s="3"/>
+      <c r="YP11" s="3"/>
+      <c r="YQ11" s="3"/>
+      <c r="YR11" s="3"/>
+      <c r="YS11" s="3"/>
+      <c r="YT11" s="3"/>
+      <c r="YU11" s="3"/>
+      <c r="YV11" s="3"/>
+      <c r="YW11" s="3"/>
+      <c r="YX11" s="3"/>
+      <c r="YY11" s="3"/>
+      <c r="YZ11" s="3"/>
+      <c r="ZA11" s="3"/>
+      <c r="ZB11" s="3"/>
+      <c r="ZC11" s="3"/>
+      <c r="ZD11" s="3"/>
+      <c r="ZE11" s="3"/>
+      <c r="ZF11" s="3"/>
+      <c r="ZG11" s="3"/>
+      <c r="ZH11" s="3"/>
+      <c r="ZI11" s="3"/>
+      <c r="ZJ11" s="3"/>
+      <c r="ZK11" s="3"/>
+      <c r="ZL11" s="3"/>
+      <c r="ZM11" s="3"/>
+      <c r="ZN11" s="3"/>
+      <c r="ZO11" s="3"/>
+      <c r="ZP11" s="3"/>
+      <c r="ZR11" s="3"/>
+      <c r="ZS11" s="3"/>
+      <c r="ZT11" s="3"/>
+      <c r="ZU11" s="3"/>
+      <c r="ZV11" s="3"/>
+      <c r="ZW11" s="3"/>
+      <c r="ZX11" s="3"/>
+      <c r="ZY11" s="3"/>
+      <c r="ZZ11" s="3"/>
+      <c r="AAA11" s="3"/>
+      <c r="AAB11" s="3"/>
+      <c r="AAC11" s="3"/>
+      <c r="AAD11" s="3"/>
+      <c r="AAE11" s="3"/>
+      <c r="AAF11" s="3"/>
+      <c r="AAG11" s="3"/>
+      <c r="AAH11" s="3"/>
+      <c r="AAI11" s="3"/>
+      <c r="AAJ11" s="3"/>
+      <c r="AAK11" s="3"/>
+      <c r="AAL11" s="3"/>
+      <c r="AAM11" s="3"/>
+      <c r="AAN11" s="3"/>
+      <c r="AAO11" s="3"/>
+      <c r="AAP11" s="3"/>
+      <c r="AAQ11" s="3"/>
+      <c r="AAR11" s="3"/>
+      <c r="AAS11" s="3"/>
+      <c r="AAT11" s="3"/>
+      <c r="AAU11" s="3"/>
+      <c r="AAV11" s="3"/>
+      <c r="AAW11" s="3"/>
+      <c r="AAX11" s="3"/>
+      <c r="ABD11" s="3"/>
+      <c r="ABE11" s="3"/>
+      <c r="ABF11" s="3"/>
+      <c r="ABG11" s="3"/>
+      <c r="ABH11" s="3"/>
+      <c r="ABI11" s="3"/>
+      <c r="ABJ11" s="3"/>
+      <c r="ABK11" s="3"/>
+      <c r="ABL11" s="3"/>
+      <c r="ABM11" s="3"/>
+      <c r="ABN11" s="3"/>
+      <c r="ABO11" s="3"/>
+      <c r="ABP11" s="3"/>
+      <c r="ABQ11" s="3"/>
+      <c r="ABR11" s="3"/>
+      <c r="ABS11" s="3"/>
+      <c r="ABT11" s="3"/>
+      <c r="ABU11" s="3"/>
+      <c r="ABV11" s="3"/>
+      <c r="ABW11" s="3"/>
+      <c r="ABX11" s="3"/>
+      <c r="ABY11" s="3"/>
+      <c r="ABZ11" s="3"/>
+      <c r="ACA11" s="3"/>
+      <c r="ACB11" s="3"/>
+      <c r="ACC11" s="3"/>
+      <c r="ACD11" s="3"/>
+      <c r="ACE11" s="3"/>
+      <c r="ACF11" s="3"/>
+      <c r="ACG11" s="3"/>
+      <c r="ACH11" s="3"/>
+      <c r="ACI11" s="3"/>
+      <c r="ACJ11" s="3"/>
+      <c r="ACK11" s="3"/>
+      <c r="ACL11" s="3"/>
+      <c r="ACM11" s="3"/>
+      <c r="ACN11" s="3"/>
+      <c r="ACO11" s="3"/>
+      <c r="ACP11" s="3"/>
+      <c r="ACQ11" s="3"/>
+      <c r="ACR11" s="3"/>
+      <c r="ACS11" s="3"/>
+      <c r="ACT11" s="3"/>
+      <c r="ACU11" s="3"/>
+      <c r="ACV11" s="3"/>
+      <c r="ACW11" s="3"/>
+      <c r="ACX11" s="3"/>
+      <c r="ACY11" s="3"/>
+      <c r="ACZ11" s="3"/>
+      <c r="ADA11" s="3"/>
+      <c r="ADB11" s="3"/>
+      <c r="ADC11" s="3"/>
+      <c r="ADD11" s="3"/>
+      <c r="ADE11" s="3"/>
+      <c r="ADF11" s="3"/>
+      <c r="ADG11" s="3"/>
+      <c r="ADH11" s="3"/>
+      <c r="ADI11" s="3"/>
+      <c r="ADJ11" s="3"/>
+      <c r="ADK11" s="3"/>
+      <c r="ADL11" s="3"/>
+      <c r="ADM11" s="3"/>
+      <c r="ADN11" s="3"/>
+      <c r="ADO11" s="3"/>
+      <c r="ADP11" s="3"/>
+      <c r="ADQ11" s="3"/>
+      <c r="ADU11" s="3"/>
+    </row>
+    <row r="12" spans="2:801" s="2" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="87">
+        <f>SUM(Q13:Q42)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="6" t="str">
+        <f>IFERROR(S12/T12,"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="S12" s="87" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T12" s="87" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U12" s="101"/>
+      <c r="V12" s="6" t="str">
+        <f>IFERROR(W12/X12,"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="W12" s="87" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X12" s="87" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="99"/>
+      <c r="XB12" s="3"/>
+      <c r="XC12" s="3"/>
+      <c r="XD12" s="3"/>
+      <c r="XE12" s="3"/>
+      <c r="XF12" s="3"/>
+      <c r="XG12" s="3"/>
+      <c r="XH12" s="3"/>
+      <c r="XI12" s="3"/>
+      <c r="XJ12" s="3"/>
+      <c r="XK12" s="3"/>
+      <c r="XL12" s="3"/>
+      <c r="XM12" s="3"/>
+      <c r="XN12" s="3"/>
+      <c r="XO12" s="3"/>
+      <c r="XP12" s="3"/>
+      <c r="XQ12" s="3"/>
+      <c r="XR12" s="3"/>
+      <c r="XS12" s="3"/>
+      <c r="XT12" s="3"/>
+      <c r="XU12" s="3"/>
+      <c r="XV12" s="3"/>
+      <c r="XW12" s="3"/>
+      <c r="XX12" s="3"/>
+      <c r="XY12" s="3"/>
+      <c r="XZ12" s="3"/>
+      <c r="YA12" s="3"/>
+      <c r="YB12" s="3"/>
+      <c r="YC12" s="3"/>
+      <c r="YD12" s="3"/>
+      <c r="YE12" s="3"/>
+      <c r="YF12" s="3"/>
+      <c r="YG12" s="3"/>
+      <c r="YH12" s="3"/>
+      <c r="YI12" s="3"/>
+      <c r="YJ12" s="3"/>
+      <c r="YK12" s="3"/>
+      <c r="YL12" s="3"/>
+      <c r="YM12" s="3"/>
+      <c r="YN12" s="3"/>
+      <c r="YO12" s="3"/>
+      <c r="YP12" s="3"/>
+      <c r="YQ12" s="3"/>
+      <c r="YR12" s="3"/>
+      <c r="YS12" s="3"/>
+      <c r="YT12" s="3"/>
+      <c r="YU12" s="3"/>
+      <c r="YV12" s="3"/>
+      <c r="YW12" s="3"/>
+      <c r="YX12" s="3"/>
+      <c r="YY12" s="3"/>
+      <c r="YZ12" s="3"/>
+      <c r="ZA12" s="3"/>
+      <c r="ZB12" s="3"/>
+      <c r="ZC12" s="3"/>
+      <c r="ZD12" s="3"/>
+      <c r="ZE12" s="3"/>
+      <c r="ZF12" s="3"/>
+      <c r="ZG12" s="3"/>
+      <c r="ZH12" s="3"/>
+      <c r="ZI12" s="3"/>
+      <c r="ZJ12" s="3"/>
+      <c r="ZK12" s="3"/>
+      <c r="ZL12" s="3"/>
+      <c r="ZM12" s="3"/>
+      <c r="ZN12" s="3"/>
+      <c r="ZO12" s="3"/>
+      <c r="ZP12" s="3"/>
+      <c r="ZR12" s="3"/>
+      <c r="ZS12" s="3"/>
+      <c r="ZT12" s="3"/>
+      <c r="ZU12" s="3"/>
+      <c r="ZV12" s="3"/>
+      <c r="ZW12" s="3"/>
+      <c r="ZX12" s="3"/>
+      <c r="ZY12" s="3"/>
+      <c r="ZZ12" s="3"/>
+      <c r="AAA12" s="3"/>
+      <c r="AAB12" s="3"/>
+      <c r="AAC12" s="3"/>
+      <c r="AAD12" s="3"/>
+      <c r="AAE12" s="3"/>
+      <c r="AAF12" s="3"/>
+      <c r="AAG12" s="3"/>
+      <c r="AAH12" s="3"/>
+      <c r="AAI12" s="3"/>
+      <c r="AAJ12" s="3"/>
+      <c r="AAK12" s="3"/>
+      <c r="AAL12" s="3"/>
+      <c r="AAM12" s="3"/>
+      <c r="AAN12" s="3"/>
+      <c r="AAO12" s="3"/>
+      <c r="AAP12" s="3"/>
+      <c r="AAQ12" s="3"/>
+      <c r="AAR12" s="3"/>
+      <c r="AAS12" s="3"/>
+      <c r="AAT12" s="3"/>
+      <c r="AAU12" s="3"/>
+      <c r="AAV12" s="3"/>
+      <c r="AAW12" s="3"/>
+      <c r="AAX12" s="3"/>
+      <c r="ABD12" s="3"/>
+      <c r="ABE12" s="3"/>
+      <c r="ABF12" s="3"/>
+      <c r="ABG12" s="3"/>
+      <c r="ABH12" s="3"/>
+      <c r="ABI12" s="3"/>
+      <c r="ABJ12" s="3"/>
+      <c r="ABK12" s="3"/>
+      <c r="ABL12" s="3"/>
+      <c r="ABM12" s="3"/>
+      <c r="ABN12" s="3"/>
+      <c r="ABO12" s="3"/>
+      <c r="ABP12" s="3"/>
+      <c r="ABQ12" s="3"/>
+      <c r="ABR12" s="3"/>
+      <c r="ABS12" s="3"/>
+      <c r="ABT12" s="3"/>
+      <c r="ABU12" s="3"/>
+      <c r="ABV12" s="3"/>
+      <c r="ABW12" s="3"/>
+      <c r="ABX12" s="3"/>
+      <c r="ABY12" s="3"/>
+      <c r="ABZ12" s="3"/>
+      <c r="ACA12" s="3"/>
+      <c r="ACB12" s="3"/>
+      <c r="ACC12" s="3"/>
+      <c r="ACD12" s="3"/>
+      <c r="ACE12" s="3"/>
+      <c r="ACF12" s="3"/>
+      <c r="ACG12" s="3"/>
+      <c r="ACH12" s="3"/>
+      <c r="ACI12" s="3"/>
+      <c r="ACJ12" s="3"/>
+      <c r="ACK12" s="3"/>
+      <c r="ACL12" s="3"/>
+      <c r="ACM12" s="3"/>
+      <c r="ACN12" s="3"/>
+      <c r="ACO12" s="3"/>
+      <c r="ACP12" s="3"/>
+      <c r="ACQ12" s="3"/>
+      <c r="ACR12" s="3"/>
+      <c r="ACS12" s="3"/>
+      <c r="ACT12" s="3"/>
+      <c r="ACU12" s="3"/>
+      <c r="ACV12" s="3"/>
+      <c r="ACW12" s="3"/>
+      <c r="ACX12" s="3"/>
+      <c r="ACY12" s="3"/>
+      <c r="ACZ12" s="3"/>
+      <c r="ADA12" s="3"/>
+      <c r="ADB12" s="3"/>
+      <c r="ADC12" s="3"/>
+      <c r="ADD12" s="3"/>
+      <c r="ADE12" s="3"/>
+      <c r="ADF12" s="3"/>
+      <c r="ADG12" s="3"/>
+      <c r="ADH12" s="3"/>
+      <c r="ADI12" s="3"/>
+      <c r="ADJ12" s="3"/>
+      <c r="ADK12" s="3"/>
+      <c r="ADL12" s="3"/>
+      <c r="ADM12" s="3"/>
+      <c r="ADN12" s="3"/>
+      <c r="ADO12" s="3"/>
+      <c r="ADP12" s="3"/>
+      <c r="ADQ12" s="3"/>
+      <c r="ADU12" s="3"/>
+    </row>
+    <row r="13" spans="2:801" s="2" customFormat="1" ht="17" thickTop="1">
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="10" t="str">
+        <f>$B13&amp;".xls"</f>
+        <v>.xls</v>
+      </c>
+      <c r="J13" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="59"/>
+      <c r="M13" s="10" t="str">
+        <f>$B13&amp;".xls"</f>
+        <v>.xls</v>
+      </c>
+      <c r="N13" s="10" t="str">
+        <f>$B13&amp;".xls"</f>
+        <v>.xls</v>
+      </c>
+      <c r="O13" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="54"/>
+      <c r="XB13" s="3"/>
+      <c r="XC13" s="3"/>
+      <c r="XD13" s="3"/>
+      <c r="XE13" s="3"/>
+      <c r="XF13" s="3"/>
+      <c r="XG13" s="3"/>
+      <c r="XH13" s="3"/>
+      <c r="XI13" s="3"/>
+      <c r="XJ13" s="3"/>
+      <c r="XK13" s="3"/>
+      <c r="XL13" s="3"/>
+      <c r="XM13" s="3"/>
+      <c r="XN13" s="3"/>
+      <c r="XO13" s="3"/>
+      <c r="XP13" s="3"/>
+      <c r="XQ13" s="3"/>
+      <c r="XR13" s="3"/>
+      <c r="XS13" s="3"/>
+      <c r="XT13" s="3"/>
+      <c r="XU13" s="3"/>
+      <c r="XV13" s="3"/>
+      <c r="XW13" s="3"/>
+      <c r="XX13" s="3"/>
+      <c r="XY13" s="3"/>
+      <c r="XZ13" s="3"/>
+      <c r="YA13" s="3"/>
+      <c r="YB13" s="3"/>
+      <c r="YC13" s="3"/>
+      <c r="YD13" s="3"/>
+      <c r="YE13" s="3"/>
+      <c r="YF13" s="3"/>
+      <c r="YG13" s="3"/>
+      <c r="YH13" s="3"/>
+      <c r="YI13" s="3"/>
+      <c r="YJ13" s="3"/>
+      <c r="YK13" s="3"/>
+      <c r="YL13" s="3"/>
+      <c r="YM13" s="3"/>
+      <c r="YN13" s="3"/>
+      <c r="YO13" s="3"/>
+      <c r="YP13" s="3"/>
+      <c r="YQ13" s="3"/>
+      <c r="YR13" s="3"/>
+      <c r="YS13" s="3"/>
+      <c r="YT13" s="3"/>
+      <c r="YU13" s="3"/>
+      <c r="YV13" s="3"/>
+      <c r="YW13" s="3"/>
+      <c r="YX13" s="3"/>
+      <c r="YY13" s="3"/>
+      <c r="YZ13" s="3"/>
+      <c r="ZA13" s="3"/>
+      <c r="ZB13" s="3"/>
+      <c r="ZC13" s="3"/>
+      <c r="ZD13" s="3"/>
+      <c r="ZE13" s="3"/>
+      <c r="ZF13" s="3"/>
+      <c r="ZG13" s="3"/>
+      <c r="ZH13" s="3"/>
+      <c r="ZI13" s="3"/>
+      <c r="ZJ13" s="3"/>
+      <c r="ZK13" s="3"/>
+      <c r="ZL13" s="3"/>
+      <c r="ZM13" s="3"/>
+      <c r="ZN13" s="3"/>
+      <c r="ZO13" s="3"/>
+      <c r="ZP13" s="3"/>
+      <c r="ZR13" s="3"/>
+      <c r="ZS13" s="3"/>
+      <c r="ZT13" s="3"/>
+      <c r="ZU13" s="3"/>
+      <c r="ZV13" s="3"/>
+      <c r="ZW13" s="3"/>
+      <c r="ZX13" s="3"/>
+      <c r="ZY13" s="3"/>
+      <c r="ZZ13" s="3"/>
+      <c r="AAA13" s="3"/>
+      <c r="AAB13" s="3"/>
+      <c r="AAC13" s="3"/>
+      <c r="AAD13" s="3"/>
+      <c r="AAE13" s="3"/>
+      <c r="AAF13" s="3"/>
+      <c r="AAG13" s="3"/>
+      <c r="AAH13" s="3"/>
+      <c r="AAI13" s="3"/>
+      <c r="AAJ13" s="3"/>
+      <c r="AAK13" s="3"/>
+      <c r="AAL13" s="3"/>
+      <c r="AAM13" s="3"/>
+      <c r="AAN13" s="3"/>
+      <c r="AAO13" s="3"/>
+      <c r="AAP13" s="3"/>
+      <c r="AAQ13" s="3"/>
+      <c r="AAR13" s="3"/>
+      <c r="AAS13" s="3"/>
+      <c r="AAT13" s="3"/>
+      <c r="AAU13" s="3"/>
+      <c r="AAV13" s="3"/>
+      <c r="AAW13" s="3"/>
+      <c r="AAX13" s="3"/>
+      <c r="ABD13" s="3"/>
+      <c r="ABE13" s="3"/>
+      <c r="ABF13" s="3"/>
+      <c r="ABG13" s="3"/>
+      <c r="ABH13" s="3"/>
+      <c r="ABI13" s="3"/>
+      <c r="ABJ13" s="3"/>
+      <c r="ABK13" s="3"/>
+      <c r="ABL13" s="3"/>
+      <c r="ABM13" s="3"/>
+      <c r="ABN13" s="3"/>
+      <c r="ABO13" s="3"/>
+      <c r="ABP13" s="3"/>
+      <c r="ABQ13" s="3"/>
+      <c r="ABR13" s="3"/>
+      <c r="ABS13" s="3"/>
+      <c r="ABT13" s="3"/>
+      <c r="ABU13" s="3"/>
+      <c r="ABV13" s="3"/>
+      <c r="ABW13" s="3"/>
+      <c r="ABX13" s="3"/>
+      <c r="ABY13" s="3"/>
+      <c r="ABZ13" s="3"/>
+      <c r="ACA13" s="3"/>
+      <c r="ACB13" s="3"/>
+      <c r="ACC13" s="3"/>
+      <c r="ACD13" s="3"/>
+      <c r="ACE13" s="3"/>
+      <c r="ACF13" s="3"/>
+      <c r="ACG13" s="3"/>
+      <c r="ACH13" s="3"/>
+      <c r="ACI13" s="3"/>
+      <c r="ACJ13" s="3"/>
+      <c r="ACK13" s="3"/>
+      <c r="ACL13" s="3"/>
+      <c r="ACM13" s="3"/>
+      <c r="ACN13" s="3"/>
+      <c r="ACO13" s="3"/>
+      <c r="ACP13" s="3"/>
+      <c r="ACQ13" s="3"/>
+      <c r="ACR13" s="3"/>
+      <c r="ACS13" s="3"/>
+      <c r="ACT13" s="3"/>
+      <c r="ACU13" s="3"/>
+      <c r="ACV13" s="3"/>
+      <c r="ACW13" s="3"/>
+      <c r="ACX13" s="3"/>
+      <c r="ACY13" s="3"/>
+      <c r="ACZ13" s="3"/>
+      <c r="ADA13" s="3"/>
+      <c r="ADB13" s="3"/>
+      <c r="ADC13" s="3"/>
+      <c r="ADD13" s="3"/>
+      <c r="ADE13" s="3"/>
+      <c r="ADF13" s="3"/>
+      <c r="ADG13" s="3"/>
+      <c r="ADH13" s="3"/>
+      <c r="ADI13" s="3"/>
+      <c r="ADJ13" s="3"/>
+      <c r="ADK13" s="3"/>
+      <c r="ADL13" s="3"/>
+      <c r="ADM13" s="3"/>
+      <c r="ADN13" s="3"/>
+      <c r="ADO13" s="3"/>
+      <c r="ADP13" s="3"/>
+      <c r="ADQ13" s="3"/>
+      <c r="ADU13" s="3"/>
+    </row>
+    <row r="14" spans="2:801" s="2" customFormat="1">
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f t="shared" ref="I14:I42" si="0">$B14&amp;".xls"</f>
+        <v>.xls</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="59"/>
+      <c r="M14" s="10" t="str">
+        <f t="shared" ref="M14:N29" si="1">$B14&amp;".xls"</f>
+        <v>.xls</v>
+      </c>
+      <c r="N14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="54"/>
+      <c r="XB14" s="3"/>
+      <c r="XC14" s="3"/>
+      <c r="XD14" s="3"/>
+      <c r="XE14" s="3"/>
+      <c r="XF14" s="3"/>
+      <c r="XG14" s="3"/>
+      <c r="XH14" s="3"/>
+      <c r="XI14" s="3"/>
+      <c r="XJ14" s="3"/>
+      <c r="XK14" s="3"/>
+      <c r="XL14" s="3"/>
+      <c r="XM14" s="3"/>
+      <c r="XN14" s="3"/>
+      <c r="XO14" s="3"/>
+      <c r="XP14" s="3"/>
+      <c r="XQ14" s="3"/>
+      <c r="XR14" s="3"/>
+      <c r="XS14" s="3"/>
+      <c r="XT14" s="3"/>
+      <c r="XU14" s="3"/>
+      <c r="XV14" s="3"/>
+      <c r="XW14" s="3"/>
+      <c r="XX14" s="3"/>
+      <c r="XY14" s="3"/>
+      <c r="XZ14" s="3"/>
+      <c r="YA14" s="3"/>
+      <c r="YB14" s="3"/>
+      <c r="YC14" s="3"/>
+      <c r="YD14" s="3"/>
+      <c r="YE14" s="3"/>
+      <c r="YF14" s="3"/>
+      <c r="YG14" s="3"/>
+      <c r="YH14" s="3"/>
+      <c r="YI14" s="3"/>
+      <c r="YJ14" s="3"/>
+      <c r="YK14" s="3"/>
+      <c r="YL14" s="3"/>
+      <c r="YM14" s="3"/>
+      <c r="YN14" s="3"/>
+      <c r="YO14" s="3"/>
+      <c r="YP14" s="3"/>
+      <c r="YQ14" s="3"/>
+      <c r="YR14" s="3"/>
+      <c r="YS14" s="3"/>
+      <c r="YT14" s="3"/>
+      <c r="YU14" s="3"/>
+      <c r="YV14" s="3"/>
+      <c r="YW14" s="3"/>
+      <c r="YX14" s="3"/>
+      <c r="YY14" s="3"/>
+      <c r="YZ14" s="3"/>
+      <c r="ZA14" s="3"/>
+      <c r="ZB14" s="3"/>
+      <c r="ZC14" s="3"/>
+      <c r="ZD14" s="3"/>
+      <c r="ZE14" s="3"/>
+      <c r="ZF14" s="3"/>
+      <c r="ZG14" s="3"/>
+      <c r="ZH14" s="3"/>
+      <c r="ZI14" s="3"/>
+      <c r="ZJ14" s="3"/>
+      <c r="ZK14" s="3"/>
+      <c r="ZL14" s="3"/>
+      <c r="ZM14" s="3"/>
+      <c r="ZN14" s="3"/>
+      <c r="ZO14" s="3"/>
+      <c r="ZP14" s="3"/>
+      <c r="ZR14" s="3"/>
+      <c r="ZS14" s="3"/>
+      <c r="ZT14" s="3"/>
+      <c r="ZU14" s="3"/>
+      <c r="ZV14" s="3"/>
+      <c r="ZW14" s="3"/>
+      <c r="ZX14" s="3"/>
+      <c r="ZY14" s="3"/>
+      <c r="ZZ14" s="3"/>
+      <c r="AAA14" s="3"/>
+      <c r="AAB14" s="3"/>
+      <c r="AAC14" s="3"/>
+      <c r="AAD14" s="3"/>
+      <c r="AAE14" s="3"/>
+      <c r="AAF14" s="3"/>
+      <c r="AAG14" s="3"/>
+      <c r="AAH14" s="3"/>
+      <c r="AAI14" s="3"/>
+      <c r="AAJ14" s="3"/>
+      <c r="AAK14" s="3"/>
+      <c r="AAL14" s="3"/>
+      <c r="AAM14" s="3"/>
+      <c r="AAN14" s="3"/>
+      <c r="AAO14" s="3"/>
+      <c r="AAP14" s="3"/>
+      <c r="AAQ14" s="3"/>
+      <c r="AAR14" s="3"/>
+      <c r="AAS14" s="3"/>
+      <c r="AAT14" s="3"/>
+      <c r="AAU14" s="3"/>
+      <c r="AAV14" s="3"/>
+      <c r="AAW14" s="3"/>
+      <c r="AAX14" s="3"/>
+      <c r="ABD14" s="3"/>
+      <c r="ABE14" s="3"/>
+      <c r="ABF14" s="3"/>
+      <c r="ABG14" s="3"/>
+      <c r="ABH14" s="3"/>
+      <c r="ABI14" s="3"/>
+      <c r="ABJ14" s="3"/>
+      <c r="ABK14" s="3"/>
+      <c r="ABL14" s="3"/>
+      <c r="ABM14" s="3"/>
+      <c r="ABN14" s="3"/>
+      <c r="ABO14" s="3"/>
+      <c r="ABP14" s="3"/>
+      <c r="ABQ14" s="3"/>
+      <c r="ABR14" s="3"/>
+      <c r="ABS14" s="3"/>
+      <c r="ABT14" s="3"/>
+      <c r="ABU14" s="3"/>
+      <c r="ABV14" s="3"/>
+      <c r="ABW14" s="3"/>
+      <c r="ABX14" s="3"/>
+      <c r="ABY14" s="3"/>
+      <c r="ABZ14" s="3"/>
+      <c r="ACA14" s="3"/>
+      <c r="ACB14" s="3"/>
+      <c r="ACC14" s="3"/>
+      <c r="ACD14" s="3"/>
+      <c r="ACE14" s="3"/>
+      <c r="ACF14" s="3"/>
+      <c r="ACG14" s="3"/>
+      <c r="ACH14" s="3"/>
+      <c r="ACI14" s="3"/>
+      <c r="ACJ14" s="3"/>
+      <c r="ACK14" s="3"/>
+      <c r="ACL14" s="3"/>
+      <c r="ACM14" s="3"/>
+      <c r="ACN14" s="3"/>
+      <c r="ACO14" s="3"/>
+      <c r="ACP14" s="3"/>
+      <c r="ACQ14" s="3"/>
+      <c r="ACR14" s="3"/>
+      <c r="ACS14" s="3"/>
+      <c r="ACT14" s="3"/>
+      <c r="ACU14" s="3"/>
+      <c r="ACV14" s="3"/>
+      <c r="ACW14" s="3"/>
+      <c r="ACX14" s="3"/>
+      <c r="ACY14" s="3"/>
+      <c r="ACZ14" s="3"/>
+      <c r="ADA14" s="3"/>
+      <c r="ADB14" s="3"/>
+      <c r="ADC14" s="3"/>
+      <c r="ADD14" s="3"/>
+      <c r="ADE14" s="3"/>
+      <c r="ADF14" s="3"/>
+      <c r="ADG14" s="3"/>
+      <c r="ADH14" s="3"/>
+      <c r="ADI14" s="3"/>
+      <c r="ADJ14" s="3"/>
+      <c r="ADK14" s="3"/>
+      <c r="ADL14" s="3"/>
+      <c r="ADM14" s="3"/>
+      <c r="ADN14" s="3"/>
+      <c r="ADO14" s="3"/>
+      <c r="ADP14" s="3"/>
+      <c r="ADQ14" s="3"/>
+      <c r="ADU14" s="3"/>
+    </row>
+    <row r="15" spans="2:801" s="2" customFormat="1">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="59"/>
+      <c r="M15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="N15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="54"/>
+      <c r="XB15" s="3"/>
+      <c r="XC15" s="3"/>
+      <c r="XD15" s="3"/>
+      <c r="XE15" s="3"/>
+      <c r="XF15" s="3"/>
+      <c r="XG15" s="3"/>
+      <c r="XH15" s="3"/>
+      <c r="XI15" s="3"/>
+      <c r="XJ15" s="3"/>
+      <c r="XK15" s="3"/>
+      <c r="XL15" s="3"/>
+      <c r="XM15" s="3"/>
+      <c r="XN15" s="3"/>
+      <c r="XO15" s="3"/>
+      <c r="XP15" s="3"/>
+      <c r="XQ15" s="3"/>
+      <c r="XR15" s="3"/>
+      <c r="XS15" s="3"/>
+      <c r="XT15" s="3"/>
+      <c r="XU15" s="3"/>
+      <c r="XV15" s="3"/>
+      <c r="XW15" s="3"/>
+      <c r="XX15" s="3"/>
+      <c r="XY15" s="3"/>
+      <c r="XZ15" s="3"/>
+      <c r="YA15" s="3"/>
+      <c r="YB15" s="3"/>
+      <c r="YC15" s="3"/>
+      <c r="YD15" s="3"/>
+      <c r="YE15" s="3"/>
+      <c r="YF15" s="3"/>
+      <c r="YG15" s="3"/>
+      <c r="YH15" s="3"/>
+      <c r="YI15" s="3"/>
+      <c r="YJ15" s="3"/>
+      <c r="YK15" s="3"/>
+      <c r="YL15" s="3"/>
+      <c r="YM15" s="3"/>
+      <c r="YN15" s="3"/>
+      <c r="YO15" s="3"/>
+      <c r="YP15" s="3"/>
+      <c r="YQ15" s="3"/>
+      <c r="YR15" s="3"/>
+      <c r="YS15" s="3"/>
+      <c r="YT15" s="3"/>
+      <c r="YU15" s="3"/>
+      <c r="YV15" s="3"/>
+      <c r="YW15" s="3"/>
+      <c r="YX15" s="3"/>
+      <c r="YY15" s="3"/>
+      <c r="YZ15" s="3"/>
+      <c r="ZA15" s="3"/>
+      <c r="ZB15" s="3"/>
+      <c r="ZC15" s="3"/>
+      <c r="ZD15" s="3"/>
+      <c r="ZE15" s="3"/>
+      <c r="ZF15" s="3"/>
+      <c r="ZG15" s="3"/>
+      <c r="ZH15" s="3"/>
+      <c r="ZI15" s="3"/>
+      <c r="ZJ15" s="3"/>
+      <c r="ZK15" s="3"/>
+      <c r="ZL15" s="3"/>
+      <c r="ZM15" s="3"/>
+      <c r="ZN15" s="3"/>
+      <c r="ZO15" s="3"/>
+      <c r="ZP15" s="3"/>
+      <c r="ZR15" s="3"/>
+      <c r="ZS15" s="3"/>
+      <c r="ZT15" s="3"/>
+      <c r="ZU15" s="3"/>
+      <c r="ZV15" s="3"/>
+      <c r="ZW15" s="3"/>
+      <c r="ZX15" s="3"/>
+      <c r="ZY15" s="3"/>
+      <c r="ZZ15" s="3"/>
+      <c r="AAA15" s="3"/>
+      <c r="AAB15" s="3"/>
+      <c r="AAC15" s="3"/>
+      <c r="AAD15" s="3"/>
+      <c r="AAE15" s="3"/>
+      <c r="AAF15" s="3"/>
+      <c r="AAG15" s="3"/>
+      <c r="AAH15" s="3"/>
+      <c r="AAI15" s="3"/>
+      <c r="AAJ15" s="3"/>
+      <c r="AAK15" s="3"/>
+      <c r="AAL15" s="3"/>
+      <c r="AAM15" s="3"/>
+      <c r="AAN15" s="3"/>
+      <c r="AAO15" s="3"/>
+      <c r="AAP15" s="3"/>
+      <c r="AAQ15" s="3"/>
+      <c r="AAR15" s="3"/>
+      <c r="AAS15" s="3"/>
+      <c r="AAT15" s="3"/>
+      <c r="AAU15" s="3"/>
+      <c r="AAV15" s="3"/>
+      <c r="AAW15" s="3"/>
+      <c r="AAX15" s="3"/>
+      <c r="ABD15" s="3"/>
+      <c r="ABE15" s="3"/>
+      <c r="ABF15" s="3"/>
+      <c r="ABG15" s="3"/>
+      <c r="ABH15" s="3"/>
+      <c r="ABI15" s="3"/>
+      <c r="ABJ15" s="3"/>
+      <c r="ABK15" s="3"/>
+      <c r="ABL15" s="3"/>
+      <c r="ABM15" s="3"/>
+      <c r="ABN15" s="3"/>
+      <c r="ABO15" s="3"/>
+      <c r="ABP15" s="3"/>
+      <c r="ABQ15" s="3"/>
+      <c r="ABR15" s="3"/>
+      <c r="ABS15" s="3"/>
+      <c r="ABT15" s="3"/>
+      <c r="ABU15" s="3"/>
+      <c r="ABV15" s="3"/>
+      <c r="ABW15" s="3"/>
+      <c r="ABX15" s="3"/>
+      <c r="ABY15" s="3"/>
+      <c r="ABZ15" s="3"/>
+      <c r="ACA15" s="3"/>
+      <c r="ACB15" s="3"/>
+      <c r="ACC15" s="3"/>
+      <c r="ACD15" s="3"/>
+      <c r="ACE15" s="3"/>
+      <c r="ACF15" s="3"/>
+      <c r="ACG15" s="3"/>
+      <c r="ACH15" s="3"/>
+      <c r="ACI15" s="3"/>
+      <c r="ACJ15" s="3"/>
+      <c r="ACK15" s="3"/>
+      <c r="ACL15" s="3"/>
+      <c r="ACM15" s="3"/>
+      <c r="ACN15" s="3"/>
+      <c r="ACO15" s="3"/>
+      <c r="ACP15" s="3"/>
+      <c r="ACQ15" s="3"/>
+      <c r="ACR15" s="3"/>
+      <c r="ACS15" s="3"/>
+      <c r="ACT15" s="3"/>
+      <c r="ACU15" s="3"/>
+      <c r="ACV15" s="3"/>
+      <c r="ACW15" s="3"/>
+      <c r="ACX15" s="3"/>
+      <c r="ACY15" s="3"/>
+      <c r="ACZ15" s="3"/>
+      <c r="ADA15" s="3"/>
+      <c r="ADB15" s="3"/>
+      <c r="ADC15" s="3"/>
+      <c r="ADD15" s="3"/>
+      <c r="ADE15" s="3"/>
+      <c r="ADF15" s="3"/>
+      <c r="ADG15" s="3"/>
+      <c r="ADH15" s="3"/>
+      <c r="ADI15" s="3"/>
+      <c r="ADJ15" s="3"/>
+      <c r="ADK15" s="3"/>
+      <c r="ADL15" s="3"/>
+      <c r="ADM15" s="3"/>
+      <c r="ADN15" s="3"/>
+      <c r="ADO15" s="3"/>
+      <c r="ADP15" s="3"/>
+      <c r="ADQ15" s="3"/>
+      <c r="ADU15" s="3"/>
+    </row>
+    <row r="16" spans="2:801" s="2" customFormat="1">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="59"/>
+      <c r="M16" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="N16" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="54"/>
+      <c r="XB16" s="3"/>
+      <c r="XC16" s="3"/>
+      <c r="XD16" s="3"/>
+      <c r="XE16" s="3"/>
+      <c r="XF16" s="3"/>
+      <c r="XG16" s="3"/>
+      <c r="XH16" s="3"/>
+      <c r="XI16" s="3"/>
+      <c r="XJ16" s="3"/>
+      <c r="XK16" s="3"/>
+      <c r="XL16" s="3"/>
+      <c r="XM16" s="3"/>
+      <c r="XN16" s="3"/>
+      <c r="XO16" s="3"/>
+      <c r="XP16" s="3"/>
+      <c r="XQ16" s="3"/>
+      <c r="XR16" s="3"/>
+      <c r="XS16" s="3"/>
+      <c r="XT16" s="3"/>
+      <c r="XU16" s="3"/>
+      <c r="XV16" s="3"/>
+      <c r="XW16" s="3"/>
+      <c r="XX16" s="3"/>
+      <c r="XY16" s="3"/>
+      <c r="XZ16" s="3"/>
+      <c r="YA16" s="3"/>
+      <c r="YB16" s="3"/>
+      <c r="YC16" s="3"/>
+      <c r="YD16" s="3"/>
+      <c r="YE16" s="3"/>
+      <c r="YF16" s="3"/>
+      <c r="YG16" s="3"/>
+      <c r="YH16" s="3"/>
+      <c r="YI16" s="3"/>
+      <c r="YJ16" s="3"/>
+      <c r="YK16" s="3"/>
+      <c r="YL16" s="3"/>
+      <c r="YM16" s="3"/>
+      <c r="YN16" s="3"/>
+      <c r="YO16" s="3"/>
+      <c r="YP16" s="3"/>
+      <c r="YQ16" s="3"/>
+      <c r="YR16" s="3"/>
+      <c r="YS16" s="3"/>
+      <c r="YT16" s="3"/>
+      <c r="YU16" s="3"/>
+      <c r="YV16" s="3"/>
+      <c r="YW16" s="3"/>
+      <c r="YX16" s="3"/>
+      <c r="YY16" s="3"/>
+      <c r="YZ16" s="3"/>
+      <c r="ZA16" s="3"/>
+      <c r="ZB16" s="3"/>
+      <c r="ZC16" s="3"/>
+      <c r="ZD16" s="3"/>
+      <c r="ZE16" s="3"/>
+      <c r="ZF16" s="3"/>
+      <c r="ZG16" s="3"/>
+      <c r="ZH16" s="3"/>
+      <c r="ZI16" s="3"/>
+      <c r="ZJ16" s="3"/>
+      <c r="ZK16" s="3"/>
+      <c r="ZL16" s="3"/>
+      <c r="ZM16" s="3"/>
+      <c r="ZN16" s="3"/>
+      <c r="ZO16" s="3"/>
+      <c r="ZP16" s="3"/>
+      <c r="ZR16" s="3"/>
+      <c r="ZS16" s="3"/>
+      <c r="ZT16" s="3"/>
+      <c r="ZU16" s="3"/>
+      <c r="ZV16" s="3"/>
+      <c r="ZW16" s="3"/>
+      <c r="ZX16" s="3"/>
+      <c r="ZY16" s="3"/>
+      <c r="ZZ16" s="3"/>
+      <c r="AAA16" s="3"/>
+      <c r="AAB16" s="3"/>
+      <c r="AAC16" s="3"/>
+      <c r="AAD16" s="3"/>
+      <c r="AAE16" s="3"/>
+      <c r="AAF16" s="3"/>
+      <c r="AAG16" s="3"/>
+      <c r="AAH16" s="3"/>
+      <c r="AAI16" s="3"/>
+      <c r="AAJ16" s="3"/>
+      <c r="AAK16" s="3"/>
+      <c r="AAL16" s="3"/>
+      <c r="AAM16" s="3"/>
+      <c r="AAN16" s="3"/>
+      <c r="AAO16" s="3"/>
+      <c r="AAP16" s="3"/>
+      <c r="AAQ16" s="3"/>
+      <c r="AAR16" s="3"/>
+      <c r="AAS16" s="3"/>
+      <c r="AAT16" s="3"/>
+      <c r="AAU16" s="3"/>
+      <c r="AAV16" s="3"/>
+      <c r="AAW16" s="3"/>
+      <c r="AAX16" s="3"/>
+      <c r="ABD16" s="3"/>
+      <c r="ABE16" s="3"/>
+      <c r="ABF16" s="3"/>
+      <c r="ABG16" s="3"/>
+      <c r="ABH16" s="3"/>
+      <c r="ABI16" s="3"/>
+      <c r="ABJ16" s="3"/>
+      <c r="ABK16" s="3"/>
+      <c r="ABL16" s="3"/>
+      <c r="ABM16" s="3"/>
+      <c r="ABN16" s="3"/>
+      <c r="ABO16" s="3"/>
+      <c r="ABP16" s="3"/>
+      <c r="ABQ16" s="3"/>
+      <c r="ABR16" s="3"/>
+      <c r="ABS16" s="3"/>
+      <c r="ABT16" s="3"/>
+      <c r="ABU16" s="3"/>
+      <c r="ABV16" s="3"/>
+      <c r="ABW16" s="3"/>
+      <c r="ABX16" s="3"/>
+      <c r="ABY16" s="3"/>
+      <c r="ABZ16" s="3"/>
+      <c r="ACA16" s="3"/>
+      <c r="ACB16" s="3"/>
+      <c r="ACC16" s="3"/>
+      <c r="ACD16" s="3"/>
+      <c r="ACE16" s="3"/>
+      <c r="ACF16" s="3"/>
+      <c r="ACG16" s="3"/>
+      <c r="ACH16" s="3"/>
+      <c r="ACI16" s="3"/>
+      <c r="ACJ16" s="3"/>
+      <c r="ACK16" s="3"/>
+      <c r="ACL16" s="3"/>
+      <c r="ACM16" s="3"/>
+      <c r="ACN16" s="3"/>
+      <c r="ACO16" s="3"/>
+      <c r="ACP16" s="3"/>
+      <c r="ACQ16" s="3"/>
+      <c r="ACR16" s="3"/>
+      <c r="ACS16" s="3"/>
+      <c r="ACT16" s="3"/>
+      <c r="ACU16" s="3"/>
+      <c r="ACV16" s="3"/>
+      <c r="ACW16" s="3"/>
+      <c r="ACX16" s="3"/>
+      <c r="ACY16" s="3"/>
+      <c r="ACZ16" s="3"/>
+      <c r="ADA16" s="3"/>
+      <c r="ADB16" s="3"/>
+      <c r="ADC16" s="3"/>
+      <c r="ADD16" s="3"/>
+      <c r="ADE16" s="3"/>
+      <c r="ADF16" s="3"/>
+      <c r="ADG16" s="3"/>
+      <c r="ADH16" s="3"/>
+      <c r="ADI16" s="3"/>
+      <c r="ADJ16" s="3"/>
+      <c r="ADK16" s="3"/>
+      <c r="ADL16" s="3"/>
+      <c r="ADM16" s="3"/>
+      <c r="ADN16" s="3"/>
+      <c r="ADO16" s="3"/>
+      <c r="ADP16" s="3"/>
+      <c r="ADQ16" s="3"/>
+      <c r="ADU16" s="3"/>
+    </row>
+    <row r="17" spans="1:801" s="2" customFormat="1">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="59"/>
+      <c r="M17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="N17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="54"/>
+      <c r="XB17" s="3"/>
+      <c r="XC17" s="3"/>
+      <c r="XD17" s="3"/>
+      <c r="XE17" s="3"/>
+      <c r="XF17" s="3"/>
+      <c r="XG17" s="3"/>
+      <c r="XH17" s="3"/>
+      <c r="XI17" s="3"/>
+      <c r="XJ17" s="3"/>
+      <c r="XK17" s="3"/>
+      <c r="XL17" s="3"/>
+      <c r="XM17" s="3"/>
+      <c r="XN17" s="3"/>
+      <c r="XO17" s="3"/>
+      <c r="XP17" s="3"/>
+      <c r="XQ17" s="3"/>
+      <c r="XR17" s="3"/>
+      <c r="XS17" s="3"/>
+      <c r="XT17" s="3"/>
+      <c r="XU17" s="3"/>
+      <c r="XV17" s="3"/>
+      <c r="XW17" s="3"/>
+      <c r="XX17" s="3"/>
+      <c r="XY17" s="3"/>
+      <c r="XZ17" s="3"/>
+      <c r="YA17" s="3"/>
+      <c r="YB17" s="3"/>
+      <c r="YC17" s="3"/>
+      <c r="YD17" s="3"/>
+      <c r="YE17" s="3"/>
+      <c r="YF17" s="3"/>
+      <c r="YG17" s="3"/>
+      <c r="YH17" s="3"/>
+      <c r="YI17" s="3"/>
+      <c r="YJ17" s="3"/>
+      <c r="YK17" s="3"/>
+      <c r="YL17" s="3"/>
+      <c r="YM17" s="3"/>
+      <c r="YN17" s="3"/>
+      <c r="YO17" s="3"/>
+      <c r="YP17" s="3"/>
+      <c r="YQ17" s="3"/>
+      <c r="YR17" s="3"/>
+      <c r="YS17" s="3"/>
+      <c r="YT17" s="3"/>
+      <c r="YU17" s="3"/>
+      <c r="YV17" s="3"/>
+      <c r="YW17" s="3"/>
+      <c r="YX17" s="3"/>
+      <c r="YY17" s="3"/>
+      <c r="YZ17" s="3"/>
+      <c r="ZA17" s="3"/>
+      <c r="ZB17" s="3"/>
+      <c r="ZC17" s="3"/>
+      <c r="ZD17" s="3"/>
+      <c r="ZE17" s="3"/>
+      <c r="ZF17" s="3"/>
+      <c r="ZG17" s="3"/>
+      <c r="ZH17" s="3"/>
+      <c r="ZI17" s="3"/>
+      <c r="ZJ17" s="3"/>
+      <c r="ZK17" s="3"/>
+      <c r="ZL17" s="3"/>
+      <c r="ZM17" s="3"/>
+      <c r="ZN17" s="3"/>
+      <c r="ZO17" s="3"/>
+      <c r="ZP17" s="3"/>
+      <c r="ZR17" s="3"/>
+      <c r="ZS17" s="3"/>
+      <c r="ZT17" s="3"/>
+      <c r="ZU17" s="3"/>
+      <c r="ZV17" s="3"/>
+      <c r="ZW17" s="3"/>
+      <c r="ZX17" s="3"/>
+      <c r="ZY17" s="3"/>
+      <c r="ZZ17" s="3"/>
+      <c r="AAA17" s="3"/>
+      <c r="AAB17" s="3"/>
+      <c r="AAC17" s="3"/>
+      <c r="AAD17" s="3"/>
+      <c r="AAE17" s="3"/>
+      <c r="AAF17" s="3"/>
+      <c r="AAG17" s="3"/>
+      <c r="AAH17" s="3"/>
+      <c r="AAI17" s="3"/>
+      <c r="AAJ17" s="3"/>
+      <c r="AAK17" s="3"/>
+      <c r="AAL17" s="3"/>
+      <c r="AAM17" s="3"/>
+      <c r="AAN17" s="3"/>
+      <c r="AAO17" s="3"/>
+      <c r="AAP17" s="3"/>
+      <c r="AAQ17" s="3"/>
+      <c r="AAR17" s="3"/>
+      <c r="AAS17" s="3"/>
+      <c r="AAT17" s="3"/>
+      <c r="AAU17" s="3"/>
+      <c r="AAV17" s="3"/>
+      <c r="AAW17" s="3"/>
+      <c r="AAX17" s="3"/>
+      <c r="ABD17" s="3"/>
+      <c r="ABE17" s="3"/>
+      <c r="ABF17" s="3"/>
+      <c r="ABG17" s="3"/>
+      <c r="ABH17" s="3"/>
+      <c r="ABI17" s="3"/>
+      <c r="ABJ17" s="3"/>
+      <c r="ABK17" s="3"/>
+      <c r="ABL17" s="3"/>
+      <c r="ABM17" s="3"/>
+      <c r="ABN17" s="3"/>
+      <c r="ABO17" s="3"/>
+      <c r="ABP17" s="3"/>
+      <c r="ABQ17" s="3"/>
+      <c r="ABR17" s="3"/>
+      <c r="ABS17" s="3"/>
+      <c r="ABT17" s="3"/>
+      <c r="ABU17" s="3"/>
+      <c r="ABV17" s="3"/>
+      <c r="ABW17" s="3"/>
+      <c r="ABX17" s="3"/>
+      <c r="ABY17" s="3"/>
+      <c r="ABZ17" s="3"/>
+      <c r="ACA17" s="3"/>
+      <c r="ACB17" s="3"/>
+      <c r="ACC17" s="3"/>
+      <c r="ACD17" s="3"/>
+      <c r="ACE17" s="3"/>
+      <c r="ACF17" s="3"/>
+      <c r="ACG17" s="3"/>
+      <c r="ACH17" s="3"/>
+      <c r="ACI17" s="3"/>
+      <c r="ACJ17" s="3"/>
+      <c r="ACK17" s="3"/>
+      <c r="ACL17" s="3"/>
+      <c r="ACM17" s="3"/>
+      <c r="ACN17" s="3"/>
+      <c r="ACO17" s="3"/>
+      <c r="ACP17" s="3"/>
+      <c r="ACQ17" s="3"/>
+      <c r="ACR17" s="3"/>
+      <c r="ACS17" s="3"/>
+      <c r="ACT17" s="3"/>
+      <c r="ACU17" s="3"/>
+      <c r="ACV17" s="3"/>
+      <c r="ACW17" s="3"/>
+      <c r="ACX17" s="3"/>
+      <c r="ACY17" s="3"/>
+      <c r="ACZ17" s="3"/>
+      <c r="ADA17" s="3"/>
+      <c r="ADB17" s="3"/>
+      <c r="ADC17" s="3"/>
+      <c r="ADD17" s="3"/>
+      <c r="ADE17" s="3"/>
+      <c r="ADF17" s="3"/>
+      <c r="ADG17" s="3"/>
+      <c r="ADH17" s="3"/>
+      <c r="ADI17" s="3"/>
+      <c r="ADJ17" s="3"/>
+      <c r="ADK17" s="3"/>
+      <c r="ADL17" s="3"/>
+      <c r="ADM17" s="3"/>
+      <c r="ADN17" s="3"/>
+      <c r="ADO17" s="3"/>
+      <c r="ADP17" s="3"/>
+      <c r="ADQ17" s="3"/>
+      <c r="ADU17" s="3"/>
+    </row>
+    <row r="18" spans="1:801" s="8" customFormat="1">
+      <c r="A18" s="46"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="59"/>
+      <c r="M18" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="N18" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="45"/>
+      <c r="XB18" s="12"/>
+      <c r="XC18" s="12"/>
+      <c r="XD18" s="12"/>
+      <c r="XE18" s="12"/>
+      <c r="XF18" s="12"/>
+      <c r="XG18" s="12"/>
+      <c r="XH18" s="12"/>
+      <c r="XI18" s="12"/>
+      <c r="XJ18" s="12"/>
+      <c r="XK18" s="12"/>
+      <c r="XL18" s="12"/>
+      <c r="XM18" s="12"/>
+      <c r="XN18" s="12"/>
+      <c r="XO18" s="12"/>
+      <c r="XP18" s="12"/>
+      <c r="XQ18" s="12"/>
+      <c r="XR18" s="12"/>
+      <c r="XS18" s="12"/>
+      <c r="XT18" s="12"/>
+      <c r="XU18" s="12"/>
+      <c r="XV18" s="12"/>
+      <c r="XW18" s="12"/>
+      <c r="XX18" s="12"/>
+      <c r="XY18" s="12"/>
+      <c r="XZ18" s="12"/>
+      <c r="YA18" s="12"/>
+      <c r="YB18" s="12"/>
+      <c r="YC18" s="12"/>
+      <c r="YD18" s="12"/>
+      <c r="YE18" s="12"/>
+      <c r="YF18" s="12"/>
+      <c r="YG18" s="12"/>
+      <c r="YH18" s="12"/>
+      <c r="YI18" s="12"/>
+      <c r="YJ18" s="12"/>
+      <c r="YK18" s="12"/>
+      <c r="YL18" s="12"/>
+      <c r="YM18" s="12"/>
+      <c r="YN18" s="12"/>
+      <c r="YO18" s="12"/>
+      <c r="YP18" s="12"/>
+      <c r="YQ18" s="12"/>
+      <c r="YR18" s="12"/>
+      <c r="YS18" s="12"/>
+      <c r="YT18" s="12"/>
+      <c r="YU18" s="12"/>
+      <c r="YV18" s="12"/>
+      <c r="YW18" s="12"/>
+      <c r="YX18" s="12"/>
+      <c r="YY18" s="12"/>
+      <c r="YZ18" s="12"/>
+      <c r="ZA18" s="12"/>
+      <c r="ZB18" s="12"/>
+      <c r="ZC18" s="12"/>
+      <c r="ZD18" s="12"/>
+      <c r="ZE18" s="12"/>
+      <c r="ZF18" s="12"/>
+      <c r="ZG18" s="12"/>
+      <c r="ZH18" s="12"/>
+      <c r="ZI18" s="12"/>
+      <c r="ZJ18" s="12"/>
+      <c r="ZK18" s="12"/>
+      <c r="ZL18" s="12"/>
+      <c r="ZM18" s="12"/>
+      <c r="ZN18" s="12"/>
+      <c r="ZO18" s="12"/>
+      <c r="ZP18" s="12"/>
+      <c r="ZR18" s="12"/>
+      <c r="ZS18" s="12"/>
+      <c r="ZT18" s="12"/>
+      <c r="ZU18" s="12"/>
+      <c r="ZV18" s="12"/>
+      <c r="ZW18" s="12"/>
+      <c r="ZX18" s="12"/>
+      <c r="ZY18" s="12"/>
+      <c r="ZZ18" s="12"/>
+      <c r="AAA18" s="12"/>
+      <c r="AAB18" s="12"/>
+      <c r="AAC18" s="12"/>
+      <c r="AAD18" s="12"/>
+      <c r="AAE18" s="12"/>
+      <c r="AAF18" s="12"/>
+      <c r="AAG18" s="12"/>
+      <c r="AAH18" s="12"/>
+      <c r="AAI18" s="12"/>
+      <c r="AAJ18" s="12"/>
+      <c r="AAK18" s="12"/>
+      <c r="AAL18" s="12"/>
+      <c r="AAM18" s="12"/>
+      <c r="AAN18" s="12"/>
+      <c r="AAO18" s="12"/>
+      <c r="AAP18" s="12"/>
+      <c r="AAQ18" s="12"/>
+      <c r="AAR18" s="12"/>
+      <c r="AAS18" s="12"/>
+      <c r="AAT18" s="12"/>
+      <c r="AAU18" s="12"/>
+      <c r="AAV18" s="12"/>
+      <c r="AAW18" s="12"/>
+      <c r="AAX18" s="12"/>
+      <c r="ABD18" s="12"/>
+      <c r="ABE18" s="12"/>
+      <c r="ABF18" s="12"/>
+      <c r="ABG18" s="12"/>
+      <c r="ABH18" s="12"/>
+      <c r="ABI18" s="12"/>
+      <c r="ABJ18" s="12"/>
+      <c r="ABK18" s="12"/>
+      <c r="ABL18" s="12"/>
+      <c r="ABM18" s="12"/>
+      <c r="ABN18" s="12"/>
+      <c r="ABO18" s="12"/>
+      <c r="ABP18" s="12"/>
+      <c r="ABQ18" s="12"/>
+      <c r="ABR18" s="12"/>
+      <c r="ABS18" s="12"/>
+      <c r="ABT18" s="12"/>
+      <c r="ABU18" s="12"/>
+      <c r="ABV18" s="12"/>
+      <c r="ABW18" s="12"/>
+      <c r="ABX18" s="12"/>
+      <c r="ABY18" s="12"/>
+      <c r="ABZ18" s="12"/>
+      <c r="ACA18" s="12"/>
+      <c r="ACB18" s="12"/>
+      <c r="ACC18" s="12"/>
+      <c r="ACD18" s="12"/>
+      <c r="ACE18" s="12"/>
+      <c r="ACF18" s="12"/>
+      <c r="ACG18" s="12"/>
+      <c r="ACH18" s="12"/>
+      <c r="ACI18" s="12"/>
+      <c r="ACJ18" s="12"/>
+      <c r="ACK18" s="12"/>
+      <c r="ACL18" s="12"/>
+      <c r="ACM18" s="12"/>
+      <c r="ACN18" s="12"/>
+      <c r="ACO18" s="12"/>
+      <c r="ACP18" s="12"/>
+      <c r="ACQ18" s="12"/>
+      <c r="ACR18" s="12"/>
+      <c r="ACS18" s="12"/>
+      <c r="ACT18" s="12"/>
+      <c r="ACU18" s="12"/>
+      <c r="ACV18" s="12"/>
+      <c r="ACW18" s="12"/>
+      <c r="ACX18" s="12"/>
+      <c r="ACY18" s="12"/>
+      <c r="ACZ18" s="12"/>
+      <c r="ADA18" s="12"/>
+      <c r="ADB18" s="12"/>
+      <c r="ADC18" s="12"/>
+      <c r="ADD18" s="12"/>
+      <c r="ADE18" s="12"/>
+      <c r="ADF18" s="12"/>
+      <c r="ADG18" s="12"/>
+      <c r="ADH18" s="12"/>
+      <c r="ADI18" s="12"/>
+      <c r="ADJ18" s="12"/>
+      <c r="ADK18" s="12"/>
+      <c r="ADL18" s="12"/>
+      <c r="ADM18" s="12"/>
+      <c r="ADN18" s="12"/>
+      <c r="ADO18" s="12"/>
+      <c r="ADP18" s="12"/>
+      <c r="ADQ18" s="12"/>
+      <c r="ADU18" s="12"/>
+    </row>
+    <row r="19" spans="1:801" s="8" customFormat="1">
+      <c r="A19" s="46"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="59"/>
+      <c r="M19" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="N19" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="45"/>
+      <c r="XB19" s="12"/>
+      <c r="XC19" s="12"/>
+      <c r="XD19" s="12"/>
+      <c r="XE19" s="12"/>
+      <c r="XF19" s="12"/>
+      <c r="XG19" s="12"/>
+      <c r="XH19" s="12"/>
+      <c r="XI19" s="12"/>
+      <c r="XJ19" s="12"/>
+      <c r="XK19" s="12"/>
+      <c r="XL19" s="12"/>
+      <c r="XM19" s="12"/>
+      <c r="XN19" s="12"/>
+      <c r="XO19" s="12"/>
+      <c r="XP19" s="12"/>
+      <c r="XQ19" s="12"/>
+      <c r="XR19" s="12"/>
+      <c r="XS19" s="12"/>
+      <c r="XT19" s="12"/>
+      <c r="XU19" s="12"/>
+      <c r="XV19" s="12"/>
+      <c r="XW19" s="12"/>
+      <c r="XX19" s="12"/>
+      <c r="XY19" s="12"/>
+      <c r="XZ19" s="12"/>
+      <c r="YA19" s="12"/>
+      <c r="YB19" s="12"/>
+      <c r="YC19" s="12"/>
+      <c r="YD19" s="12"/>
+      <c r="YE19" s="12"/>
+      <c r="YF19" s="12"/>
+      <c r="YG19" s="12"/>
+      <c r="YH19" s="12"/>
+      <c r="YI19" s="12"/>
+      <c r="YJ19" s="12"/>
+      <c r="YK19" s="12"/>
+      <c r="YL19" s="12"/>
+      <c r="YM19" s="12"/>
+      <c r="YN19" s="12"/>
+      <c r="YO19" s="12"/>
+      <c r="YP19" s="12"/>
+      <c r="YQ19" s="12"/>
+      <c r="YR19" s="12"/>
+      <c r="YS19" s="12"/>
+      <c r="YT19" s="12"/>
+      <c r="YU19" s="12"/>
+      <c r="YV19" s="12"/>
+      <c r="YW19" s="12"/>
+      <c r="YX19" s="12"/>
+      <c r="YY19" s="12"/>
+      <c r="YZ19" s="12"/>
+      <c r="ZA19" s="12"/>
+      <c r="ZB19" s="12"/>
+      <c r="ZC19" s="12"/>
+      <c r="ZD19" s="12"/>
+      <c r="ZE19" s="12"/>
+      <c r="ZF19" s="12"/>
+      <c r="ZG19" s="12"/>
+      <c r="ZH19" s="12"/>
+      <c r="ZI19" s="12"/>
+      <c r="ZJ19" s="12"/>
+      <c r="ZK19" s="12"/>
+      <c r="ZL19" s="12"/>
+      <c r="ZM19" s="12"/>
+      <c r="ZN19" s="12"/>
+      <c r="ZO19" s="12"/>
+      <c r="ZP19" s="12"/>
+      <c r="ZR19" s="12"/>
+      <c r="ZS19" s="12"/>
+      <c r="ZT19" s="12"/>
+      <c r="ZU19" s="12"/>
+      <c r="ZV19" s="12"/>
+      <c r="ZW19" s="12"/>
+      <c r="ZX19" s="12"/>
+      <c r="ZY19" s="12"/>
+      <c r="ZZ19" s="12"/>
+      <c r="AAA19" s="12"/>
+      <c r="AAB19" s="12"/>
+      <c r="AAC19" s="12"/>
+      <c r="AAD19" s="12"/>
+      <c r="AAE19" s="12"/>
+      <c r="AAF19" s="12"/>
+      <c r="AAG19" s="12"/>
+      <c r="AAH19" s="12"/>
+      <c r="AAI19" s="12"/>
+      <c r="AAJ19" s="12"/>
+      <c r="AAK19" s="12"/>
+      <c r="AAL19" s="12"/>
+      <c r="AAM19" s="12"/>
+      <c r="AAN19" s="12"/>
+      <c r="AAO19" s="12"/>
+      <c r="AAP19" s="12"/>
+      <c r="AAQ19" s="12"/>
+      <c r="AAR19" s="12"/>
+      <c r="AAS19" s="12"/>
+      <c r="AAT19" s="12"/>
+      <c r="AAU19" s="12"/>
+      <c r="AAV19" s="12"/>
+      <c r="AAW19" s="12"/>
+      <c r="AAX19" s="12"/>
+      <c r="ABD19" s="12"/>
+      <c r="ABE19" s="12"/>
+      <c r="ABF19" s="12"/>
+      <c r="ABG19" s="12"/>
+      <c r="ABH19" s="12"/>
+      <c r="ABI19" s="12"/>
+      <c r="ABJ19" s="12"/>
+      <c r="ABK19" s="12"/>
+      <c r="ABL19" s="12"/>
+      <c r="ABM19" s="12"/>
+      <c r="ABN19" s="12"/>
+      <c r="ABO19" s="12"/>
+      <c r="ABP19" s="12"/>
+      <c r="ABQ19" s="12"/>
+      <c r="ABR19" s="12"/>
+      <c r="ABS19" s="12"/>
+      <c r="ABT19" s="12"/>
+      <c r="ABU19" s="12"/>
+      <c r="ABV19" s="12"/>
+      <c r="ABW19" s="12"/>
+      <c r="ABX19" s="12"/>
+      <c r="ABY19" s="12"/>
+      <c r="ABZ19" s="12"/>
+      <c r="ACA19" s="12"/>
+      <c r="ACB19" s="12"/>
+      <c r="ACC19" s="12"/>
+      <c r="ACD19" s="12"/>
+      <c r="ACE19" s="12"/>
+      <c r="ACF19" s="12"/>
+      <c r="ACG19" s="12"/>
+      <c r="ACH19" s="12"/>
+      <c r="ACI19" s="12"/>
+      <c r="ACJ19" s="12"/>
+      <c r="ACK19" s="12"/>
+      <c r="ACL19" s="12"/>
+      <c r="ACM19" s="12"/>
+      <c r="ACN19" s="12"/>
+      <c r="ACO19" s="12"/>
+      <c r="ACP19" s="12"/>
+      <c r="ACQ19" s="12"/>
+      <c r="ACR19" s="12"/>
+      <c r="ACS19" s="12"/>
+      <c r="ACT19" s="12"/>
+      <c r="ACU19" s="12"/>
+      <c r="ACV19" s="12"/>
+      <c r="ACW19" s="12"/>
+      <c r="ACX19" s="12"/>
+      <c r="ACY19" s="12"/>
+      <c r="ACZ19" s="12"/>
+      <c r="ADA19" s="12"/>
+      <c r="ADB19" s="12"/>
+      <c r="ADC19" s="12"/>
+      <c r="ADD19" s="12"/>
+      <c r="ADE19" s="12"/>
+      <c r="ADF19" s="12"/>
+      <c r="ADG19" s="12"/>
+      <c r="ADH19" s="12"/>
+      <c r="ADI19" s="12"/>
+      <c r="ADJ19" s="12"/>
+      <c r="ADK19" s="12"/>
+      <c r="ADL19" s="12"/>
+      <c r="ADM19" s="12"/>
+      <c r="ADN19" s="12"/>
+      <c r="ADO19" s="12"/>
+      <c r="ADP19" s="12"/>
+      <c r="ADQ19" s="12"/>
+      <c r="ADU19" s="12"/>
+    </row>
+    <row r="20" spans="1:801">
+      <c r="A20" s="14"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="59"/>
+      <c r="M20" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="N20" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="63"/>
+    </row>
+    <row r="21" spans="1:801">
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="59"/>
+      <c r="M21" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="N21" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="63"/>
+    </row>
+    <row r="22" spans="1:801">
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L22" s="59"/>
+      <c r="M22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="N22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="63"/>
+    </row>
+    <row r="23" spans="1:801">
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" s="59"/>
+      <c r="M23" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="N23" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="63"/>
+    </row>
+    <row r="24" spans="1:801">
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="59"/>
+      <c r="M24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="N24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="63"/>
+    </row>
+    <row r="25" spans="1:801">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="59"/>
+      <c r="M25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="N25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="63"/>
+    </row>
+    <row r="26" spans="1:801">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="59"/>
+      <c r="M26" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="N26" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="63"/>
+    </row>
+    <row r="27" spans="1:801">
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="59"/>
+      <c r="M27" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="N27" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="63"/>
+    </row>
+    <row r="28" spans="1:801">
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" s="59"/>
+      <c r="M28" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="N28" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="63"/>
+    </row>
+    <row r="29" spans="1:801">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="59"/>
+      <c r="M29" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="N29" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>.xls</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="63"/>
+    </row>
+    <row r="30" spans="1:801">
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L30" s="59"/>
+      <c r="M30" s="10" t="str">
+        <f t="shared" ref="M30:N42" si="2">$B30&amp;".xls"</f>
+        <v>.xls</v>
+      </c>
+      <c r="N30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="63"/>
+    </row>
+    <row r="31" spans="1:801">
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L31" s="59"/>
+      <c r="M31" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="N31" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="63"/>
+    </row>
+    <row r="32" spans="1:801">
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L32" s="59"/>
+      <c r="M32" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="N32" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="63"/>
+    </row>
+    <row r="33" spans="1:801">
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="59"/>
+      <c r="M33" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="N33" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="63"/>
+    </row>
+    <row r="34" spans="1:801">
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L34" s="59"/>
+      <c r="M34" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="N34" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="63"/>
+    </row>
+    <row r="35" spans="1:801">
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I35" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L35" s="59"/>
+      <c r="M35" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="N35" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="63"/>
+    </row>
+    <row r="36" spans="1:801">
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="59"/>
+      <c r="M36" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="N36" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="63"/>
+    </row>
+    <row r="37" spans="1:801">
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L37" s="59"/>
+      <c r="M37" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="N37" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="58"/>
+      <c r="W37" s="57"/>
+      <c r="X37" s="57"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="63"/>
+    </row>
+    <row r="38" spans="1:801">
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L38" s="59"/>
+      <c r="M38" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="N38" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="58"/>
+      <c r="W38" s="57"/>
+      <c r="X38" s="57"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="63"/>
+    </row>
+    <row r="39" spans="1:801">
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L39" s="59"/>
+      <c r="M39" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="N39" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="57"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="63"/>
+    </row>
+    <row r="40" spans="1:801">
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L40" s="59"/>
+      <c r="M40" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="N40" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="58"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="62"/>
+      <c r="V40" s="58"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="57"/>
+      <c r="Y40" s="60"/>
+      <c r="Z40" s="60"/>
+      <c r="AA40" s="63"/>
+    </row>
+    <row r="41" spans="1:801">
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L41" s="59"/>
+      <c r="M41" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="N41" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="58"/>
+      <c r="S41" s="57"/>
+      <c r="T41" s="57"/>
+      <c r="U41" s="62"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="57"/>
+      <c r="X41" s="57"/>
+      <c r="Y41" s="60"/>
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="63"/>
+    </row>
+    <row r="42" spans="1:801">
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>.xls</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L42" s="59"/>
+      <c r="M42" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="N42" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>.xls</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="58"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="62"/>
+      <c r="V42" s="58"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="57"/>
+      <c r="Y42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="63"/>
+    </row>
+    <row r="43" spans="1:801">
+      <c r="G43" s="68"/>
+    </row>
+    <row r="44" spans="1:801">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="14"/>
+      <c r="AG44" s="14"/>
+      <c r="AH44" s="14"/>
+      <c r="AI44" s="14"/>
+      <c r="AJ44" s="14"/>
+      <c r="AK44" s="14"/>
+      <c r="AL44" s="14"/>
+      <c r="AM44" s="14"/>
+      <c r="AN44" s="14"/>
+      <c r="AO44" s="14"/>
+      <c r="AP44" s="14"/>
+      <c r="AQ44" s="14"/>
+      <c r="AR44" s="14"/>
+      <c r="AS44" s="14"/>
+      <c r="AT44" s="14"/>
+      <c r="AU44" s="14"/>
+      <c r="AV44" s="14"/>
+      <c r="AW44" s="14"/>
+      <c r="AX44" s="14"/>
+      <c r="AY44" s="14"/>
+      <c r="AZ44" s="14"/>
+      <c r="BA44" s="14"/>
+      <c r="BB44" s="14"/>
+      <c r="BC44" s="14"/>
+      <c r="BD44" s="14"/>
+      <c r="BE44" s="14"/>
+      <c r="BF44" s="14"/>
+      <c r="BG44" s="14"/>
+      <c r="BH44" s="14"/>
+      <c r="BI44" s="14"/>
+      <c r="BJ44" s="14"/>
+      <c r="BK44" s="14"/>
+      <c r="BL44" s="14"/>
+      <c r="BM44" s="14"/>
+      <c r="BQ44" s="14"/>
+      <c r="XB44" s="13"/>
+      <c r="XC44" s="13"/>
+      <c r="XD44" s="13"/>
+      <c r="XE44" s="13"/>
+      <c r="XF44" s="13"/>
+      <c r="XG44" s="13"/>
+      <c r="XH44" s="13"/>
+      <c r="XI44" s="13"/>
+      <c r="XJ44" s="13"/>
+      <c r="XK44" s="13"/>
+      <c r="XL44" s="13"/>
+      <c r="XM44" s="13"/>
+      <c r="XN44" s="13"/>
+      <c r="XO44" s="13"/>
+      <c r="XP44" s="13"/>
+      <c r="XQ44" s="13"/>
+      <c r="XR44" s="13"/>
+      <c r="XS44" s="13"/>
+      <c r="XT44" s="13"/>
+      <c r="XU44" s="13"/>
+      <c r="XV44" s="13"/>
+      <c r="XW44" s="13"/>
+      <c r="XX44" s="13"/>
+      <c r="XY44" s="13"/>
+      <c r="XZ44" s="13"/>
+      <c r="YA44" s="13"/>
+      <c r="YB44" s="13"/>
+      <c r="YC44" s="13"/>
+      <c r="YD44" s="13"/>
+      <c r="YE44" s="13"/>
+      <c r="YF44" s="13"/>
+      <c r="YG44" s="13"/>
+      <c r="YH44" s="13"/>
+      <c r="YI44" s="13"/>
+      <c r="YJ44" s="13"/>
+      <c r="YK44" s="13"/>
+      <c r="YL44" s="13"/>
+      <c r="YM44" s="13"/>
+      <c r="YN44" s="13"/>
+      <c r="YO44" s="13"/>
+      <c r="YP44" s="13"/>
+      <c r="YQ44" s="13"/>
+      <c r="YR44" s="13"/>
+      <c r="YS44" s="13"/>
+      <c r="YT44" s="13"/>
+      <c r="YU44" s="13"/>
+      <c r="YV44" s="13"/>
+      <c r="YW44" s="13"/>
+      <c r="YX44" s="13"/>
+      <c r="YY44" s="13"/>
+      <c r="YZ44" s="13"/>
+      <c r="ZA44" s="13"/>
+      <c r="ZB44" s="13"/>
+      <c r="ZC44" s="13"/>
+      <c r="ZD44" s="13"/>
+      <c r="ZE44" s="13"/>
+      <c r="ZF44" s="13"/>
+      <c r="ZG44" s="13"/>
+      <c r="ZH44" s="13"/>
+      <c r="ZI44" s="13"/>
+      <c r="ZJ44" s="13"/>
+      <c r="ZK44" s="13"/>
+      <c r="ZL44" s="13"/>
+      <c r="ZM44" s="13"/>
+      <c r="ZN44" s="13"/>
+      <c r="ZO44" s="13"/>
+      <c r="ZP44" s="13"/>
+      <c r="ZR44" s="13"/>
+      <c r="ZS44" s="13"/>
+      <c r="ZT44" s="13"/>
+      <c r="ZU44" s="13"/>
+      <c r="ZV44" s="13"/>
+      <c r="ZW44" s="13"/>
+      <c r="ZX44" s="13"/>
+      <c r="ZY44" s="13"/>
+      <c r="ZZ44" s="13"/>
+      <c r="AAA44" s="13"/>
+      <c r="AAB44" s="13"/>
+      <c r="AAC44" s="13"/>
+      <c r="AAD44" s="13"/>
+      <c r="AAE44" s="13"/>
+      <c r="AAF44" s="13"/>
+      <c r="AAG44" s="13"/>
+      <c r="AAH44" s="13"/>
+      <c r="AAI44" s="13"/>
+      <c r="AAJ44" s="13"/>
+      <c r="AAK44" s="13"/>
+      <c r="AAL44" s="13"/>
+      <c r="AAM44" s="13"/>
+      <c r="AAN44" s="13"/>
+      <c r="AAO44" s="13"/>
+      <c r="AAP44" s="13"/>
+      <c r="AAQ44" s="13"/>
+      <c r="AAR44" s="13"/>
+      <c r="AAS44" s="13"/>
+      <c r="AAT44" s="13"/>
+      <c r="AAU44" s="13"/>
+      <c r="AAV44" s="13"/>
+      <c r="AAW44" s="13"/>
+      <c r="AAX44" s="13"/>
+      <c r="ABD44" s="13"/>
+      <c r="ABE44" s="13"/>
+      <c r="ABF44" s="13"/>
+      <c r="ABG44" s="13"/>
+      <c r="ABH44" s="13"/>
+      <c r="ABI44" s="13"/>
+      <c r="ABJ44" s="13"/>
+      <c r="ABK44" s="13"/>
+      <c r="ABL44" s="13"/>
+      <c r="ABM44" s="13"/>
+      <c r="ABN44" s="13"/>
+      <c r="ABO44" s="13"/>
+      <c r="ABP44" s="13"/>
+      <c r="ABQ44" s="13"/>
+      <c r="ABR44" s="13"/>
+      <c r="ABS44" s="13"/>
+      <c r="ABT44" s="13"/>
+      <c r="ABU44" s="13"/>
+      <c r="ABV44" s="13"/>
+      <c r="ABW44" s="13"/>
+      <c r="ABX44" s="13"/>
+      <c r="ABY44" s="13"/>
+      <c r="ABZ44" s="13"/>
+      <c r="ACA44" s="13"/>
+      <c r="ACB44" s="13"/>
+      <c r="ACC44" s="13"/>
+      <c r="ACD44" s="13"/>
+      <c r="ACE44" s="13"/>
+      <c r="ACF44" s="13"/>
+      <c r="ACG44" s="13"/>
+      <c r="ACH44" s="13"/>
+      <c r="ACI44" s="13"/>
+      <c r="ACJ44" s="13"/>
+      <c r="ACK44" s="13"/>
+      <c r="ACL44" s="13"/>
+      <c r="ACM44" s="13"/>
+      <c r="ACN44" s="13"/>
+      <c r="ACO44" s="13"/>
+      <c r="ACP44" s="13"/>
+      <c r="ACQ44" s="13"/>
+      <c r="ACR44" s="13"/>
+      <c r="ACS44" s="13"/>
+      <c r="ACT44" s="13"/>
+      <c r="ACU44" s="13"/>
+      <c r="ACV44" s="13"/>
+      <c r="ACW44" s="13"/>
+      <c r="ACX44" s="13"/>
+      <c r="ACY44" s="13"/>
+      <c r="ACZ44" s="13"/>
+      <c r="ADA44" s="13"/>
+      <c r="ADB44" s="13"/>
+      <c r="ADC44" s="13"/>
+      <c r="ADD44" s="13"/>
+      <c r="ADE44" s="13"/>
+      <c r="ADF44" s="13"/>
+      <c r="ADG44" s="13"/>
+      <c r="ADH44" s="13"/>
+      <c r="ADI44" s="13"/>
+      <c r="ADJ44" s="13"/>
+      <c r="ADK44" s="13"/>
+      <c r="ADL44" s="13"/>
+      <c r="ADM44" s="13"/>
+      <c r="ADN44" s="13"/>
+      <c r="ADO44" s="13"/>
+      <c r="ADP44" s="13"/>
+      <c r="ADQ44" s="13"/>
+      <c r="ADU44" s="13"/>
+    </row>
+    <row r="45" spans="1:801">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="14"/>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="14"/>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="14"/>
+      <c r="AI45" s="14"/>
+      <c r="AJ45" s="14"/>
+      <c r="AK45" s="14"/>
+      <c r="AL45" s="14"/>
+      <c r="AM45" s="14"/>
+      <c r="AN45" s="14"/>
+      <c r="AO45" s="14"/>
+      <c r="AP45" s="14"/>
+      <c r="AQ45" s="14"/>
+      <c r="AR45" s="14"/>
+      <c r="AS45" s="14"/>
+      <c r="AT45" s="14"/>
+      <c r="AU45" s="14"/>
+      <c r="AV45" s="14"/>
+      <c r="AW45" s="14"/>
+      <c r="AX45" s="14"/>
+      <c r="AY45" s="14"/>
+      <c r="AZ45" s="14"/>
+      <c r="BA45" s="14"/>
+      <c r="BB45" s="14"/>
+      <c r="BC45" s="14"/>
+      <c r="BD45" s="14"/>
+      <c r="BE45" s="14"/>
+      <c r="BF45" s="14"/>
+      <c r="BG45" s="14"/>
+      <c r="BH45" s="14"/>
+      <c r="BI45" s="14"/>
+      <c r="BJ45" s="14"/>
+      <c r="BK45" s="14"/>
+      <c r="BL45" s="14"/>
+      <c r="BM45" s="14"/>
+      <c r="BQ45" s="14"/>
+      <c r="XB45" s="13"/>
+      <c r="XC45" s="13"/>
+      <c r="XD45" s="13"/>
+      <c r="XE45" s="13"/>
+      <c r="XF45" s="13"/>
+      <c r="XG45" s="13"/>
+      <c r="XH45" s="13"/>
+      <c r="XI45" s="13"/>
+      <c r="XJ45" s="13"/>
+      <c r="XK45" s="13"/>
+      <c r="XL45" s="13"/>
+      <c r="XM45" s="13"/>
+      <c r="XN45" s="13"/>
+      <c r="XO45" s="13"/>
+      <c r="XP45" s="13"/>
+      <c r="XQ45" s="13"/>
+      <c r="XR45" s="13"/>
+      <c r="XS45" s="13"/>
+      <c r="XT45" s="13"/>
+      <c r="XU45" s="13"/>
+      <c r="XV45" s="13"/>
+      <c r="XW45" s="13"/>
+      <c r="XX45" s="13"/>
+      <c r="XY45" s="13"/>
+      <c r="XZ45" s="13"/>
+      <c r="YA45" s="13"/>
+      <c r="YB45" s="13"/>
+      <c r="YC45" s="13"/>
+      <c r="YD45" s="13"/>
+      <c r="YE45" s="13"/>
+      <c r="YF45" s="13"/>
+      <c r="YG45" s="13"/>
+      <c r="YH45" s="13"/>
+      <c r="YI45" s="13"/>
+      <c r="YJ45" s="13"/>
+      <c r="YK45" s="13"/>
+      <c r="YL45" s="13"/>
+      <c r="YM45" s="13"/>
+      <c r="YN45" s="13"/>
+      <c r="YO45" s="13"/>
+      <c r="YP45" s="13"/>
+      <c r="YQ45" s="13"/>
+      <c r="YR45" s="13"/>
+      <c r="YS45" s="13"/>
+      <c r="YT45" s="13"/>
+      <c r="YU45" s="13"/>
+      <c r="YV45" s="13"/>
+      <c r="YW45" s="13"/>
+      <c r="YX45" s="13"/>
+      <c r="YY45" s="13"/>
+      <c r="YZ45" s="13"/>
+      <c r="ZA45" s="13"/>
+      <c r="ZB45" s="13"/>
+      <c r="ZC45" s="13"/>
+      <c r="ZD45" s="13"/>
+      <c r="ZE45" s="13"/>
+      <c r="ZF45" s="13"/>
+      <c r="ZG45" s="13"/>
+      <c r="ZH45" s="13"/>
+      <c r="ZI45" s="13"/>
+      <c r="ZJ45" s="13"/>
+      <c r="ZK45" s="13"/>
+      <c r="ZL45" s="13"/>
+      <c r="ZM45" s="13"/>
+      <c r="ZN45" s="13"/>
+      <c r="ZO45" s="13"/>
+      <c r="ZP45" s="13"/>
+      <c r="ZR45" s="13"/>
+      <c r="ZS45" s="13"/>
+      <c r="ZT45" s="13"/>
+      <c r="ZU45" s="13"/>
+      <c r="ZV45" s="13"/>
+      <c r="ZW45" s="13"/>
+      <c r="ZX45" s="13"/>
+      <c r="ZY45" s="13"/>
+      <c r="ZZ45" s="13"/>
+      <c r="AAA45" s="13"/>
+      <c r="AAB45" s="13"/>
+      <c r="AAC45" s="13"/>
+      <c r="AAD45" s="13"/>
+      <c r="AAE45" s="13"/>
+      <c r="AAF45" s="13"/>
+      <c r="AAG45" s="13"/>
+      <c r="AAH45" s="13"/>
+      <c r="AAI45" s="13"/>
+      <c r="AAJ45" s="13"/>
+      <c r="AAK45" s="13"/>
+      <c r="AAL45" s="13"/>
+      <c r="AAM45" s="13"/>
+      <c r="AAN45" s="13"/>
+      <c r="AAO45" s="13"/>
+      <c r="AAP45" s="13"/>
+      <c r="AAQ45" s="13"/>
+      <c r="AAR45" s="13"/>
+      <c r="AAS45" s="13"/>
+      <c r="AAT45" s="13"/>
+      <c r="AAU45" s="13"/>
+      <c r="AAV45" s="13"/>
+      <c r="AAW45" s="13"/>
+      <c r="AAX45" s="13"/>
+      <c r="ABD45" s="13"/>
+      <c r="ABE45" s="13"/>
+      <c r="ABF45" s="13"/>
+      <c r="ABG45" s="13"/>
+      <c r="ABH45" s="13"/>
+      <c r="ABI45" s="13"/>
+      <c r="ABJ45" s="13"/>
+      <c r="ABK45" s="13"/>
+      <c r="ABL45" s="13"/>
+      <c r="ABM45" s="13"/>
+      <c r="ABN45" s="13"/>
+      <c r="ABO45" s="13"/>
+      <c r="ABP45" s="13"/>
+      <c r="ABQ45" s="13"/>
+      <c r="ABR45" s="13"/>
+      <c r="ABS45" s="13"/>
+      <c r="ABT45" s="13"/>
+      <c r="ABU45" s="13"/>
+      <c r="ABV45" s="13"/>
+      <c r="ABW45" s="13"/>
+      <c r="ABX45" s="13"/>
+      <c r="ABY45" s="13"/>
+      <c r="ABZ45" s="13"/>
+      <c r="ACA45" s="13"/>
+      <c r="ACB45" s="13"/>
+      <c r="ACC45" s="13"/>
+      <c r="ACD45" s="13"/>
+      <c r="ACE45" s="13"/>
+      <c r="ACF45" s="13"/>
+      <c r="ACG45" s="13"/>
+      <c r="ACH45" s="13"/>
+      <c r="ACI45" s="13"/>
+      <c r="ACJ45" s="13"/>
+      <c r="ACK45" s="13"/>
+      <c r="ACL45" s="13"/>
+      <c r="ACM45" s="13"/>
+      <c r="ACN45" s="13"/>
+      <c r="ACO45" s="13"/>
+      <c r="ACP45" s="13"/>
+      <c r="ACQ45" s="13"/>
+      <c r="ACR45" s="13"/>
+      <c r="ACS45" s="13"/>
+      <c r="ACT45" s="13"/>
+      <c r="ACU45" s="13"/>
+      <c r="ACV45" s="13"/>
+      <c r="ACW45" s="13"/>
+      <c r="ACX45" s="13"/>
+      <c r="ACY45" s="13"/>
+      <c r="ACZ45" s="13"/>
+      <c r="ADA45" s="13"/>
+      <c r="ADB45" s="13"/>
+      <c r="ADC45" s="13"/>
+      <c r="ADD45" s="13"/>
+      <c r="ADE45" s="13"/>
+      <c r="ADF45" s="13"/>
+      <c r="ADG45" s="13"/>
+      <c r="ADH45" s="13"/>
+      <c r="ADI45" s="13"/>
+      <c r="ADJ45" s="13"/>
+      <c r="ADK45" s="13"/>
+      <c r="ADL45" s="13"/>
+      <c r="ADM45" s="13"/>
+      <c r="ADN45" s="13"/>
+      <c r="ADO45" s="13"/>
+      <c r="ADP45" s="13"/>
+      <c r="ADQ45" s="13"/>
+      <c r="ADU45" s="13"/>
+    </row>
+    <row r="46" spans="1:801">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="14"/>
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="14"/>
+      <c r="AI46" s="14"/>
+      <c r="AJ46" s="14"/>
+      <c r="AK46" s="14"/>
+      <c r="AL46" s="14"/>
+      <c r="AM46" s="14"/>
+      <c r="AN46" s="14"/>
+      <c r="AO46" s="14"/>
+      <c r="AP46" s="14"/>
+      <c r="AQ46" s="14"/>
+      <c r="AR46" s="14"/>
+      <c r="AS46" s="14"/>
+      <c r="AT46" s="14"/>
+      <c r="AU46" s="14"/>
+      <c r="AV46" s="14"/>
+      <c r="AW46" s="14"/>
+      <c r="AX46" s="14"/>
+      <c r="AY46" s="14"/>
+      <c r="AZ46" s="14"/>
+      <c r="BA46" s="14"/>
+      <c r="BB46" s="14"/>
+      <c r="BC46" s="14"/>
+      <c r="BD46" s="14"/>
+      <c r="BE46" s="14"/>
+      <c r="BF46" s="14"/>
+      <c r="BG46" s="14"/>
+      <c r="BH46" s="14"/>
+      <c r="BI46" s="14"/>
+      <c r="BJ46" s="14"/>
+      <c r="BK46" s="14"/>
+      <c r="BL46" s="14"/>
+      <c r="BM46" s="14"/>
+      <c r="BQ46" s="14"/>
+      <c r="XB46" s="13"/>
+      <c r="XC46" s="13"/>
+      <c r="XD46" s="13"/>
+      <c r="XE46" s="13"/>
+      <c r="XF46" s="13"/>
+      <c r="XG46" s="13"/>
+      <c r="XH46" s="13"/>
+      <c r="XI46" s="13"/>
+      <c r="XJ46" s="13"/>
+      <c r="XK46" s="13"/>
+      <c r="XL46" s="13"/>
+      <c r="XM46" s="13"/>
+      <c r="XN46" s="13"/>
+      <c r="XO46" s="13"/>
+      <c r="XP46" s="13"/>
+      <c r="XQ46" s="13"/>
+      <c r="XR46" s="13"/>
+      <c r="XS46" s="13"/>
+      <c r="XT46" s="13"/>
+      <c r="XU46" s="13"/>
+      <c r="XV46" s="13"/>
+      <c r="XW46" s="13"/>
+      <c r="XX46" s="13"/>
+      <c r="XY46" s="13"/>
+      <c r="XZ46" s="13"/>
+      <c r="YA46" s="13"/>
+      <c r="YB46" s="13"/>
+      <c r="YC46" s="13"/>
+      <c r="YD46" s="13"/>
+      <c r="YE46" s="13"/>
+      <c r="YF46" s="13"/>
+      <c r="YG46" s="13"/>
+      <c r="YH46" s="13"/>
+      <c r="YI46" s="13"/>
+      <c r="YJ46" s="13"/>
+      <c r="YK46" s="13"/>
+      <c r="YL46" s="13"/>
+      <c r="YM46" s="13"/>
+      <c r="YN46" s="13"/>
+      <c r="YO46" s="13"/>
+      <c r="YP46" s="13"/>
+      <c r="YQ46" s="13"/>
+      <c r="YR46" s="13"/>
+      <c r="YS46" s="13"/>
+      <c r="YT46" s="13"/>
+      <c r="YU46" s="13"/>
+      <c r="YV46" s="13"/>
+      <c r="YW46" s="13"/>
+      <c r="YX46" s="13"/>
+      <c r="YY46" s="13"/>
+      <c r="YZ46" s="13"/>
+      <c r="ZA46" s="13"/>
+      <c r="ZB46" s="13"/>
+      <c r="ZC46" s="13"/>
+      <c r="ZD46" s="13"/>
+      <c r="ZE46" s="13"/>
+      <c r="ZF46" s="13"/>
+      <c r="ZG46" s="13"/>
+      <c r="ZH46" s="13"/>
+      <c r="ZI46" s="13"/>
+      <c r="ZJ46" s="13"/>
+      <c r="ZK46" s="13"/>
+      <c r="ZL46" s="13"/>
+      <c r="ZM46" s="13"/>
+      <c r="ZN46" s="13"/>
+      <c r="ZO46" s="13"/>
+      <c r="ZP46" s="13"/>
+      <c r="ZR46" s="13"/>
+      <c r="ZS46" s="13"/>
+      <c r="ZT46" s="13"/>
+      <c r="ZU46" s="13"/>
+      <c r="ZV46" s="13"/>
+      <c r="ZW46" s="13"/>
+      <c r="ZX46" s="13"/>
+      <c r="ZY46" s="13"/>
+      <c r="ZZ46" s="13"/>
+      <c r="AAA46" s="13"/>
+      <c r="AAB46" s="13"/>
+      <c r="AAC46" s="13"/>
+      <c r="AAD46" s="13"/>
+      <c r="AAE46" s="13"/>
+      <c r="AAF46" s="13"/>
+      <c r="AAG46" s="13"/>
+      <c r="AAH46" s="13"/>
+      <c r="AAI46" s="13"/>
+      <c r="AAJ46" s="13"/>
+      <c r="AAK46" s="13"/>
+      <c r="AAL46" s="13"/>
+      <c r="AAM46" s="13"/>
+      <c r="AAN46" s="13"/>
+      <c r="AAO46" s="13"/>
+      <c r="AAP46" s="13"/>
+      <c r="AAQ46" s="13"/>
+      <c r="AAR46" s="13"/>
+      <c r="AAS46" s="13"/>
+      <c r="AAT46" s="13"/>
+      <c r="AAU46" s="13"/>
+      <c r="AAV46" s="13"/>
+      <c r="AAW46" s="13"/>
+      <c r="AAX46" s="13"/>
+      <c r="ABD46" s="13"/>
+      <c r="ABE46" s="13"/>
+      <c r="ABF46" s="13"/>
+      <c r="ABG46" s="13"/>
+      <c r="ABH46" s="13"/>
+      <c r="ABI46" s="13"/>
+      <c r="ABJ46" s="13"/>
+      <c r="ABK46" s="13"/>
+      <c r="ABL46" s="13"/>
+      <c r="ABM46" s="13"/>
+      <c r="ABN46" s="13"/>
+      <c r="ABO46" s="13"/>
+      <c r="ABP46" s="13"/>
+      <c r="ABQ46" s="13"/>
+      <c r="ABR46" s="13"/>
+      <c r="ABS46" s="13"/>
+      <c r="ABT46" s="13"/>
+      <c r="ABU46" s="13"/>
+      <c r="ABV46" s="13"/>
+      <c r="ABW46" s="13"/>
+      <c r="ABX46" s="13"/>
+      <c r="ABY46" s="13"/>
+      <c r="ABZ46" s="13"/>
+      <c r="ACA46" s="13"/>
+      <c r="ACB46" s="13"/>
+      <c r="ACC46" s="13"/>
+      <c r="ACD46" s="13"/>
+      <c r="ACE46" s="13"/>
+      <c r="ACF46" s="13"/>
+      <c r="ACG46" s="13"/>
+      <c r="ACH46" s="13"/>
+      <c r="ACI46" s="13"/>
+      <c r="ACJ46" s="13"/>
+      <c r="ACK46" s="13"/>
+      <c r="ACL46" s="13"/>
+      <c r="ACM46" s="13"/>
+      <c r="ACN46" s="13"/>
+      <c r="ACO46" s="13"/>
+      <c r="ACP46" s="13"/>
+      <c r="ACQ46" s="13"/>
+      <c r="ACR46" s="13"/>
+      <c r="ACS46" s="13"/>
+      <c r="ACT46" s="13"/>
+      <c r="ACU46" s="13"/>
+      <c r="ACV46" s="13"/>
+      <c r="ACW46" s="13"/>
+      <c r="ACX46" s="13"/>
+      <c r="ACY46" s="13"/>
+      <c r="ACZ46" s="13"/>
+      <c r="ADA46" s="13"/>
+      <c r="ADB46" s="13"/>
+      <c r="ADC46" s="13"/>
+      <c r="ADD46" s="13"/>
+      <c r="ADE46" s="13"/>
+      <c r="ADF46" s="13"/>
+      <c r="ADG46" s="13"/>
+      <c r="ADH46" s="13"/>
+      <c r="ADI46" s="13"/>
+      <c r="ADJ46" s="13"/>
+      <c r="ADK46" s="13"/>
+      <c r="ADL46" s="13"/>
+      <c r="ADM46" s="13"/>
+      <c r="ADN46" s="13"/>
+      <c r="ADO46" s="13"/>
+      <c r="ADP46" s="13"/>
+      <c r="ADQ46" s="13"/>
+      <c r="ADU46" s="13"/>
+    </row>
+    <row r="47" spans="1:801">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="14"/>
+      <c r="AF47" s="14"/>
+      <c r="AG47" s="14"/>
+      <c r="AH47" s="14"/>
+      <c r="AI47" s="14"/>
+      <c r="AJ47" s="14"/>
+      <c r="AK47" s="14"/>
+      <c r="AL47" s="14"/>
+      <c r="AM47" s="14"/>
+      <c r="AN47" s="14"/>
+      <c r="AO47" s="14"/>
+      <c r="AP47" s="14"/>
+      <c r="AQ47" s="14"/>
+      <c r="AR47" s="14"/>
+      <c r="AS47" s="14"/>
+      <c r="AT47" s="14"/>
+      <c r="AU47" s="14"/>
+      <c r="AV47" s="14"/>
+      <c r="AW47" s="14"/>
+      <c r="AX47" s="14"/>
+      <c r="AY47" s="14"/>
+      <c r="AZ47" s="14"/>
+      <c r="BA47" s="14"/>
+      <c r="BB47" s="14"/>
+      <c r="BC47" s="14"/>
+      <c r="BD47" s="14"/>
+      <c r="BE47" s="14"/>
+      <c r="BF47" s="14"/>
+      <c r="BG47" s="14"/>
+      <c r="BH47" s="14"/>
+      <c r="BI47" s="14"/>
+      <c r="BJ47" s="14"/>
+      <c r="BK47" s="14"/>
+      <c r="BL47" s="14"/>
+      <c r="BM47" s="14"/>
+      <c r="BQ47" s="14"/>
+      <c r="XB47" s="13"/>
+      <c r="XC47" s="13"/>
+      <c r="XD47" s="13"/>
+      <c r="XE47" s="13"/>
+      <c r="XF47" s="13"/>
+      <c r="XG47" s="13"/>
+      <c r="XH47" s="13"/>
+      <c r="XI47" s="13"/>
+      <c r="XJ47" s="13"/>
+      <c r="XK47" s="13"/>
+      <c r="XL47" s="13"/>
+      <c r="XM47" s="13"/>
+      <c r="XN47" s="13"/>
+      <c r="XO47" s="13"/>
+      <c r="XP47" s="13"/>
+      <c r="XQ47" s="13"/>
+      <c r="XR47" s="13"/>
+      <c r="XS47" s="13"/>
+      <c r="XT47" s="13"/>
+      <c r="XU47" s="13"/>
+      <c r="XV47" s="13"/>
+      <c r="XW47" s="13"/>
+      <c r="XX47" s="13"/>
+      <c r="XY47" s="13"/>
+      <c r="XZ47" s="13"/>
+      <c r="YA47" s="13"/>
+      <c r="YB47" s="13"/>
+      <c r="YC47" s="13"/>
+      <c r="YD47" s="13"/>
+      <c r="YE47" s="13"/>
+      <c r="YF47" s="13"/>
+      <c r="YG47" s="13"/>
+      <c r="YH47" s="13"/>
+      <c r="YI47" s="13"/>
+      <c r="YJ47" s="13"/>
+      <c r="YK47" s="13"/>
+      <c r="YL47" s="13"/>
+      <c r="YM47" s="13"/>
+      <c r="YN47" s="13"/>
+      <c r="YO47" s="13"/>
+      <c r="YP47" s="13"/>
+      <c r="YQ47" s="13"/>
+      <c r="YR47" s="13"/>
+      <c r="YS47" s="13"/>
+      <c r="YT47" s="13"/>
+      <c r="YU47" s="13"/>
+      <c r="YV47" s="13"/>
+      <c r="YW47" s="13"/>
+      <c r="YX47" s="13"/>
+      <c r="YY47" s="13"/>
+      <c r="YZ47" s="13"/>
+      <c r="ZA47" s="13"/>
+      <c r="ZB47" s="13"/>
+      <c r="ZC47" s="13"/>
+      <c r="ZD47" s="13"/>
+      <c r="ZE47" s="13"/>
+      <c r="ZF47" s="13"/>
+      <c r="ZG47" s="13"/>
+      <c r="ZH47" s="13"/>
+      <c r="ZI47" s="13"/>
+      <c r="ZJ47" s="13"/>
+      <c r="ZK47" s="13"/>
+      <c r="ZL47" s="13"/>
+      <c r="ZM47" s="13"/>
+      <c r="ZN47" s="13"/>
+      <c r="ZO47" s="13"/>
+      <c r="ZP47" s="13"/>
+      <c r="ZR47" s="13"/>
+      <c r="ZS47" s="13"/>
+      <c r="ZT47" s="13"/>
+      <c r="ZU47" s="13"/>
+      <c r="ZV47" s="13"/>
+      <c r="ZW47" s="13"/>
+      <c r="ZX47" s="13"/>
+      <c r="ZY47" s="13"/>
+      <c r="ZZ47" s="13"/>
+      <c r="AAA47" s="13"/>
+      <c r="AAB47" s="13"/>
+      <c r="AAC47" s="13"/>
+      <c r="AAD47" s="13"/>
+      <c r="AAE47" s="13"/>
+      <c r="AAF47" s="13"/>
+      <c r="AAG47" s="13"/>
+      <c r="AAH47" s="13"/>
+      <c r="AAI47" s="13"/>
+      <c r="AAJ47" s="13"/>
+      <c r="AAK47" s="13"/>
+      <c r="AAL47" s="13"/>
+      <c r="AAM47" s="13"/>
+      <c r="AAN47" s="13"/>
+      <c r="AAO47" s="13"/>
+      <c r="AAP47" s="13"/>
+      <c r="AAQ47" s="13"/>
+      <c r="AAR47" s="13"/>
+      <c r="AAS47" s="13"/>
+      <c r="AAT47" s="13"/>
+      <c r="AAU47" s="13"/>
+      <c r="AAV47" s="13"/>
+      <c r="AAW47" s="13"/>
+      <c r="AAX47" s="13"/>
+      <c r="ABD47" s="13"/>
+      <c r="ABE47" s="13"/>
+      <c r="ABF47" s="13"/>
+      <c r="ABG47" s="13"/>
+      <c r="ABH47" s="13"/>
+      <c r="ABI47" s="13"/>
+      <c r="ABJ47" s="13"/>
+      <c r="ABK47" s="13"/>
+      <c r="ABL47" s="13"/>
+      <c r="ABM47" s="13"/>
+      <c r="ABN47" s="13"/>
+      <c r="ABO47" s="13"/>
+      <c r="ABP47" s="13"/>
+      <c r="ABQ47" s="13"/>
+      <c r="ABR47" s="13"/>
+      <c r="ABS47" s="13"/>
+      <c r="ABT47" s="13"/>
+      <c r="ABU47" s="13"/>
+      <c r="ABV47" s="13"/>
+      <c r="ABW47" s="13"/>
+      <c r="ABX47" s="13"/>
+      <c r="ABY47" s="13"/>
+      <c r="ABZ47" s="13"/>
+      <c r="ACA47" s="13"/>
+      <c r="ACB47" s="13"/>
+      <c r="ACC47" s="13"/>
+      <c r="ACD47" s="13"/>
+      <c r="ACE47" s="13"/>
+      <c r="ACF47" s="13"/>
+      <c r="ACG47" s="13"/>
+      <c r="ACH47" s="13"/>
+      <c r="ACI47" s="13"/>
+      <c r="ACJ47" s="13"/>
+      <c r="ACK47" s="13"/>
+      <c r="ACL47" s="13"/>
+      <c r="ACM47" s="13"/>
+      <c r="ACN47" s="13"/>
+      <c r="ACO47" s="13"/>
+      <c r="ACP47" s="13"/>
+      <c r="ACQ47" s="13"/>
+      <c r="ACR47" s="13"/>
+      <c r="ACS47" s="13"/>
+      <c r="ACT47" s="13"/>
+      <c r="ACU47" s="13"/>
+      <c r="ACV47" s="13"/>
+      <c r="ACW47" s="13"/>
+      <c r="ACX47" s="13"/>
+      <c r="ACY47" s="13"/>
+      <c r="ACZ47" s="13"/>
+      <c r="ADA47" s="13"/>
+      <c r="ADB47" s="13"/>
+      <c r="ADC47" s="13"/>
+      <c r="ADD47" s="13"/>
+      <c r="ADE47" s="13"/>
+      <c r="ADF47" s="13"/>
+      <c r="ADG47" s="13"/>
+      <c r="ADH47" s="13"/>
+      <c r="ADI47" s="13"/>
+      <c r="ADJ47" s="13"/>
+      <c r="ADK47" s="13"/>
+      <c r="ADL47" s="13"/>
+      <c r="ADM47" s="13"/>
+      <c r="ADN47" s="13"/>
+      <c r="ADO47" s="13"/>
+      <c r="ADP47" s="13"/>
+      <c r="ADQ47" s="13"/>
+      <c r="ADU47" s="13"/>
+    </row>
+    <row r="48" spans="1:801">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="14"/>
+      <c r="AG48" s="14"/>
+      <c r="AH48" s="14"/>
+      <c r="AI48" s="14"/>
+      <c r="AJ48" s="14"/>
+      <c r="AK48" s="14"/>
+      <c r="AL48" s="14"/>
+      <c r="AM48" s="14"/>
+      <c r="AN48" s="14"/>
+      <c r="AO48" s="14"/>
+      <c r="AP48" s="14"/>
+      <c r="AQ48" s="14"/>
+      <c r="AR48" s="14"/>
+      <c r="AS48" s="14"/>
+      <c r="AT48" s="14"/>
+      <c r="AU48" s="14"/>
+      <c r="AV48" s="14"/>
+      <c r="AW48" s="14"/>
+      <c r="AX48" s="14"/>
+      <c r="AY48" s="14"/>
+      <c r="AZ48" s="14"/>
+      <c r="BA48" s="14"/>
+      <c r="BB48" s="14"/>
+      <c r="BC48" s="14"/>
+      <c r="BD48" s="14"/>
+      <c r="BE48" s="14"/>
+      <c r="BF48" s="14"/>
+      <c r="BG48" s="14"/>
+      <c r="BH48" s="14"/>
+      <c r="BI48" s="14"/>
+      <c r="BJ48" s="14"/>
+      <c r="BK48" s="14"/>
+      <c r="BL48" s="14"/>
+      <c r="BM48" s="14"/>
+      <c r="BQ48" s="14"/>
+      <c r="XB48" s="13"/>
+      <c r="XC48" s="13"/>
+      <c r="XD48" s="13"/>
+      <c r="XE48" s="13"/>
+      <c r="XF48" s="13"/>
+      <c r="XG48" s="13"/>
+      <c r="XH48" s="13"/>
+      <c r="XI48" s="13"/>
+      <c r="XJ48" s="13"/>
+      <c r="XK48" s="13"/>
+      <c r="XL48" s="13"/>
+      <c r="XM48" s="13"/>
+      <c r="XN48" s="13"/>
+      <c r="XO48" s="13"/>
+      <c r="XP48" s="13"/>
+      <c r="XQ48" s="13"/>
+      <c r="XR48" s="13"/>
+      <c r="XS48" s="13"/>
+      <c r="XT48" s="13"/>
+      <c r="XU48" s="13"/>
+      <c r="XV48" s="13"/>
+      <c r="XW48" s="13"/>
+      <c r="XX48" s="13"/>
+      <c r="XY48" s="13"/>
+      <c r="XZ48" s="13"/>
+      <c r="YA48" s="13"/>
+      <c r="YB48" s="13"/>
+      <c r="YC48" s="13"/>
+      <c r="YD48" s="13"/>
+      <c r="YE48" s="13"/>
+      <c r="YF48" s="13"/>
+      <c r="YG48" s="13"/>
+      <c r="YH48" s="13"/>
+      <c r="YI48" s="13"/>
+      <c r="YJ48" s="13"/>
+      <c r="YK48" s="13"/>
+      <c r="YL48" s="13"/>
+      <c r="YM48" s="13"/>
+      <c r="YN48" s="13"/>
+      <c r="YO48" s="13"/>
+      <c r="YP48" s="13"/>
+      <c r="YQ48" s="13"/>
+      <c r="YR48" s="13"/>
+      <c r="YS48" s="13"/>
+      <c r="YT48" s="13"/>
+      <c r="YU48" s="13"/>
+      <c r="YV48" s="13"/>
+      <c r="YW48" s="13"/>
+      <c r="YX48" s="13"/>
+      <c r="YY48" s="13"/>
+      <c r="YZ48" s="13"/>
+      <c r="ZA48" s="13"/>
+      <c r="ZB48" s="13"/>
+      <c r="ZC48" s="13"/>
+      <c r="ZD48" s="13"/>
+      <c r="ZE48" s="13"/>
+      <c r="ZF48" s="13"/>
+      <c r="ZG48" s="13"/>
+      <c r="ZH48" s="13"/>
+      <c r="ZI48" s="13"/>
+      <c r="ZJ48" s="13"/>
+      <c r="ZK48" s="13"/>
+      <c r="ZL48" s="13"/>
+      <c r="ZM48" s="13"/>
+      <c r="ZN48" s="13"/>
+      <c r="ZO48" s="13"/>
+      <c r="ZP48" s="13"/>
+      <c r="ZR48" s="13"/>
+      <c r="ZS48" s="13"/>
+      <c r="ZT48" s="13"/>
+      <c r="ZU48" s="13"/>
+      <c r="ZV48" s="13"/>
+      <c r="ZW48" s="13"/>
+      <c r="ZX48" s="13"/>
+      <c r="ZY48" s="13"/>
+      <c r="ZZ48" s="13"/>
+      <c r="AAA48" s="13"/>
+      <c r="AAB48" s="13"/>
+      <c r="AAC48" s="13"/>
+      <c r="AAD48" s="13"/>
+      <c r="AAE48" s="13"/>
+      <c r="AAF48" s="13"/>
+      <c r="AAG48" s="13"/>
+      <c r="AAH48" s="13"/>
+      <c r="AAI48" s="13"/>
+      <c r="AAJ48" s="13"/>
+      <c r="AAK48" s="13"/>
+      <c r="AAL48" s="13"/>
+      <c r="AAM48" s="13"/>
+      <c r="AAN48" s="13"/>
+      <c r="AAO48" s="13"/>
+      <c r="AAP48" s="13"/>
+      <c r="AAQ48" s="13"/>
+      <c r="AAR48" s="13"/>
+      <c r="AAS48" s="13"/>
+      <c r="AAT48" s="13"/>
+      <c r="AAU48" s="13"/>
+      <c r="AAV48" s="13"/>
+      <c r="AAW48" s="13"/>
+      <c r="AAX48" s="13"/>
+      <c r="ABD48" s="13"/>
+      <c r="ABE48" s="13"/>
+      <c r="ABF48" s="13"/>
+      <c r="ABG48" s="13"/>
+      <c r="ABH48" s="13"/>
+      <c r="ABI48" s="13"/>
+      <c r="ABJ48" s="13"/>
+      <c r="ABK48" s="13"/>
+      <c r="ABL48" s="13"/>
+      <c r="ABM48" s="13"/>
+      <c r="ABN48" s="13"/>
+      <c r="ABO48" s="13"/>
+      <c r="ABP48" s="13"/>
+      <c r="ABQ48" s="13"/>
+      <c r="ABR48" s="13"/>
+      <c r="ABS48" s="13"/>
+      <c r="ABT48" s="13"/>
+      <c r="ABU48" s="13"/>
+      <c r="ABV48" s="13"/>
+      <c r="ABW48" s="13"/>
+      <c r="ABX48" s="13"/>
+      <c r="ABY48" s="13"/>
+      <c r="ABZ48" s="13"/>
+      <c r="ACA48" s="13"/>
+      <c r="ACB48" s="13"/>
+      <c r="ACC48" s="13"/>
+      <c r="ACD48" s="13"/>
+      <c r="ACE48" s="13"/>
+      <c r="ACF48" s="13"/>
+      <c r="ACG48" s="13"/>
+      <c r="ACH48" s="13"/>
+      <c r="ACI48" s="13"/>
+      <c r="ACJ48" s="13"/>
+      <c r="ACK48" s="13"/>
+      <c r="ACL48" s="13"/>
+      <c r="ACM48" s="13"/>
+      <c r="ACN48" s="13"/>
+      <c r="ACO48" s="13"/>
+      <c r="ACP48" s="13"/>
+      <c r="ACQ48" s="13"/>
+      <c r="ACR48" s="13"/>
+      <c r="ACS48" s="13"/>
+      <c r="ACT48" s="13"/>
+      <c r="ACU48" s="13"/>
+      <c r="ACV48" s="13"/>
+      <c r="ACW48" s="13"/>
+      <c r="ACX48" s="13"/>
+      <c r="ACY48" s="13"/>
+      <c r="ACZ48" s="13"/>
+      <c r="ADA48" s="13"/>
+      <c r="ADB48" s="13"/>
+      <c r="ADC48" s="13"/>
+      <c r="ADD48" s="13"/>
+      <c r="ADE48" s="13"/>
+      <c r="ADF48" s="13"/>
+      <c r="ADG48" s="13"/>
+      <c r="ADH48" s="13"/>
+      <c r="ADI48" s="13"/>
+      <c r="ADJ48" s="13"/>
+      <c r="ADK48" s="13"/>
+      <c r="ADL48" s="13"/>
+      <c r="ADM48" s="13"/>
+      <c r="ADN48" s="13"/>
+      <c r="ADO48" s="13"/>
+      <c r="ADP48" s="13"/>
+      <c r="ADQ48" s="13"/>
+      <c r="ADU48" s="13"/>
+    </row>
+    <row r="49" spans="1:801">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="14"/>
+      <c r="AD49" s="14"/>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="14"/>
+      <c r="AG49" s="14"/>
+      <c r="AH49" s="14"/>
+      <c r="AI49" s="14"/>
+      <c r="AJ49" s="14"/>
+      <c r="AK49" s="14"/>
+      <c r="AL49" s="14"/>
+      <c r="AM49" s="14"/>
+      <c r="AN49" s="14"/>
+      <c r="AO49" s="14"/>
+      <c r="AP49" s="14"/>
+      <c r="AQ49" s="14"/>
+      <c r="AR49" s="14"/>
+      <c r="AS49" s="14"/>
+      <c r="AT49" s="14"/>
+      <c r="AU49" s="14"/>
+      <c r="AV49" s="14"/>
+      <c r="AW49" s="14"/>
+      <c r="AX49" s="14"/>
+      <c r="AY49" s="14"/>
+      <c r="AZ49" s="14"/>
+      <c r="BA49" s="14"/>
+      <c r="BB49" s="14"/>
+      <c r="BC49" s="14"/>
+      <c r="BD49" s="14"/>
+      <c r="BE49" s="14"/>
+      <c r="BF49" s="14"/>
+      <c r="BG49" s="14"/>
+      <c r="BH49" s="14"/>
+      <c r="BI49" s="14"/>
+      <c r="BJ49" s="14"/>
+      <c r="BK49" s="14"/>
+      <c r="BL49" s="14"/>
+      <c r="BM49" s="14"/>
+      <c r="BQ49" s="14"/>
+      <c r="XB49" s="13"/>
+      <c r="XC49" s="13"/>
+      <c r="XD49" s="13"/>
+      <c r="XE49" s="13"/>
+      <c r="XF49" s="13"/>
+      <c r="XG49" s="13"/>
+      <c r="XH49" s="13"/>
+      <c r="XI49" s="13"/>
+      <c r="XJ49" s="13"/>
+      <c r="XK49" s="13"/>
+      <c r="XL49" s="13"/>
+      <c r="XM49" s="13"/>
+      <c r="XN49" s="13"/>
+      <c r="XO49" s="13"/>
+      <c r="XP49" s="13"/>
+      <c r="XQ49" s="13"/>
+      <c r="XR49" s="13"/>
+      <c r="XS49" s="13"/>
+      <c r="XT49" s="13"/>
+      <c r="XU49" s="13"/>
+      <c r="XV49" s="13"/>
+      <c r="XW49" s="13"/>
+      <c r="XX49" s="13"/>
+      <c r="XY49" s="13"/>
+      <c r="XZ49" s="13"/>
+      <c r="YA49" s="13"/>
+      <c r="YB49" s="13"/>
+      <c r="YC49" s="13"/>
+      <c r="YD49" s="13"/>
+      <c r="YE49" s="13"/>
+      <c r="YF49" s="13"/>
+      <c r="YG49" s="13"/>
+      <c r="YH49" s="13"/>
+      <c r="YI49" s="13"/>
+      <c r="YJ49" s="13"/>
+      <c r="YK49" s="13"/>
+      <c r="YL49" s="13"/>
+      <c r="YM49" s="13"/>
+      <c r="YN49" s="13"/>
+      <c r="YO49" s="13"/>
+      <c r="YP49" s="13"/>
+      <c r="YQ49" s="13"/>
+      <c r="YR49" s="13"/>
+      <c r="YS49" s="13"/>
+      <c r="YT49" s="13"/>
+      <c r="YU49" s="13"/>
+      <c r="YV49" s="13"/>
+      <c r="YW49" s="13"/>
+      <c r="YX49" s="13"/>
+      <c r="YY49" s="13"/>
+      <c r="YZ49" s="13"/>
+      <c r="ZA49" s="13"/>
+      <c r="ZB49" s="13"/>
+      <c r="ZC49" s="13"/>
+      <c r="ZD49" s="13"/>
+      <c r="ZE49" s="13"/>
+      <c r="ZF49" s="13"/>
+      <c r="ZG49" s="13"/>
+      <c r="ZH49" s="13"/>
+      <c r="ZI49" s="13"/>
+      <c r="ZJ49" s="13"/>
+      <c r="ZK49" s="13"/>
+      <c r="ZL49" s="13"/>
+      <c r="ZM49" s="13"/>
+      <c r="ZN49" s="13"/>
+      <c r="ZO49" s="13"/>
+      <c r="ZP49" s="13"/>
+      <c r="ZR49" s="13"/>
+      <c r="ZS49" s="13"/>
+      <c r="ZT49" s="13"/>
+      <c r="ZU49" s="13"/>
+      <c r="ZV49" s="13"/>
+      <c r="ZW49" s="13"/>
+      <c r="ZX49" s="13"/>
+      <c r="ZY49" s="13"/>
+      <c r="ZZ49" s="13"/>
+      <c r="AAA49" s="13"/>
+      <c r="AAB49" s="13"/>
+      <c r="AAC49" s="13"/>
+      <c r="AAD49" s="13"/>
+      <c r="AAE49" s="13"/>
+      <c r="AAF49" s="13"/>
+      <c r="AAG49" s="13"/>
+      <c r="AAH49" s="13"/>
+      <c r="AAI49" s="13"/>
+      <c r="AAJ49" s="13"/>
+      <c r="AAK49" s="13"/>
+      <c r="AAL49" s="13"/>
+      <c r="AAM49" s="13"/>
+      <c r="AAN49" s="13"/>
+      <c r="AAO49" s="13"/>
+      <c r="AAP49" s="13"/>
+      <c r="AAQ49" s="13"/>
+      <c r="AAR49" s="13"/>
+      <c r="AAS49" s="13"/>
+      <c r="AAT49" s="13"/>
+      <c r="AAU49" s="13"/>
+      <c r="AAV49" s="13"/>
+      <c r="AAW49" s="13"/>
+      <c r="AAX49" s="13"/>
+      <c r="ABD49" s="13"/>
+      <c r="ABE49" s="13"/>
+      <c r="ABF49" s="13"/>
+      <c r="ABG49" s="13"/>
+      <c r="ABH49" s="13"/>
+      <c r="ABI49" s="13"/>
+      <c r="ABJ49" s="13"/>
+      <c r="ABK49" s="13"/>
+      <c r="ABL49" s="13"/>
+      <c r="ABM49" s="13"/>
+      <c r="ABN49" s="13"/>
+      <c r="ABO49" s="13"/>
+      <c r="ABP49" s="13"/>
+      <c r="ABQ49" s="13"/>
+      <c r="ABR49" s="13"/>
+      <c r="ABS49" s="13"/>
+      <c r="ABT49" s="13"/>
+      <c r="ABU49" s="13"/>
+      <c r="ABV49" s="13"/>
+      <c r="ABW49" s="13"/>
+      <c r="ABX49" s="13"/>
+      <c r="ABY49" s="13"/>
+      <c r="ABZ49" s="13"/>
+      <c r="ACA49" s="13"/>
+      <c r="ACB49" s="13"/>
+      <c r="ACC49" s="13"/>
+      <c r="ACD49" s="13"/>
+      <c r="ACE49" s="13"/>
+      <c r="ACF49" s="13"/>
+      <c r="ACG49" s="13"/>
+      <c r="ACH49" s="13"/>
+      <c r="ACI49" s="13"/>
+      <c r="ACJ49" s="13"/>
+      <c r="ACK49" s="13"/>
+      <c r="ACL49" s="13"/>
+      <c r="ACM49" s="13"/>
+      <c r="ACN49" s="13"/>
+      <c r="ACO49" s="13"/>
+      <c r="ACP49" s="13"/>
+      <c r="ACQ49" s="13"/>
+      <c r="ACR49" s="13"/>
+      <c r="ACS49" s="13"/>
+      <c r="ACT49" s="13"/>
+      <c r="ACU49" s="13"/>
+      <c r="ACV49" s="13"/>
+      <c r="ACW49" s="13"/>
+      <c r="ACX49" s="13"/>
+      <c r="ACY49" s="13"/>
+      <c r="ACZ49" s="13"/>
+      <c r="ADA49" s="13"/>
+      <c r="ADB49" s="13"/>
+      <c r="ADC49" s="13"/>
+      <c r="ADD49" s="13"/>
+      <c r="ADE49" s="13"/>
+      <c r="ADF49" s="13"/>
+      <c r="ADG49" s="13"/>
+      <c r="ADH49" s="13"/>
+      <c r="ADI49" s="13"/>
+      <c r="ADJ49" s="13"/>
+      <c r="ADK49" s="13"/>
+      <c r="ADL49" s="13"/>
+      <c r="ADM49" s="13"/>
+      <c r="ADN49" s="13"/>
+      <c r="ADO49" s="13"/>
+      <c r="ADP49" s="13"/>
+      <c r="ADQ49" s="13"/>
+      <c r="ADU49" s="13"/>
+    </row>
+    <row r="50" spans="1:801">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="14"/>
+      <c r="AD50" s="14"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="14"/>
+      <c r="AH50" s="14"/>
+      <c r="AI50" s="14"/>
+      <c r="AJ50" s="14"/>
+      <c r="AK50" s="14"/>
+      <c r="AL50" s="14"/>
+      <c r="AM50" s="14"/>
+      <c r="AN50" s="14"/>
+      <c r="AO50" s="14"/>
+      <c r="AP50" s="14"/>
+      <c r="AQ50" s="14"/>
+      <c r="AR50" s="14"/>
+      <c r="AS50" s="14"/>
+      <c r="AT50" s="14"/>
+      <c r="AU50" s="14"/>
+      <c r="AV50" s="14"/>
+      <c r="AW50" s="14"/>
+      <c r="AX50" s="14"/>
+      <c r="AY50" s="14"/>
+      <c r="AZ50" s="14"/>
+      <c r="BA50" s="14"/>
+      <c r="BB50" s="14"/>
+      <c r="BC50" s="14"/>
+      <c r="BD50" s="14"/>
+      <c r="BE50" s="14"/>
+      <c r="BF50" s="14"/>
+      <c r="BG50" s="14"/>
+      <c r="BH50" s="14"/>
+      <c r="BI50" s="14"/>
+      <c r="BJ50" s="14"/>
+      <c r="BK50" s="14"/>
+      <c r="BL50" s="14"/>
+      <c r="BM50" s="14"/>
+      <c r="BQ50" s="14"/>
+      <c r="XB50" s="13"/>
+      <c r="XC50" s="13"/>
+      <c r="XD50" s="13"/>
+      <c r="XE50" s="13"/>
+      <c r="XF50" s="13"/>
+      <c r="XG50" s="13"/>
+      <c r="XH50" s="13"/>
+      <c r="XI50" s="13"/>
+      <c r="XJ50" s="13"/>
+      <c r="XK50" s="13"/>
+      <c r="XL50" s="13"/>
+      <c r="XM50" s="13"/>
+      <c r="XN50" s="13"/>
+      <c r="XO50" s="13"/>
+      <c r="XP50" s="13"/>
+      <c r="XQ50" s="13"/>
+      <c r="XR50" s="13"/>
+      <c r="XS50" s="13"/>
+      <c r="XT50" s="13"/>
+      <c r="XU50" s="13"/>
+      <c r="XV50" s="13"/>
+      <c r="XW50" s="13"/>
+      <c r="XX50" s="13"/>
+      <c r="XY50" s="13"/>
+      <c r="XZ50" s="13"/>
+      <c r="YA50" s="13"/>
+      <c r="YB50" s="13"/>
+      <c r="YC50" s="13"/>
+      <c r="YD50" s="13"/>
+      <c r="YE50" s="13"/>
+      <c r="YF50" s="13"/>
+      <c r="YG50" s="13"/>
+      <c r="YH50" s="13"/>
+      <c r="YI50" s="13"/>
+      <c r="YJ50" s="13"/>
+      <c r="YK50" s="13"/>
+      <c r="YL50" s="13"/>
+      <c r="YM50" s="13"/>
+      <c r="YN50" s="13"/>
+      <c r="YO50" s="13"/>
+      <c r="YP50" s="13"/>
+      <c r="YQ50" s="13"/>
+      <c r="YR50" s="13"/>
+      <c r="YS50" s="13"/>
+      <c r="YT50" s="13"/>
+      <c r="YU50" s="13"/>
+      <c r="YV50" s="13"/>
+      <c r="YW50" s="13"/>
+      <c r="YX50" s="13"/>
+      <c r="YY50" s="13"/>
+      <c r="YZ50" s="13"/>
+      <c r="ZA50" s="13"/>
+      <c r="ZB50" s="13"/>
+      <c r="ZC50" s="13"/>
+      <c r="ZD50" s="13"/>
+      <c r="ZE50" s="13"/>
+      <c r="ZF50" s="13"/>
+      <c r="ZG50" s="13"/>
+      <c r="ZH50" s="13"/>
+      <c r="ZI50" s="13"/>
+      <c r="ZJ50" s="13"/>
+      <c r="ZK50" s="13"/>
+      <c r="ZL50" s="13"/>
+      <c r="ZM50" s="13"/>
+      <c r="ZN50" s="13"/>
+      <c r="ZO50" s="13"/>
+      <c r="ZP50" s="13"/>
+      <c r="ZR50" s="13"/>
+      <c r="ZS50" s="13"/>
+      <c r="ZT50" s="13"/>
+      <c r="ZU50" s="13"/>
+      <c r="ZV50" s="13"/>
+      <c r="ZW50" s="13"/>
+      <c r="ZX50" s="13"/>
+      <c r="ZY50" s="13"/>
+      <c r="ZZ50" s="13"/>
+      <c r="AAA50" s="13"/>
+      <c r="AAB50" s="13"/>
+      <c r="AAC50" s="13"/>
+      <c r="AAD50" s="13"/>
+      <c r="AAE50" s="13"/>
+      <c r="AAF50" s="13"/>
+      <c r="AAG50" s="13"/>
+      <c r="AAH50" s="13"/>
+      <c r="AAI50" s="13"/>
+      <c r="AAJ50" s="13"/>
+      <c r="AAK50" s="13"/>
+      <c r="AAL50" s="13"/>
+      <c r="AAM50" s="13"/>
+      <c r="AAN50" s="13"/>
+      <c r="AAO50" s="13"/>
+      <c r="AAP50" s="13"/>
+      <c r="AAQ50" s="13"/>
+      <c r="AAR50" s="13"/>
+      <c r="AAS50" s="13"/>
+      <c r="AAT50" s="13"/>
+      <c r="AAU50" s="13"/>
+      <c r="AAV50" s="13"/>
+      <c r="AAW50" s="13"/>
+      <c r="AAX50" s="13"/>
+      <c r="ABD50" s="13"/>
+      <c r="ABE50" s="13"/>
+      <c r="ABF50" s="13"/>
+      <c r="ABG50" s="13"/>
+      <c r="ABH50" s="13"/>
+      <c r="ABI50" s="13"/>
+      <c r="ABJ50" s="13"/>
+      <c r="ABK50" s="13"/>
+      <c r="ABL50" s="13"/>
+      <c r="ABM50" s="13"/>
+      <c r="ABN50" s="13"/>
+      <c r="ABO50" s="13"/>
+      <c r="ABP50" s="13"/>
+      <c r="ABQ50" s="13"/>
+      <c r="ABR50" s="13"/>
+      <c r="ABS50" s="13"/>
+      <c r="ABT50" s="13"/>
+      <c r="ABU50" s="13"/>
+      <c r="ABV50" s="13"/>
+      <c r="ABW50" s="13"/>
+      <c r="ABX50" s="13"/>
+      <c r="ABY50" s="13"/>
+      <c r="ABZ50" s="13"/>
+      <c r="ACA50" s="13"/>
+      <c r="ACB50" s="13"/>
+      <c r="ACC50" s="13"/>
+      <c r="ACD50" s="13"/>
+      <c r="ACE50" s="13"/>
+      <c r="ACF50" s="13"/>
+      <c r="ACG50" s="13"/>
+      <c r="ACH50" s="13"/>
+      <c r="ACI50" s="13"/>
+      <c r="ACJ50" s="13"/>
+      <c r="ACK50" s="13"/>
+      <c r="ACL50" s="13"/>
+      <c r="ACM50" s="13"/>
+      <c r="ACN50" s="13"/>
+      <c r="ACO50" s="13"/>
+      <c r="ACP50" s="13"/>
+      <c r="ACQ50" s="13"/>
+      <c r="ACR50" s="13"/>
+      <c r="ACS50" s="13"/>
+      <c r="ACT50" s="13"/>
+      <c r="ACU50" s="13"/>
+      <c r="ACV50" s="13"/>
+      <c r="ACW50" s="13"/>
+      <c r="ACX50" s="13"/>
+      <c r="ACY50" s="13"/>
+      <c r="ACZ50" s="13"/>
+      <c r="ADA50" s="13"/>
+      <c r="ADB50" s="13"/>
+      <c r="ADC50" s="13"/>
+      <c r="ADD50" s="13"/>
+      <c r="ADE50" s="13"/>
+      <c r="ADF50" s="13"/>
+      <c r="ADG50" s="13"/>
+      <c r="ADH50" s="13"/>
+      <c r="ADI50" s="13"/>
+      <c r="ADJ50" s="13"/>
+      <c r="ADK50" s="13"/>
+      <c r="ADL50" s="13"/>
+      <c r="ADM50" s="13"/>
+      <c r="ADN50" s="13"/>
+      <c r="ADO50" s="13"/>
+      <c r="ADP50" s="13"/>
+      <c r="ADQ50" s="13"/>
+      <c r="ADU50" s="13"/>
+    </row>
+    <row r="51" spans="1:801">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="14"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="14"/>
+      <c r="AH51" s="14"/>
+      <c r="AI51" s="14"/>
+      <c r="AJ51" s="14"/>
+      <c r="AK51" s="14"/>
+      <c r="AL51" s="14"/>
+      <c r="AM51" s="14"/>
+      <c r="AN51" s="14"/>
+      <c r="AO51" s="14"/>
+      <c r="AP51" s="14"/>
+      <c r="AQ51" s="14"/>
+      <c r="AR51" s="14"/>
+      <c r="AS51" s="14"/>
+      <c r="AT51" s="14"/>
+      <c r="AU51" s="14"/>
+      <c r="AV51" s="14"/>
+      <c r="AW51" s="14"/>
+      <c r="AX51" s="14"/>
+      <c r="AY51" s="14"/>
+      <c r="AZ51" s="14"/>
+      <c r="BA51" s="14"/>
+      <c r="BB51" s="14"/>
+      <c r="BC51" s="14"/>
+      <c r="BD51" s="14"/>
+      <c r="BE51" s="14"/>
+      <c r="BF51" s="14"/>
+      <c r="BG51" s="14"/>
+      <c r="BH51" s="14"/>
+      <c r="BI51" s="14"/>
+      <c r="BJ51" s="14"/>
+      <c r="BK51" s="14"/>
+      <c r="BL51" s="14"/>
+      <c r="BM51" s="14"/>
+      <c r="BQ51" s="14"/>
+      <c r="XB51" s="13"/>
+      <c r="XC51" s="13"/>
+      <c r="XD51" s="13"/>
+      <c r="XE51" s="13"/>
+      <c r="XF51" s="13"/>
+      <c r="XG51" s="13"/>
+      <c r="XH51" s="13"/>
+      <c r="XI51" s="13"/>
+      <c r="XJ51" s="13"/>
+      <c r="XK51" s="13"/>
+      <c r="XL51" s="13"/>
+      <c r="XM51" s="13"/>
+      <c r="XN51" s="13"/>
+      <c r="XO51" s="13"/>
+      <c r="XP51" s="13"/>
+      <c r="XQ51" s="13"/>
+      <c r="XR51" s="13"/>
+      <c r="XS51" s="13"/>
+      <c r="XT51" s="13"/>
+      <c r="XU51" s="13"/>
+      <c r="XV51" s="13"/>
+      <c r="XW51" s="13"/>
+      <c r="XX51" s="13"/>
+      <c r="XY51" s="13"/>
+      <c r="XZ51" s="13"/>
+      <c r="YA51" s="13"/>
+      <c r="YB51" s="13"/>
+      <c r="YC51" s="13"/>
+      <c r="YD51" s="13"/>
+      <c r="YE51" s="13"/>
+      <c r="YF51" s="13"/>
+      <c r="YG51" s="13"/>
+      <c r="YH51" s="13"/>
+      <c r="YI51" s="13"/>
+      <c r="YJ51" s="13"/>
+      <c r="YK51" s="13"/>
+      <c r="YL51" s="13"/>
+      <c r="YM51" s="13"/>
+      <c r="YN51" s="13"/>
+      <c r="YO51" s="13"/>
+      <c r="YP51" s="13"/>
+      <c r="YQ51" s="13"/>
+      <c r="YR51" s="13"/>
+      <c r="YS51" s="13"/>
+      <c r="YT51" s="13"/>
+      <c r="YU51" s="13"/>
+      <c r="YV51" s="13"/>
+      <c r="YW51" s="13"/>
+      <c r="YX51" s="13"/>
+      <c r="YY51" s="13"/>
+      <c r="YZ51" s="13"/>
+      <c r="ZA51" s="13"/>
+      <c r="ZB51" s="13"/>
+      <c r="ZC51" s="13"/>
+      <c r="ZD51" s="13"/>
+      <c r="ZE51" s="13"/>
+      <c r="ZF51" s="13"/>
+      <c r="ZG51" s="13"/>
+      <c r="ZH51" s="13"/>
+      <c r="ZI51" s="13"/>
+      <c r="ZJ51" s="13"/>
+      <c r="ZK51" s="13"/>
+      <c r="ZL51" s="13"/>
+      <c r="ZM51" s="13"/>
+      <c r="ZN51" s="13"/>
+      <c r="ZO51" s="13"/>
+      <c r="ZP51" s="13"/>
+      <c r="ZR51" s="13"/>
+      <c r="ZS51" s="13"/>
+      <c r="ZT51" s="13"/>
+      <c r="ZU51" s="13"/>
+      <c r="ZV51" s="13"/>
+      <c r="ZW51" s="13"/>
+      <c r="ZX51" s="13"/>
+      <c r="ZY51" s="13"/>
+      <c r="ZZ51" s="13"/>
+      <c r="AAA51" s="13"/>
+      <c r="AAB51" s="13"/>
+      <c r="AAC51" s="13"/>
+      <c r="AAD51" s="13"/>
+      <c r="AAE51" s="13"/>
+      <c r="AAF51" s="13"/>
+      <c r="AAG51" s="13"/>
+      <c r="AAH51" s="13"/>
+      <c r="AAI51" s="13"/>
+      <c r="AAJ51" s="13"/>
+      <c r="AAK51" s="13"/>
+      <c r="AAL51" s="13"/>
+      <c r="AAM51" s="13"/>
+      <c r="AAN51" s="13"/>
+      <c r="AAO51" s="13"/>
+      <c r="AAP51" s="13"/>
+      <c r="AAQ51" s="13"/>
+      <c r="AAR51" s="13"/>
+      <c r="AAS51" s="13"/>
+      <c r="AAT51" s="13"/>
+      <c r="AAU51" s="13"/>
+      <c r="AAV51" s="13"/>
+      <c r="AAW51" s="13"/>
+      <c r="AAX51" s="13"/>
+      <c r="ABD51" s="13"/>
+      <c r="ABE51" s="13"/>
+      <c r="ABF51" s="13"/>
+      <c r="ABG51" s="13"/>
+      <c r="ABH51" s="13"/>
+      <c r="ABI51" s="13"/>
+      <c r="ABJ51" s="13"/>
+      <c r="ABK51" s="13"/>
+      <c r="ABL51" s="13"/>
+      <c r="ABM51" s="13"/>
+      <c r="ABN51" s="13"/>
+      <c r="ABO51" s="13"/>
+      <c r="ABP51" s="13"/>
+      <c r="ABQ51" s="13"/>
+      <c r="ABR51" s="13"/>
+      <c r="ABS51" s="13"/>
+      <c r="ABT51" s="13"/>
+      <c r="ABU51" s="13"/>
+      <c r="ABV51" s="13"/>
+      <c r="ABW51" s="13"/>
+      <c r="ABX51" s="13"/>
+      <c r="ABY51" s="13"/>
+      <c r="ABZ51" s="13"/>
+      <c r="ACA51" s="13"/>
+      <c r="ACB51" s="13"/>
+      <c r="ACC51" s="13"/>
+      <c r="ACD51" s="13"/>
+      <c r="ACE51" s="13"/>
+      <c r="ACF51" s="13"/>
+      <c r="ACG51" s="13"/>
+      <c r="ACH51" s="13"/>
+      <c r="ACI51" s="13"/>
+      <c r="ACJ51" s="13"/>
+      <c r="ACK51" s="13"/>
+      <c r="ACL51" s="13"/>
+      <c r="ACM51" s="13"/>
+      <c r="ACN51" s="13"/>
+      <c r="ACO51" s="13"/>
+      <c r="ACP51" s="13"/>
+      <c r="ACQ51" s="13"/>
+      <c r="ACR51" s="13"/>
+      <c r="ACS51" s="13"/>
+      <c r="ACT51" s="13"/>
+      <c r="ACU51" s="13"/>
+      <c r="ACV51" s="13"/>
+      <c r="ACW51" s="13"/>
+      <c r="ACX51" s="13"/>
+      <c r="ACY51" s="13"/>
+      <c r="ACZ51" s="13"/>
+      <c r="ADA51" s="13"/>
+      <c r="ADB51" s="13"/>
+      <c r="ADC51" s="13"/>
+      <c r="ADD51" s="13"/>
+      <c r="ADE51" s="13"/>
+      <c r="ADF51" s="13"/>
+      <c r="ADG51" s="13"/>
+      <c r="ADH51" s="13"/>
+      <c r="ADI51" s="13"/>
+      <c r="ADJ51" s="13"/>
+      <c r="ADK51" s="13"/>
+      <c r="ADL51" s="13"/>
+      <c r="ADM51" s="13"/>
+      <c r="ADN51" s="13"/>
+      <c r="ADO51" s="13"/>
+      <c r="ADP51" s="13"/>
+      <c r="ADQ51" s="13"/>
+      <c r="ADU51" s="13"/>
+    </row>
+    <row r="52" spans="1:801">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+      <c r="X52" s="14"/>
+      <c r="Y52" s="14"/>
+      <c r="Z52" s="14"/>
+      <c r="AA52" s="14"/>
+      <c r="AB52" s="14"/>
+      <c r="AC52" s="14"/>
+      <c r="AD52" s="14"/>
+      <c r="AE52" s="14"/>
+      <c r="AF52" s="14"/>
+      <c r="AG52" s="14"/>
+      <c r="AH52" s="14"/>
+      <c r="AI52" s="14"/>
+      <c r="AJ52" s="14"/>
+      <c r="AK52" s="14"/>
+      <c r="AL52" s="14"/>
+      <c r="AM52" s="14"/>
+      <c r="AN52" s="14"/>
+      <c r="AO52" s="14"/>
+      <c r="AP52" s="14"/>
+      <c r="AQ52" s="14"/>
+      <c r="AR52" s="14"/>
+      <c r="AS52" s="14"/>
+      <c r="AT52" s="14"/>
+      <c r="AU52" s="14"/>
+      <c r="AV52" s="14"/>
+      <c r="AW52" s="14"/>
+      <c r="AX52" s="14"/>
+      <c r="AY52" s="14"/>
+      <c r="AZ52" s="14"/>
+      <c r="BA52" s="14"/>
+      <c r="BB52" s="14"/>
+      <c r="BC52" s="14"/>
+      <c r="BD52" s="14"/>
+      <c r="BE52" s="14"/>
+      <c r="BF52" s="14"/>
+      <c r="BG52" s="14"/>
+      <c r="BH52" s="14"/>
+      <c r="BI52" s="14"/>
+      <c r="BJ52" s="14"/>
+      <c r="BK52" s="14"/>
+      <c r="BL52" s="14"/>
+      <c r="BM52" s="14"/>
+      <c r="BQ52" s="14"/>
+      <c r="XB52" s="13"/>
+      <c r="XC52" s="13"/>
+      <c r="XD52" s="13"/>
+      <c r="XE52" s="13"/>
+      <c r="XF52" s="13"/>
+      <c r="XG52" s="13"/>
+      <c r="XH52" s="13"/>
+      <c r="XI52" s="13"/>
+      <c r="XJ52" s="13"/>
+      <c r="XK52" s="13"/>
+      <c r="XL52" s="13"/>
+      <c r="XM52" s="13"/>
+      <c r="XN52" s="13"/>
+      <c r="XO52" s="13"/>
+      <c r="XP52" s="13"/>
+      <c r="XQ52" s="13"/>
+      <c r="XR52" s="13"/>
+      <c r="XS52" s="13"/>
+      <c r="XT52" s="13"/>
+      <c r="XU52" s="13"/>
+      <c r="XV52" s="13"/>
+      <c r="XW52" s="13"/>
+      <c r="XX52" s="13"/>
+      <c r="XY52" s="13"/>
+      <c r="XZ52" s="13"/>
+      <c r="YA52" s="13"/>
+      <c r="YB52" s="13"/>
+      <c r="YC52" s="13"/>
+      <c r="YD52" s="13"/>
+      <c r="YE52" s="13"/>
+      <c r="YF52" s="13"/>
+      <c r="YG52" s="13"/>
+      <c r="YH52" s="13"/>
+      <c r="YI52" s="13"/>
+      <c r="YJ52" s="13"/>
+      <c r="YK52" s="13"/>
+      <c r="YL52" s="13"/>
+      <c r="YM52" s="13"/>
+      <c r="YN52" s="13"/>
+      <c r="YO52" s="13"/>
+      <c r="YP52" s="13"/>
+      <c r="YQ52" s="13"/>
+      <c r="YR52" s="13"/>
+      <c r="YS52" s="13"/>
+      <c r="YT52" s="13"/>
+      <c r="YU52" s="13"/>
+      <c r="YV52" s="13"/>
+      <c r="YW52" s="13"/>
+      <c r="YX52" s="13"/>
+      <c r="YY52" s="13"/>
+      <c r="YZ52" s="13"/>
+      <c r="ZA52" s="13"/>
+      <c r="ZB52" s="13"/>
+      <c r="ZC52" s="13"/>
+      <c r="ZD52" s="13"/>
+      <c r="ZE52" s="13"/>
+      <c r="ZF52" s="13"/>
+      <c r="ZG52" s="13"/>
+      <c r="ZH52" s="13"/>
+      <c r="ZI52" s="13"/>
+      <c r="ZJ52" s="13"/>
+      <c r="ZK52" s="13"/>
+      <c r="ZL52" s="13"/>
+      <c r="ZM52" s="13"/>
+      <c r="ZN52" s="13"/>
+      <c r="ZO52" s="13"/>
+      <c r="ZP52" s="13"/>
+      <c r="ZR52" s="13"/>
+      <c r="ZS52" s="13"/>
+      <c r="ZT52" s="13"/>
+      <c r="ZU52" s="13"/>
+      <c r="ZV52" s="13"/>
+      <c r="ZW52" s="13"/>
+      <c r="ZX52" s="13"/>
+      <c r="ZY52" s="13"/>
+      <c r="ZZ52" s="13"/>
+      <c r="AAA52" s="13"/>
+      <c r="AAB52" s="13"/>
+      <c r="AAC52" s="13"/>
+      <c r="AAD52" s="13"/>
+      <c r="AAE52" s="13"/>
+      <c r="AAF52" s="13"/>
+      <c r="AAG52" s="13"/>
+      <c r="AAH52" s="13"/>
+      <c r="AAI52" s="13"/>
+      <c r="AAJ52" s="13"/>
+      <c r="AAK52" s="13"/>
+      <c r="AAL52" s="13"/>
+      <c r="AAM52" s="13"/>
+      <c r="AAN52" s="13"/>
+      <c r="AAO52" s="13"/>
+      <c r="AAP52" s="13"/>
+      <c r="AAQ52" s="13"/>
+      <c r="AAR52" s="13"/>
+      <c r="AAS52" s="13"/>
+      <c r="AAT52" s="13"/>
+      <c r="AAU52" s="13"/>
+      <c r="AAV52" s="13"/>
+      <c r="AAW52" s="13"/>
+      <c r="AAX52" s="13"/>
+      <c r="ABD52" s="13"/>
+      <c r="ABE52" s="13"/>
+      <c r="ABF52" s="13"/>
+      <c r="ABG52" s="13"/>
+      <c r="ABH52" s="13"/>
+      <c r="ABI52" s="13"/>
+      <c r="ABJ52" s="13"/>
+      <c r="ABK52" s="13"/>
+      <c r="ABL52" s="13"/>
+      <c r="ABM52" s="13"/>
+      <c r="ABN52" s="13"/>
+      <c r="ABO52" s="13"/>
+      <c r="ABP52" s="13"/>
+      <c r="ABQ52" s="13"/>
+      <c r="ABR52" s="13"/>
+      <c r="ABS52" s="13"/>
+      <c r="ABT52" s="13"/>
+      <c r="ABU52" s="13"/>
+      <c r="ABV52" s="13"/>
+      <c r="ABW52" s="13"/>
+      <c r="ABX52" s="13"/>
+      <c r="ABY52" s="13"/>
+      <c r="ABZ52" s="13"/>
+      <c r="ACA52" s="13"/>
+      <c r="ACB52" s="13"/>
+      <c r="ACC52" s="13"/>
+      <c r="ACD52" s="13"/>
+      <c r="ACE52" s="13"/>
+      <c r="ACF52" s="13"/>
+      <c r="ACG52" s="13"/>
+      <c r="ACH52" s="13"/>
+      <c r="ACI52" s="13"/>
+      <c r="ACJ52" s="13"/>
+      <c r="ACK52" s="13"/>
+      <c r="ACL52" s="13"/>
+      <c r="ACM52" s="13"/>
+      <c r="ACN52" s="13"/>
+      <c r="ACO52" s="13"/>
+      <c r="ACP52" s="13"/>
+      <c r="ACQ52" s="13"/>
+      <c r="ACR52" s="13"/>
+      <c r="ACS52" s="13"/>
+      <c r="ACT52" s="13"/>
+      <c r="ACU52" s="13"/>
+      <c r="ACV52" s="13"/>
+      <c r="ACW52" s="13"/>
+      <c r="ACX52" s="13"/>
+      <c r="ACY52" s="13"/>
+      <c r="ACZ52" s="13"/>
+      <c r="ADA52" s="13"/>
+      <c r="ADB52" s="13"/>
+      <c r="ADC52" s="13"/>
+      <c r="ADD52" s="13"/>
+      <c r="ADE52" s="13"/>
+      <c r="ADF52" s="13"/>
+      <c r="ADG52" s="13"/>
+      <c r="ADH52" s="13"/>
+      <c r="ADI52" s="13"/>
+      <c r="ADJ52" s="13"/>
+      <c r="ADK52" s="13"/>
+      <c r="ADL52" s="13"/>
+      <c r="ADM52" s="13"/>
+      <c r="ADN52" s="13"/>
+      <c r="ADO52" s="13"/>
+      <c r="ADP52" s="13"/>
+      <c r="ADQ52" s="13"/>
+      <c r="ADU52" s="13"/>
+    </row>
+    <row r="53" spans="1:801">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
+      <c r="Z53" s="14"/>
+      <c r="AA53" s="14"/>
+      <c r="AB53" s="14"/>
+      <c r="AC53" s="14"/>
+      <c r="AD53" s="14"/>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="14"/>
+      <c r="AH53" s="14"/>
+      <c r="AI53" s="14"/>
+      <c r="AJ53" s="14"/>
+      <c r="AK53" s="14"/>
+      <c r="AL53" s="14"/>
+      <c r="AM53" s="14"/>
+      <c r="AN53" s="14"/>
+      <c r="AO53" s="14"/>
+      <c r="AP53" s="14"/>
+      <c r="AQ53" s="14"/>
+      <c r="AR53" s="14"/>
+      <c r="AS53" s="14"/>
+      <c r="AT53" s="14"/>
+      <c r="AU53" s="14"/>
+      <c r="AV53" s="14"/>
+      <c r="AW53" s="14"/>
+      <c r="AX53" s="14"/>
+      <c r="AY53" s="14"/>
+      <c r="AZ53" s="14"/>
+      <c r="BA53" s="14"/>
+      <c r="BB53" s="14"/>
+      <c r="BC53" s="14"/>
+      <c r="BD53" s="14"/>
+      <c r="BE53" s="14"/>
+      <c r="BF53" s="14"/>
+      <c r="BG53" s="14"/>
+      <c r="BH53" s="14"/>
+      <c r="BI53" s="14"/>
+      <c r="BJ53" s="14"/>
+      <c r="BK53" s="14"/>
+      <c r="BL53" s="14"/>
+      <c r="BM53" s="14"/>
+      <c r="BQ53" s="14"/>
+      <c r="XB53" s="13"/>
+      <c r="XC53" s="13"/>
+      <c r="XD53" s="13"/>
+      <c r="XE53" s="13"/>
+      <c r="XF53" s="13"/>
+      <c r="XG53" s="13"/>
+      <c r="XH53" s="13"/>
+      <c r="XI53" s="13"/>
+      <c r="XJ53" s="13"/>
+      <c r="XK53" s="13"/>
+      <c r="XL53" s="13"/>
+      <c r="XM53" s="13"/>
+      <c r="XN53" s="13"/>
+      <c r="XO53" s="13"/>
+      <c r="XP53" s="13"/>
+      <c r="XQ53" s="13"/>
+      <c r="XR53" s="13"/>
+      <c r="XS53" s="13"/>
+      <c r="XT53" s="13"/>
+      <c r="XU53" s="13"/>
+      <c r="XV53" s="13"/>
+      <c r="XW53" s="13"/>
+      <c r="XX53" s="13"/>
+      <c r="XY53" s="13"/>
+      <c r="XZ53" s="13"/>
+      <c r="YA53" s="13"/>
+      <c r="YB53" s="13"/>
+      <c r="YC53" s="13"/>
+      <c r="YD53" s="13"/>
+      <c r="YE53" s="13"/>
+      <c r="YF53" s="13"/>
+      <c r="YG53" s="13"/>
+      <c r="YH53" s="13"/>
+      <c r="YI53" s="13"/>
+      <c r="YJ53" s="13"/>
+      <c r="YK53" s="13"/>
+      <c r="YL53" s="13"/>
+      <c r="YM53" s="13"/>
+      <c r="YN53" s="13"/>
+      <c r="YO53" s="13"/>
+      <c r="YP53" s="13"/>
+      <c r="YQ53" s="13"/>
+      <c r="YR53" s="13"/>
+      <c r="YS53" s="13"/>
+      <c r="YT53" s="13"/>
+      <c r="YU53" s="13"/>
+      <c r="YV53" s="13"/>
+      <c r="YW53" s="13"/>
+      <c r="YX53" s="13"/>
+      <c r="YY53" s="13"/>
+      <c r="YZ53" s="13"/>
+      <c r="ZA53" s="13"/>
+      <c r="ZB53" s="13"/>
+      <c r="ZC53" s="13"/>
+      <c r="ZD53" s="13"/>
+      <c r="ZE53" s="13"/>
+      <c r="ZF53" s="13"/>
+      <c r="ZG53" s="13"/>
+      <c r="ZH53" s="13"/>
+      <c r="ZI53" s="13"/>
+      <c r="ZJ53" s="13"/>
+      <c r="ZK53" s="13"/>
+      <c r="ZL53" s="13"/>
+      <c r="ZM53" s="13"/>
+      <c r="ZN53" s="13"/>
+      <c r="ZO53" s="13"/>
+      <c r="ZP53" s="13"/>
+      <c r="ZR53" s="13"/>
+      <c r="ZS53" s="13"/>
+      <c r="ZT53" s="13"/>
+      <c r="ZU53" s="13"/>
+      <c r="ZV53" s="13"/>
+      <c r="ZW53" s="13"/>
+      <c r="ZX53" s="13"/>
+      <c r="ZY53" s="13"/>
+      <c r="ZZ53" s="13"/>
+      <c r="AAA53" s="13"/>
+      <c r="AAB53" s="13"/>
+      <c r="AAC53" s="13"/>
+      <c r="AAD53" s="13"/>
+      <c r="AAE53" s="13"/>
+      <c r="AAF53" s="13"/>
+      <c r="AAG53" s="13"/>
+      <c r="AAH53" s="13"/>
+      <c r="AAI53" s="13"/>
+      <c r="AAJ53" s="13"/>
+      <c r="AAK53" s="13"/>
+      <c r="AAL53" s="13"/>
+      <c r="AAM53" s="13"/>
+      <c r="AAN53" s="13"/>
+      <c r="AAO53" s="13"/>
+      <c r="AAP53" s="13"/>
+      <c r="AAQ53" s="13"/>
+      <c r="AAR53" s="13"/>
+      <c r="AAS53" s="13"/>
+      <c r="AAT53" s="13"/>
+      <c r="AAU53" s="13"/>
+      <c r="AAV53" s="13"/>
+      <c r="AAW53" s="13"/>
+      <c r="AAX53" s="13"/>
+      <c r="ABD53" s="13"/>
+      <c r="ABE53" s="13"/>
+      <c r="ABF53" s="13"/>
+      <c r="ABG53" s="13"/>
+      <c r="ABH53" s="13"/>
+      <c r="ABI53" s="13"/>
+      <c r="ABJ53" s="13"/>
+      <c r="ABK53" s="13"/>
+      <c r="ABL53" s="13"/>
+      <c r="ABM53" s="13"/>
+      <c r="ABN53" s="13"/>
+      <c r="ABO53" s="13"/>
+      <c r="ABP53" s="13"/>
+      <c r="ABQ53" s="13"/>
+      <c r="ABR53" s="13"/>
+      <c r="ABS53" s="13"/>
+      <c r="ABT53" s="13"/>
+      <c r="ABU53" s="13"/>
+      <c r="ABV53" s="13"/>
+      <c r="ABW53" s="13"/>
+      <c r="ABX53" s="13"/>
+      <c r="ABY53" s="13"/>
+      <c r="ABZ53" s="13"/>
+      <c r="ACA53" s="13"/>
+      <c r="ACB53" s="13"/>
+      <c r="ACC53" s="13"/>
+      <c r="ACD53" s="13"/>
+      <c r="ACE53" s="13"/>
+      <c r="ACF53" s="13"/>
+      <c r="ACG53" s="13"/>
+      <c r="ACH53" s="13"/>
+      <c r="ACI53" s="13"/>
+      <c r="ACJ53" s="13"/>
+      <c r="ACK53" s="13"/>
+      <c r="ACL53" s="13"/>
+      <c r="ACM53" s="13"/>
+      <c r="ACN53" s="13"/>
+      <c r="ACO53" s="13"/>
+      <c r="ACP53" s="13"/>
+      <c r="ACQ53" s="13"/>
+      <c r="ACR53" s="13"/>
+      <c r="ACS53" s="13"/>
+      <c r="ACT53" s="13"/>
+      <c r="ACU53" s="13"/>
+      <c r="ACV53" s="13"/>
+      <c r="ACW53" s="13"/>
+      <c r="ACX53" s="13"/>
+      <c r="ACY53" s="13"/>
+      <c r="ACZ53" s="13"/>
+      <c r="ADA53" s="13"/>
+      <c r="ADB53" s="13"/>
+      <c r="ADC53" s="13"/>
+      <c r="ADD53" s="13"/>
+      <c r="ADE53" s="13"/>
+      <c r="ADF53" s="13"/>
+      <c r="ADG53" s="13"/>
+      <c r="ADH53" s="13"/>
+      <c r="ADI53" s="13"/>
+      <c r="ADJ53" s="13"/>
+      <c r="ADK53" s="13"/>
+      <c r="ADL53" s="13"/>
+      <c r="ADM53" s="13"/>
+      <c r="ADN53" s="13"/>
+      <c r="ADO53" s="13"/>
+      <c r="ADP53" s="13"/>
+      <c r="ADQ53" s="13"/>
+      <c r="ADU53" s="13"/>
+    </row>
+    <row r="54" spans="1:801">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="14"/>
+      <c r="Z54" s="14"/>
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="14"/>
+      <c r="AC54" s="14"/>
+      <c r="AD54" s="14"/>
+      <c r="AE54" s="14"/>
+      <c r="AF54" s="14"/>
+      <c r="AG54" s="14"/>
+      <c r="AH54" s="14"/>
+      <c r="AI54" s="14"/>
+      <c r="AJ54" s="14"/>
+      <c r="AK54" s="14"/>
+      <c r="AL54" s="14"/>
+      <c r="AM54" s="14"/>
+      <c r="AN54" s="14"/>
+      <c r="AO54" s="14"/>
+      <c r="AP54" s="14"/>
+      <c r="AQ54" s="14"/>
+      <c r="AR54" s="14"/>
+      <c r="AS54" s="14"/>
+      <c r="AT54" s="14"/>
+      <c r="AU54" s="14"/>
+      <c r="AV54" s="14"/>
+      <c r="AW54" s="14"/>
+      <c r="AX54" s="14"/>
+      <c r="AY54" s="14"/>
+      <c r="AZ54" s="14"/>
+      <c r="BA54" s="14"/>
+      <c r="BB54" s="14"/>
+      <c r="BC54" s="14"/>
+      <c r="BD54" s="14"/>
+      <c r="BE54" s="14"/>
+      <c r="BF54" s="14"/>
+      <c r="BG54" s="14"/>
+      <c r="BH54" s="14"/>
+      <c r="BI54" s="14"/>
+      <c r="BJ54" s="14"/>
+      <c r="BK54" s="14"/>
+      <c r="BL54" s="14"/>
+      <c r="BM54" s="14"/>
+      <c r="BQ54" s="14"/>
+      <c r="XB54" s="13"/>
+      <c r="XC54" s="13"/>
+      <c r="XD54" s="13"/>
+      <c r="XE54" s="13"/>
+      <c r="XF54" s="13"/>
+      <c r="XG54" s="13"/>
+      <c r="XH54" s="13"/>
+      <c r="XI54" s="13"/>
+      <c r="XJ54" s="13"/>
+      <c r="XK54" s="13"/>
+      <c r="XL54" s="13"/>
+      <c r="XM54" s="13"/>
+      <c r="XN54" s="13"/>
+      <c r="XO54" s="13"/>
+      <c r="XP54" s="13"/>
+      <c r="XQ54" s="13"/>
+      <c r="XR54" s="13"/>
+      <c r="XS54" s="13"/>
+      <c r="XT54" s="13"/>
+      <c r="XU54" s="13"/>
+      <c r="XV54" s="13"/>
+      <c r="XW54" s="13"/>
+      <c r="XX54" s="13"/>
+      <c r="XY54" s="13"/>
+      <c r="XZ54" s="13"/>
+      <c r="YA54" s="13"/>
+      <c r="YB54" s="13"/>
+      <c r="YC54" s="13"/>
+      <c r="YD54" s="13"/>
+      <c r="YE54" s="13"/>
+      <c r="YF54" s="13"/>
+      <c r="YG54" s="13"/>
+      <c r="YH54" s="13"/>
+      <c r="YI54" s="13"/>
+      <c r="YJ54" s="13"/>
+      <c r="YK54" s="13"/>
+      <c r="YL54" s="13"/>
+      <c r="YM54" s="13"/>
+      <c r="YN54" s="13"/>
+      <c r="YO54" s="13"/>
+      <c r="YP54" s="13"/>
+      <c r="YQ54" s="13"/>
+      <c r="YR54" s="13"/>
+      <c r="YS54" s="13"/>
+      <c r="YT54" s="13"/>
+      <c r="YU54" s="13"/>
+      <c r="YV54" s="13"/>
+      <c r="YW54" s="13"/>
+      <c r="YX54" s="13"/>
+      <c r="YY54" s="13"/>
+      <c r="YZ54" s="13"/>
+      <c r="ZA54" s="13"/>
+      <c r="ZB54" s="13"/>
+      <c r="ZC54" s="13"/>
+      <c r="ZD54" s="13"/>
+      <c r="ZE54" s="13"/>
+      <c r="ZF54" s="13"/>
+      <c r="ZG54" s="13"/>
+      <c r="ZH54" s="13"/>
+      <c r="ZI54" s="13"/>
+      <c r="ZJ54" s="13"/>
+      <c r="ZK54" s="13"/>
+      <c r="ZL54" s="13"/>
+      <c r="ZM54" s="13"/>
+      <c r="ZN54" s="13"/>
+      <c r="ZO54" s="13"/>
+      <c r="ZP54" s="13"/>
+      <c r="ZR54" s="13"/>
+      <c r="ZS54" s="13"/>
+      <c r="ZT54" s="13"/>
+      <c r="ZU54" s="13"/>
+      <c r="ZV54" s="13"/>
+      <c r="ZW54" s="13"/>
+      <c r="ZX54" s="13"/>
+      <c r="ZY54" s="13"/>
+      <c r="ZZ54" s="13"/>
+      <c r="AAA54" s="13"/>
+      <c r="AAB54" s="13"/>
+      <c r="AAC54" s="13"/>
+      <c r="AAD54" s="13"/>
+      <c r="AAE54" s="13"/>
+      <c r="AAF54" s="13"/>
+      <c r="AAG54" s="13"/>
+      <c r="AAH54" s="13"/>
+      <c r="AAI54" s="13"/>
+      <c r="AAJ54" s="13"/>
+      <c r="AAK54" s="13"/>
+      <c r="AAL54" s="13"/>
+      <c r="AAM54" s="13"/>
+      <c r="AAN54" s="13"/>
+      <c r="AAO54" s="13"/>
+      <c r="AAP54" s="13"/>
+      <c r="AAQ54" s="13"/>
+      <c r="AAR54" s="13"/>
+      <c r="AAS54" s="13"/>
+      <c r="AAT54" s="13"/>
+      <c r="AAU54" s="13"/>
+      <c r="AAV54" s="13"/>
+      <c r="AAW54" s="13"/>
+      <c r="AAX54" s="13"/>
+      <c r="ABD54" s="13"/>
+      <c r="ABE54" s="13"/>
+      <c r="ABF54" s="13"/>
+      <c r="ABG54" s="13"/>
+      <c r="ABH54" s="13"/>
+      <c r="ABI54" s="13"/>
+      <c r="ABJ54" s="13"/>
+      <c r="ABK54" s="13"/>
+      <c r="ABL54" s="13"/>
+      <c r="ABM54" s="13"/>
+      <c r="ABN54" s="13"/>
+      <c r="ABO54" s="13"/>
+      <c r="ABP54" s="13"/>
+      <c r="ABQ54" s="13"/>
+      <c r="ABR54" s="13"/>
+      <c r="ABS54" s="13"/>
+      <c r="ABT54" s="13"/>
+      <c r="ABU54" s="13"/>
+      <c r="ABV54" s="13"/>
+      <c r="ABW54" s="13"/>
+      <c r="ABX54" s="13"/>
+      <c r="ABY54" s="13"/>
+      <c r="ABZ54" s="13"/>
+      <c r="ACA54" s="13"/>
+      <c r="ACB54" s="13"/>
+      <c r="ACC54" s="13"/>
+      <c r="ACD54" s="13"/>
+      <c r="ACE54" s="13"/>
+      <c r="ACF54" s="13"/>
+      <c r="ACG54" s="13"/>
+      <c r="ACH54" s="13"/>
+      <c r="ACI54" s="13"/>
+      <c r="ACJ54" s="13"/>
+      <c r="ACK54" s="13"/>
+      <c r="ACL54" s="13"/>
+      <c r="ACM54" s="13"/>
+      <c r="ACN54" s="13"/>
+      <c r="ACO54" s="13"/>
+      <c r="ACP54" s="13"/>
+      <c r="ACQ54" s="13"/>
+      <c r="ACR54" s="13"/>
+      <c r="ACS54" s="13"/>
+      <c r="ACT54" s="13"/>
+      <c r="ACU54" s="13"/>
+      <c r="ACV54" s="13"/>
+      <c r="ACW54" s="13"/>
+      <c r="ACX54" s="13"/>
+      <c r="ACY54" s="13"/>
+      <c r="ACZ54" s="13"/>
+      <c r="ADA54" s="13"/>
+      <c r="ADB54" s="13"/>
+      <c r="ADC54" s="13"/>
+      <c r="ADD54" s="13"/>
+      <c r="ADE54" s="13"/>
+      <c r="ADF54" s="13"/>
+      <c r="ADG54" s="13"/>
+      <c r="ADH54" s="13"/>
+      <c r="ADI54" s="13"/>
+      <c r="ADJ54" s="13"/>
+      <c r="ADK54" s="13"/>
+      <c r="ADL54" s="13"/>
+      <c r="ADM54" s="13"/>
+      <c r="ADN54" s="13"/>
+      <c r="ADO54" s="13"/>
+      <c r="ADP54" s="13"/>
+      <c r="ADQ54" s="13"/>
+      <c r="ADU54" s="13"/>
+    </row>
+    <row r="55" spans="1:801">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+      <c r="X55" s="14"/>
+      <c r="Y55" s="14"/>
+      <c r="Z55" s="14"/>
+      <c r="AA55" s="14"/>
+      <c r="AB55" s="14"/>
+      <c r="AC55" s="14"/>
+      <c r="AD55" s="14"/>
+      <c r="AE55" s="14"/>
+      <c r="AF55" s="14"/>
+      <c r="AG55" s="14"/>
+      <c r="AH55" s="14"/>
+      <c r="AI55" s="14"/>
+      <c r="AJ55" s="14"/>
+      <c r="AK55" s="14"/>
+      <c r="AL55" s="14"/>
+      <c r="AM55" s="14"/>
+      <c r="AN55" s="14"/>
+      <c r="AO55" s="14"/>
+      <c r="AP55" s="14"/>
+      <c r="AQ55" s="14"/>
+      <c r="AR55" s="14"/>
+      <c r="AS55" s="14"/>
+      <c r="AT55" s="14"/>
+      <c r="AU55" s="14"/>
+      <c r="AV55" s="14"/>
+      <c r="AW55" s="14"/>
+      <c r="AX55" s="14"/>
+      <c r="AY55" s="14"/>
+      <c r="AZ55" s="14"/>
+      <c r="BA55" s="14"/>
+      <c r="BB55" s="14"/>
+      <c r="BC55" s="14"/>
+      <c r="BD55" s="14"/>
+      <c r="BE55" s="14"/>
+      <c r="BF55" s="14"/>
+      <c r="BG55" s="14"/>
+      <c r="BH55" s="14"/>
+      <c r="BI55" s="14"/>
+      <c r="BJ55" s="14"/>
+      <c r="BK55" s="14"/>
+      <c r="BL55" s="14"/>
+      <c r="BM55" s="14"/>
+      <c r="BQ55" s="14"/>
+      <c r="XB55" s="13"/>
+      <c r="XC55" s="13"/>
+      <c r="XD55" s="13"/>
+      <c r="XE55" s="13"/>
+      <c r="XF55" s="13"/>
+      <c r="XG55" s="13"/>
+      <c r="XH55" s="13"/>
+      <c r="XI55" s="13"/>
+      <c r="XJ55" s="13"/>
+      <c r="XK55" s="13"/>
+      <c r="XL55" s="13"/>
+      <c r="XM55" s="13"/>
+      <c r="XN55" s="13"/>
+      <c r="XO55" s="13"/>
+      <c r="XP55" s="13"/>
+      <c r="XQ55" s="13"/>
+      <c r="XR55" s="13"/>
+      <c r="XS55" s="13"/>
+      <c r="XT55" s="13"/>
+      <c r="XU55" s="13"/>
+      <c r="XV55" s="13"/>
+      <c r="XW55" s="13"/>
+      <c r="XX55" s="13"/>
+      <c r="XY55" s="13"/>
+      <c r="XZ55" s="13"/>
+      <c r="YA55" s="13"/>
+      <c r="YB55" s="13"/>
+      <c r="YC55" s="13"/>
+      <c r="YD55" s="13"/>
+      <c r="YE55" s="13"/>
+      <c r="YF55" s="13"/>
+      <c r="YG55" s="13"/>
+      <c r="YH55" s="13"/>
+      <c r="YI55" s="13"/>
+      <c r="YJ55" s="13"/>
+      <c r="YK55" s="13"/>
+      <c r="YL55" s="13"/>
+      <c r="YM55" s="13"/>
+      <c r="YN55" s="13"/>
+      <c r="YO55" s="13"/>
+      <c r="YP55" s="13"/>
+      <c r="YQ55" s="13"/>
+      <c r="YR55" s="13"/>
+      <c r="YS55" s="13"/>
+      <c r="YT55" s="13"/>
+      <c r="YU55" s="13"/>
+      <c r="YV55" s="13"/>
+      <c r="YW55" s="13"/>
+      <c r="YX55" s="13"/>
+      <c r="YY55" s="13"/>
+      <c r="YZ55" s="13"/>
+      <c r="ZA55" s="13"/>
+      <c r="ZB55" s="13"/>
+      <c r="ZC55" s="13"/>
+      <c r="ZD55" s="13"/>
+      <c r="ZE55" s="13"/>
+      <c r="ZF55" s="13"/>
+      <c r="ZG55" s="13"/>
+      <c r="ZH55" s="13"/>
+      <c r="ZI55" s="13"/>
+      <c r="ZJ55" s="13"/>
+      <c r="ZK55" s="13"/>
+      <c r="ZL55" s="13"/>
+      <c r="ZM55" s="13"/>
+      <c r="ZN55" s="13"/>
+      <c r="ZO55" s="13"/>
+      <c r="ZP55" s="13"/>
+      <c r="ZR55" s="13"/>
+      <c r="ZS55" s="13"/>
+      <c r="ZT55" s="13"/>
+      <c r="ZU55" s="13"/>
+      <c r="ZV55" s="13"/>
+      <c r="ZW55" s="13"/>
+      <c r="ZX55" s="13"/>
+      <c r="ZY55" s="13"/>
+      <c r="ZZ55" s="13"/>
+      <c r="AAA55" s="13"/>
+      <c r="AAB55" s="13"/>
+      <c r="AAC55" s="13"/>
+      <c r="AAD55" s="13"/>
+      <c r="AAE55" s="13"/>
+      <c r="AAF55" s="13"/>
+      <c r="AAG55" s="13"/>
+      <c r="AAH55" s="13"/>
+      <c r="AAI55" s="13"/>
+      <c r="AAJ55" s="13"/>
+      <c r="AAK55" s="13"/>
+      <c r="AAL55" s="13"/>
+      <c r="AAM55" s="13"/>
+      <c r="AAN55" s="13"/>
+      <c r="AAO55" s="13"/>
+      <c r="AAP55" s="13"/>
+      <c r="AAQ55" s="13"/>
+      <c r="AAR55" s="13"/>
+      <c r="AAS55" s="13"/>
+      <c r="AAT55" s="13"/>
+      <c r="AAU55" s="13"/>
+      <c r="AAV55" s="13"/>
+      <c r="AAW55" s="13"/>
+      <c r="AAX55" s="13"/>
+      <c r="ABD55" s="13"/>
+      <c r="ABE55" s="13"/>
+      <c r="ABF55" s="13"/>
+      <c r="ABG55" s="13"/>
+      <c r="ABH55" s="13"/>
+      <c r="ABI55" s="13"/>
+      <c r="ABJ55" s="13"/>
+      <c r="ABK55" s="13"/>
+      <c r="ABL55" s="13"/>
+      <c r="ABM55" s="13"/>
+      <c r="ABN55" s="13"/>
+      <c r="ABO55" s="13"/>
+      <c r="ABP55" s="13"/>
+      <c r="ABQ55" s="13"/>
+      <c r="ABR55" s="13"/>
+      <c r="ABS55" s="13"/>
+      <c r="ABT55" s="13"/>
+      <c r="ABU55" s="13"/>
+      <c r="ABV55" s="13"/>
+      <c r="ABW55" s="13"/>
+      <c r="ABX55" s="13"/>
+      <c r="ABY55" s="13"/>
+      <c r="ABZ55" s="13"/>
+      <c r="ACA55" s="13"/>
+      <c r="ACB55" s="13"/>
+      <c r="ACC55" s="13"/>
+      <c r="ACD55" s="13"/>
+      <c r="ACE55" s="13"/>
+      <c r="ACF55" s="13"/>
+      <c r="ACG55" s="13"/>
+      <c r="ACH55" s="13"/>
+      <c r="ACI55" s="13"/>
+      <c r="ACJ55" s="13"/>
+      <c r="ACK55" s="13"/>
+      <c r="ACL55" s="13"/>
+      <c r="ACM55" s="13"/>
+      <c r="ACN55" s="13"/>
+      <c r="ACO55" s="13"/>
+      <c r="ACP55" s="13"/>
+      <c r="ACQ55" s="13"/>
+      <c r="ACR55" s="13"/>
+      <c r="ACS55" s="13"/>
+      <c r="ACT55" s="13"/>
+      <c r="ACU55" s="13"/>
+      <c r="ACV55" s="13"/>
+      <c r="ACW55" s="13"/>
+      <c r="ACX55" s="13"/>
+      <c r="ACY55" s="13"/>
+      <c r="ACZ55" s="13"/>
+      <c r="ADA55" s="13"/>
+      <c r="ADB55" s="13"/>
+      <c r="ADC55" s="13"/>
+      <c r="ADD55" s="13"/>
+      <c r="ADE55" s="13"/>
+      <c r="ADF55" s="13"/>
+      <c r="ADG55" s="13"/>
+      <c r="ADH55" s="13"/>
+      <c r="ADI55" s="13"/>
+      <c r="ADJ55" s="13"/>
+      <c r="ADK55" s="13"/>
+      <c r="ADL55" s="13"/>
+      <c r="ADM55" s="13"/>
+      <c r="ADN55" s="13"/>
+      <c r="ADO55" s="13"/>
+      <c r="ADP55" s="13"/>
+      <c r="ADQ55" s="13"/>
+      <c r="ADU55" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="Z10:Z12"/>
+    <mergeCell ref="AA10:AA12"/>
+    <mergeCell ref="AB10:AB12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="C11:C12"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="O13:O42">
+    <cfRule type="cellIs" dxfId="7" priority="34" operator="equal">
+      <formula>"NA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="35" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="36" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13:O42">
+    <cfRule type="cellIs" dxfId="4" priority="29" operator="equal">
+      <formula>$O$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="30" operator="equal">
+      <formula>$O$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="31" operator="equal">
+      <formula>$O$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="equal">
+      <formula>$O$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="O13:O42" xr:uid="{5829EEAC-8155-4BAC-8166-0CDA5D2CBC43}">
+      <formula1>$O$2:$O$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K42" xr:uid="{6E3E7A8C-E83E-4B45-B39D-57A1ADB04495}">
+      <formula1>$K$2:$K$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J13:J42" xr:uid="{4A4AF890-7332-4788-9BEB-1C9E8C8503BE}">
+      <formula1>$J$2:$J$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
@@ -8502,7 +14774,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -8536,15 +14808,15 @@
       <c r="O1" s="21"/>
     </row>
     <row r="2" spans="1:16" s="22" customFormat="1" ht="18" customHeight="1">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="107" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="109"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="24"/>
@@ -8552,11 +14824,11 @@
     </row>
     <row r="3" spans="1:16" s="22" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="23"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="112"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="24"/>
